--- a/Datasets/data.xlsx
+++ b/Datasets/data.xlsx
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -58,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -563,8 +559,10 @@
       <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="n">
-        <v>42370</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2016-01-01</t>
+        </is>
       </c>
       <c r="D2" t="n">
         <v>2016</v>
@@ -656,8 +654,10 @@
       <c r="B3" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="n">
-        <v>42371</v>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2016-01-02</t>
+        </is>
       </c>
       <c r="D3" t="n">
         <v>2016</v>
@@ -749,8 +749,10 @@
       <c r="B4" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="n">
-        <v>42372</v>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2016-01-03</t>
+        </is>
       </c>
       <c r="D4" t="n">
         <v>2016</v>
@@ -840,8 +842,10 @@
       <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="2" t="n">
-        <v>42379</v>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2016-01-10</t>
+        </is>
       </c>
       <c r="D5" t="n">
         <v>2016</v>
@@ -933,8 +937,10 @@
       <c r="B6" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="2" t="n">
-        <v>42390</v>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2016-01-21</t>
+        </is>
       </c>
       <c r="D6" t="n">
         <v>2016</v>
@@ -1026,8 +1032,10 @@
       <c r="B7" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="2" t="n">
-        <v>42393</v>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2016-01-24</t>
+        </is>
       </c>
       <c r="D7" t="n">
         <v>2016</v>
@@ -1119,8 +1127,10 @@
       <c r="B8" t="n">
         <v>1</v>
       </c>
-      <c r="C8" s="2" t="n">
-        <v>42393</v>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2016-01-24</t>
+        </is>
       </c>
       <c r="D8" t="n">
         <v>2016</v>
@@ -1212,8 +1222,10 @@
       <c r="B9" t="n">
         <v>1</v>
       </c>
-      <c r="C9" s="2" t="n">
-        <v>42398</v>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2016-01-29</t>
+        </is>
       </c>
       <c r="D9" t="n">
         <v>2016</v>
@@ -1305,8 +1317,10 @@
       <c r="B10" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="2" t="n">
-        <v>42408</v>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2016-02-08</t>
+        </is>
       </c>
       <c r="D10" t="n">
         <v>2016</v>
@@ -1398,8 +1412,10 @@
       <c r="B11" t="n">
         <v>1</v>
       </c>
-      <c r="C11" s="2" t="n">
-        <v>42410</v>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2016-02-10</t>
+        </is>
       </c>
       <c r="D11" t="n">
         <v>2016</v>
@@ -1489,8 +1505,10 @@
       <c r="B12" t="n">
         <v>1</v>
       </c>
-      <c r="C12" s="2" t="n">
-        <v>42414</v>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2016-02-14</t>
+        </is>
       </c>
       <c r="D12" t="n">
         <v>2016</v>
@@ -1582,8 +1600,10 @@
       <c r="B13" t="n">
         <v>1</v>
       </c>
-      <c r="C13" s="2" t="n">
-        <v>42414</v>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2016-02-14</t>
+        </is>
       </c>
       <c r="D13" t="n">
         <v>2016</v>
@@ -1675,8 +1695,10 @@
       <c r="B14" t="n">
         <v>1</v>
       </c>
-      <c r="C14" s="2" t="n">
-        <v>42415</v>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2016-02-15</t>
+        </is>
       </c>
       <c r="D14" t="n">
         <v>2016</v>
@@ -1768,8 +1790,10 @@
       <c r="B15" t="n">
         <v>1</v>
       </c>
-      <c r="C15" s="2" t="n">
-        <v>42417</v>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2016-02-17</t>
+        </is>
       </c>
       <c r="D15" t="n">
         <v>2016</v>
@@ -1861,8 +1885,10 @@
       <c r="B16" t="n">
         <v>1</v>
       </c>
-      <c r="C16" s="2" t="n">
-        <v>42417</v>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2016-02-17</t>
+        </is>
       </c>
       <c r="D16" t="n">
         <v>2016</v>
@@ -1952,8 +1978,10 @@
       <c r="B17" t="n">
         <v>1</v>
       </c>
-      <c r="C17" s="2" t="n">
-        <v>42417</v>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2016-02-17</t>
+        </is>
       </c>
       <c r="D17" t="n">
         <v>2016</v>
@@ -2045,8 +2073,10 @@
       <c r="B18" t="n">
         <v>1</v>
       </c>
-      <c r="C18" s="2" t="n">
-        <v>42421</v>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2016-02-21</t>
+        </is>
       </c>
       <c r="D18" t="n">
         <v>2016</v>
@@ -2138,8 +2168,10 @@
       <c r="B19" t="n">
         <v>1</v>
       </c>
-      <c r="C19" s="2" t="n">
-        <v>42428</v>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2016-02-28</t>
+        </is>
       </c>
       <c r="D19" t="n">
         <v>2016</v>
@@ -2231,8 +2263,10 @@
       <c r="B20" t="n">
         <v>1</v>
       </c>
-      <c r="C20" s="2" t="n">
-        <v>42428</v>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2016-02-28</t>
+        </is>
       </c>
       <c r="D20" t="n">
         <v>2016</v>
@@ -2324,8 +2358,10 @@
       <c r="B21" t="n">
         <v>1</v>
       </c>
-      <c r="C21" s="2" t="n">
-        <v>42428</v>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2016-02-28</t>
+        </is>
       </c>
       <c r="D21" t="n">
         <v>2016</v>
@@ -2417,8 +2453,10 @@
       <c r="B22" t="n">
         <v>1</v>
       </c>
-      <c r="C22" s="2" t="n">
-        <v>42431</v>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2016-03-02</t>
+        </is>
       </c>
       <c r="D22" t="n">
         <v>2016</v>
@@ -2510,8 +2548,10 @@
       <c r="B23" t="n">
         <v>1</v>
       </c>
-      <c r="C23" s="2" t="n">
-        <v>42433</v>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2016-03-04</t>
+        </is>
       </c>
       <c r="D23" t="n">
         <v>2016</v>
@@ -2603,8 +2643,10 @@
       <c r="B24" t="n">
         <v>1</v>
       </c>
-      <c r="C24" s="2" t="n">
-        <v>42437</v>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2016-03-08</t>
+        </is>
       </c>
       <c r="D24" t="n">
         <v>2016</v>
@@ -2696,8 +2738,10 @@
       <c r="B25" t="n">
         <v>1</v>
       </c>
-      <c r="C25" s="2" t="n">
-        <v>42441</v>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2016-03-12</t>
+        </is>
       </c>
       <c r="D25" t="n">
         <v>2016</v>
@@ -2789,8 +2833,10 @@
       <c r="B26" t="n">
         <v>1</v>
       </c>
-      <c r="C26" s="2" t="n">
-        <v>42442</v>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2016-03-13</t>
+        </is>
       </c>
       <c r="D26" t="n">
         <v>2016</v>
@@ -2882,8 +2928,10 @@
       <c r="B27" t="n">
         <v>1</v>
       </c>
-      <c r="C27" s="2" t="n">
-        <v>42443</v>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2016-03-14</t>
+        </is>
       </c>
       <c r="D27" t="n">
         <v>2016</v>
@@ -2975,8 +3023,10 @@
       <c r="B28" t="n">
         <v>1</v>
       </c>
-      <c r="C28" s="2" t="n">
-        <v>42448</v>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2016-03-19</t>
+        </is>
       </c>
       <c r="D28" t="n">
         <v>2016</v>
@@ -3068,8 +3118,10 @@
       <c r="B29" t="n">
         <v>1</v>
       </c>
-      <c r="C29" s="2" t="n">
-        <v>42450</v>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2016-03-21</t>
+        </is>
       </c>
       <c r="D29" t="n">
         <v>2016</v>
@@ -3161,8 +3213,10 @@
       <c r="B30" t="n">
         <v>1</v>
       </c>
-      <c r="C30" s="2" t="n">
-        <v>42452</v>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2016-03-23</t>
+        </is>
       </c>
       <c r="D30" t="n">
         <v>2016</v>
@@ -3254,8 +3308,10 @@
       <c r="B31" t="n">
         <v>2</v>
       </c>
-      <c r="C31" s="2" t="n">
-        <v>42458</v>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2016-03-29</t>
+        </is>
       </c>
       <c r="D31" t="n">
         <v>2016</v>
@@ -3347,8 +3403,10 @@
       <c r="B32" t="n">
         <v>2</v>
       </c>
-      <c r="C32" s="2" t="n">
-        <v>42458</v>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2016-03-29</t>
+        </is>
       </c>
       <c r="D32" t="n">
         <v>2016</v>
@@ -3440,8 +3498,10 @@
       <c r="B33" t="n">
         <v>1</v>
       </c>
-      <c r="C33" s="2" t="n">
-        <v>42459</v>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2016-03-30</t>
+        </is>
       </c>
       <c r="D33" t="n">
         <v>2016</v>
@@ -3533,8 +3593,10 @@
       <c r="B34" t="n">
         <v>1</v>
       </c>
-      <c r="C34" s="2" t="n">
-        <v>42460</v>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2016-03-31</t>
+        </is>
       </c>
       <c r="D34" t="n">
         <v>2016</v>
@@ -3626,8 +3688,10 @@
       <c r="B35" t="n">
         <v>1</v>
       </c>
-      <c r="C35" s="2" t="n">
-        <v>42471</v>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2016-04-11</t>
+        </is>
       </c>
       <c r="D35" t="n">
         <v>2016</v>
@@ -3719,8 +3783,10 @@
       <c r="B36" t="n">
         <v>1</v>
       </c>
-      <c r="C36" s="2" t="n">
-        <v>42475</v>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2016-04-15</t>
+        </is>
       </c>
       <c r="D36" t="n">
         <v>2016</v>
@@ -3810,8 +3876,10 @@
       <c r="B37" t="n">
         <v>1</v>
       </c>
-      <c r="C37" s="2" t="n">
-        <v>42475</v>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2016-04-15</t>
+        </is>
       </c>
       <c r="D37" t="n">
         <v>2016</v>
@@ -3903,8 +3971,10 @@
       <c r="B38" t="n">
         <v>1</v>
       </c>
-      <c r="C38" s="2" t="n">
-        <v>42477</v>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2016-04-17</t>
+        </is>
       </c>
       <c r="D38" t="n">
         <v>2016</v>
@@ -3992,8 +4062,10 @@
       <c r="B39" t="n">
         <v>1</v>
       </c>
-      <c r="C39" s="2" t="n">
-        <v>42479</v>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2016-04-19</t>
+        </is>
       </c>
       <c r="D39" t="n">
         <v>2016</v>
@@ -4085,8 +4157,10 @@
       <c r="B40" t="n">
         <v>1</v>
       </c>
-      <c r="C40" s="2" t="n">
-        <v>42480</v>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>2016-04-20</t>
+        </is>
       </c>
       <c r="D40" t="n">
         <v>2016</v>
@@ -4178,8 +4252,10 @@
       <c r="B41" t="n">
         <v>1</v>
       </c>
-      <c r="C41" s="2" t="n">
-        <v>42480</v>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>2016-04-20</t>
+        </is>
       </c>
       <c r="D41" t="n">
         <v>2016</v>
@@ -4263,8 +4339,10 @@
       <c r="B42" t="n">
         <v>1</v>
       </c>
-      <c r="C42" s="2" t="n">
-        <v>42482</v>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>2016-04-22</t>
+        </is>
       </c>
       <c r="D42" t="n">
         <v>2016</v>
@@ -4356,8 +4434,10 @@
       <c r="B43" t="n">
         <v>1</v>
       </c>
-      <c r="C43" s="2" t="n">
-        <v>42483</v>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>2016-04-23</t>
+        </is>
       </c>
       <c r="D43" t="n">
         <v>2016</v>
@@ -4449,8 +4529,10 @@
       <c r="B44" t="n">
         <v>1</v>
       </c>
-      <c r="C44" s="2" t="n">
-        <v>42485</v>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>2016-04-25</t>
+        </is>
       </c>
       <c r="D44" t="n">
         <v>2016</v>
@@ -4542,8 +4624,10 @@
       <c r="B45" t="n">
         <v>1</v>
       </c>
-      <c r="C45" s="2" t="n">
-        <v>42486</v>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>2016-04-26</t>
+        </is>
       </c>
       <c r="D45" t="n">
         <v>2016</v>
@@ -4633,8 +4717,10 @@
       <c r="B46" t="n">
         <v>1</v>
       </c>
-      <c r="C46" s="2" t="n">
-        <v>42494</v>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>2016-05-04</t>
+        </is>
       </c>
       <c r="D46" t="n">
         <v>2016</v>
@@ -4724,8 +4810,10 @@
       <c r="B47" t="n">
         <v>1</v>
       </c>
-      <c r="C47" s="2" t="n">
-        <v>42498</v>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>2016-05-08</t>
+        </is>
       </c>
       <c r="D47" t="n">
         <v>2016</v>
@@ -4817,8 +4905,10 @@
       <c r="B48" t="n">
         <v>1</v>
       </c>
-      <c r="C48" s="2" t="n">
-        <v>42504</v>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>2016-05-14</t>
+        </is>
       </c>
       <c r="D48" t="n">
         <v>2016</v>
@@ -4910,8 +5000,10 @@
       <c r="B49" t="n">
         <v>1</v>
       </c>
-      <c r="C49" s="2" t="n">
-        <v>42510</v>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>2016-05-20</t>
+        </is>
       </c>
       <c r="D49" t="n">
         <v>2016</v>
@@ -5003,8 +5095,10 @@
       <c r="B50" t="n">
         <v>1</v>
       </c>
-      <c r="C50" s="2" t="n">
-        <v>42511</v>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>2016-05-21</t>
+        </is>
       </c>
       <c r="D50" t="n">
         <v>2016</v>
@@ -5096,8 +5190,10 @@
       <c r="B51" t="n">
         <v>1</v>
       </c>
-      <c r="C51" s="2" t="n">
-        <v>42512</v>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>2016-05-22</t>
+        </is>
       </c>
       <c r="D51" t="n">
         <v>2016</v>
@@ -5189,8 +5285,10 @@
       <c r="B52" t="n">
         <v>1</v>
       </c>
-      <c r="C52" s="2" t="n">
-        <v>42513</v>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>2016-05-23</t>
+        </is>
       </c>
       <c r="D52" t="n">
         <v>2016</v>
@@ -5282,8 +5380,10 @@
       <c r="B53" t="n">
         <v>1</v>
       </c>
-      <c r="C53" s="2" t="n">
-        <v>42532</v>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>2016-06-11</t>
+        </is>
       </c>
       <c r="D53" t="n">
         <v>2016</v>
@@ -5373,8 +5473,10 @@
       <c r="B54" t="n">
         <v>1</v>
       </c>
-      <c r="C54" s="2" t="n">
-        <v>42533</v>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
       </c>
       <c r="D54" t="n">
         <v>2016</v>
@@ -5466,8 +5568,10 @@
       <c r="B55" t="n">
         <v>1</v>
       </c>
-      <c r="C55" s="2" t="n">
-        <v>42533</v>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>2016-06-12</t>
+        </is>
       </c>
       <c r="D55" t="n">
         <v>2016</v>
@@ -5559,8 +5663,10 @@
       <c r="B56" t="n">
         <v>1</v>
       </c>
-      <c r="C56" s="2" t="n">
-        <v>42534</v>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>2016-06-13</t>
+        </is>
       </c>
       <c r="D56" t="n">
         <v>2016</v>
@@ -5652,8 +5758,10 @@
       <c r="B57" t="n">
         <v>1</v>
       </c>
-      <c r="C57" s="2" t="n">
-        <v>42534</v>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>2016-06-13</t>
+        </is>
       </c>
       <c r="D57" t="n">
         <v>2016</v>
@@ -5745,8 +5853,10 @@
       <c r="B58" t="n">
         <v>1</v>
       </c>
-      <c r="C58" s="2" t="n">
-        <v>42534</v>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>2016-06-13</t>
+        </is>
       </c>
       <c r="D58" t="n">
         <v>2016</v>
@@ -5838,8 +5948,10 @@
       <c r="B59" t="n">
         <v>1</v>
       </c>
-      <c r="C59" s="2" t="n">
-        <v>42537</v>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>2016-06-16</t>
+        </is>
       </c>
       <c r="D59" t="n">
         <v>2016</v>
@@ -5931,8 +6043,10 @@
       <c r="B60" t="n">
         <v>1</v>
       </c>
-      <c r="C60" s="2" t="n">
-        <v>42539</v>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>2016-06-18</t>
+        </is>
       </c>
       <c r="D60" t="n">
         <v>2016</v>
@@ -6024,8 +6138,10 @@
       <c r="B61" t="n">
         <v>1</v>
       </c>
-      <c r="C61" s="2" t="n">
-        <v>42543</v>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>2016-06-22</t>
+        </is>
       </c>
       <c r="D61" t="n">
         <v>2016</v>
@@ -6117,8 +6233,10 @@
       <c r="B62" t="n">
         <v>1</v>
       </c>
-      <c r="C62" s="2" t="n">
-        <v>42548</v>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>2016-06-27</t>
+        </is>
       </c>
       <c r="D62" t="n">
         <v>2016</v>
@@ -6208,8 +6326,10 @@
       <c r="B63" t="n">
         <v>1</v>
       </c>
-      <c r="C63" s="2" t="n">
-        <v>42549</v>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>2016-06-28</t>
+        </is>
       </c>
       <c r="D63" t="n">
         <v>2016</v>
@@ -6301,8 +6421,10 @@
       <c r="B64" t="n">
         <v>1</v>
       </c>
-      <c r="C64" s="2" t="n">
-        <v>42550</v>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>2016-06-29</t>
+        </is>
       </c>
       <c r="D64" t="n">
         <v>2016</v>
@@ -6394,8 +6516,10 @@
       <c r="B65" t="n">
         <v>1</v>
       </c>
-      <c r="C65" s="2" t="n">
-        <v>42550</v>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>2016-06-29</t>
+        </is>
       </c>
       <c r="D65" t="n">
         <v>2016</v>
@@ -6487,8 +6611,10 @@
       <c r="B66" t="n">
         <v>1</v>
       </c>
-      <c r="C66" s="2" t="n">
-        <v>42551</v>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>2016-06-30</t>
+        </is>
       </c>
       <c r="D66" t="n">
         <v>2016</v>
@@ -6580,8 +6706,10 @@
       <c r="B67" t="n">
         <v>1</v>
       </c>
-      <c r="C67" s="2" t="n">
-        <v>42553</v>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>2016-07-02</t>
+        </is>
       </c>
       <c r="D67" t="n">
         <v>2016</v>
@@ -6669,8 +6797,10 @@
       <c r="B68" t="n">
         <v>1</v>
       </c>
-      <c r="C68" s="2" t="n">
-        <v>42562</v>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>2016-07-11</t>
+        </is>
       </c>
       <c r="D68" t="n">
         <v>2016</v>
@@ -6762,8 +6892,10 @@
       <c r="B69" t="n">
         <v>1</v>
       </c>
-      <c r="C69" s="2" t="n">
-        <v>42565</v>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>2016-07-14</t>
+        </is>
       </c>
       <c r="D69" t="n">
         <v>2016</v>
@@ -6855,8 +6987,10 @@
       <c r="B70" t="n">
         <v>1</v>
       </c>
-      <c r="C70" s="2" t="n">
-        <v>42565</v>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>2016-07-14</t>
+        </is>
       </c>
       <c r="D70" t="n">
         <v>2016</v>
@@ -6948,8 +7082,10 @@
       <c r="B71" t="n">
         <v>1</v>
       </c>
-      <c r="C71" s="2" t="n">
-        <v>42566</v>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>2016-07-15</t>
+        </is>
       </c>
       <c r="D71" t="n">
         <v>2016</v>
@@ -7041,8 +7177,10 @@
       <c r="B72" t="n">
         <v>1</v>
       </c>
-      <c r="C72" s="2" t="n">
-        <v>42568</v>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>2016-07-17</t>
+        </is>
       </c>
       <c r="D72" t="n">
         <v>2016</v>
@@ -7134,8 +7272,10 @@
       <c r="B73" t="n">
         <v>1</v>
       </c>
-      <c r="C73" s="2" t="n">
-        <v>42574</v>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>2016-07-23</t>
+        </is>
       </c>
       <c r="D73" t="n">
         <v>2016</v>
@@ -7227,8 +7367,10 @@
       <c r="B74" t="n">
         <v>1</v>
       </c>
-      <c r="C74" s="2" t="n">
-        <v>42576</v>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>2016-07-25</t>
+        </is>
       </c>
       <c r="D74" t="n">
         <v>2016</v>
@@ -7316,8 +7458,10 @@
       <c r="B75" t="n">
         <v>1</v>
       </c>
-      <c r="C75" s="2" t="n">
-        <v>42577</v>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>2016-07-26</t>
+        </is>
       </c>
       <c r="D75" t="n">
         <v>2016</v>
@@ -7409,8 +7553,10 @@
       <c r="B76" t="n">
         <v>1</v>
       </c>
-      <c r="C76" s="2" t="n">
-        <v>42578</v>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>2016-07-27</t>
+        </is>
       </c>
       <c r="D76" t="n">
         <v>2016</v>
@@ -7502,8 +7648,10 @@
       <c r="B77" t="n">
         <v>1</v>
       </c>
-      <c r="C77" s="2" t="n">
-        <v>42580</v>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>2016-07-29</t>
+        </is>
       </c>
       <c r="D77" t="n">
         <v>2016</v>
@@ -7595,8 +7743,10 @@
       <c r="B78" t="n">
         <v>1</v>
       </c>
-      <c r="C78" s="2" t="n">
-        <v>42585</v>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>2016-08-03</t>
+        </is>
       </c>
       <c r="D78" t="n">
         <v>2016</v>
@@ -7688,8 +7838,10 @@
       <c r="B79" t="n">
         <v>1</v>
       </c>
-      <c r="C79" s="2" t="n">
-        <v>42589</v>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>2016-08-07</t>
+        </is>
       </c>
       <c r="D79" t="n">
         <v>2016</v>
@@ -7781,8 +7933,10 @@
       <c r="B80" t="n">
         <v>1</v>
       </c>
-      <c r="C80" s="2" t="n">
-        <v>42592</v>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>2016-08-10</t>
+        </is>
       </c>
       <c r="D80" t="n">
         <v>2016</v>
@@ -7874,8 +8028,10 @@
       <c r="B81" t="n">
         <v>1</v>
       </c>
-      <c r="C81" s="2" t="n">
-        <v>42596</v>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>2016-08-14</t>
+        </is>
       </c>
       <c r="D81" t="n">
         <v>2016</v>
@@ -7967,8 +8123,10 @@
       <c r="B82" t="n">
         <v>1</v>
       </c>
-      <c r="C82" s="2" t="n">
-        <v>42599</v>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>2016-08-17</t>
+        </is>
       </c>
       <c r="D82" t="n">
         <v>2016</v>
@@ -8060,8 +8218,10 @@
       <c r="B83" t="n">
         <v>1</v>
       </c>
-      <c r="C83" s="2" t="n">
-        <v>42601</v>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>2016-08-19</t>
+        </is>
       </c>
       <c r="D83" t="n">
         <v>2016</v>
@@ -8153,8 +8313,10 @@
       <c r="B84" t="n">
         <v>1</v>
       </c>
-      <c r="C84" s="2" t="n">
-        <v>42602</v>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>2016-08-20</t>
+        </is>
       </c>
       <c r="D84" t="n">
         <v>2016</v>
@@ -8242,8 +8404,10 @@
       <c r="B85" t="n">
         <v>1</v>
       </c>
-      <c r="C85" s="2" t="n">
-        <v>42606</v>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>2016-08-24</t>
+        </is>
       </c>
       <c r="D85" t="n">
         <v>2016</v>
@@ -8335,8 +8499,10 @@
       <c r="B86" t="n">
         <v>1</v>
       </c>
-      <c r="C86" s="2" t="n">
-        <v>42606</v>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>2016-08-24</t>
+        </is>
       </c>
       <c r="D86" t="n">
         <v>2016</v>
@@ -8428,8 +8594,10 @@
       <c r="B87" t="n">
         <v>1</v>
       </c>
-      <c r="C87" s="2" t="n">
-        <v>42607</v>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>2016-08-25</t>
+        </is>
       </c>
       <c r="D87" t="n">
         <v>2016</v>
@@ -8521,8 +8689,10 @@
       <c r="B88" t="n">
         <v>1</v>
       </c>
-      <c r="C88" s="2" t="n">
-        <v>42609</v>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>2016-08-27</t>
+        </is>
       </c>
       <c r="D88" t="n">
         <v>2016</v>
@@ -8614,8 +8784,10 @@
       <c r="B89" t="n">
         <v>1</v>
       </c>
-      <c r="C89" s="2" t="n">
-        <v>42609</v>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>2016-08-27</t>
+        </is>
       </c>
       <c r="D89" t="n">
         <v>2016</v>
@@ -8707,8 +8879,10 @@
       <c r="B90" t="n">
         <v>1</v>
       </c>
-      <c r="C90" s="2" t="n">
-        <v>42613</v>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>2016-08-31</t>
+        </is>
       </c>
       <c r="D90" t="n">
         <v>2016</v>
@@ -8798,8 +8972,10 @@
       <c r="B91" t="n">
         <v>1</v>
       </c>
-      <c r="C91" s="2" t="n">
-        <v>42615</v>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>2016-09-02</t>
+        </is>
       </c>
       <c r="D91" t="n">
         <v>2016</v>
@@ -8891,8 +9067,10 @@
       <c r="B92" t="n">
         <v>1</v>
       </c>
-      <c r="C92" s="2" t="n">
-        <v>42615</v>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>2016-09-02</t>
+        </is>
       </c>
       <c r="D92" t="n">
         <v>2016</v>
@@ -8984,8 +9162,10 @@
       <c r="B93" t="n">
         <v>1</v>
       </c>
-      <c r="C93" s="2" t="n">
-        <v>42616</v>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>2016-09-03</t>
+        </is>
       </c>
       <c r="D93" t="n">
         <v>2016</v>
@@ -9077,8 +9257,10 @@
       <c r="B94" t="n">
         <v>1</v>
       </c>
-      <c r="C94" s="2" t="n">
-        <v>42617</v>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>2016-09-04</t>
+        </is>
       </c>
       <c r="D94" t="n">
         <v>2016</v>
@@ -9166,8 +9348,10 @@
       <c r="B95" t="n">
         <v>1</v>
       </c>
-      <c r="C95" s="2" t="n">
-        <v>42617</v>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>2016-09-04</t>
+        </is>
       </c>
       <c r="D95" t="n">
         <v>2016</v>
@@ -9259,8 +9443,10 @@
       <c r="B96" t="n">
         <v>1</v>
       </c>
-      <c r="C96" s="2" t="n">
-        <v>42626</v>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>2016-09-13</t>
+        </is>
       </c>
       <c r="D96" t="n">
         <v>2016</v>
@@ -9350,8 +9536,10 @@
       <c r="B97" t="n">
         <v>1</v>
       </c>
-      <c r="C97" s="2" t="n">
-        <v>42627</v>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>2016-09-14</t>
+        </is>
       </c>
       <c r="D97" t="n">
         <v>2016</v>
@@ -9443,8 +9631,10 @@
       <c r="B98" t="n">
         <v>1</v>
       </c>
-      <c r="C98" s="2" t="n">
-        <v>42629</v>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>2016-09-16</t>
+        </is>
       </c>
       <c r="D98" t="n">
         <v>2016</v>
@@ -9536,8 +9726,10 @@
       <c r="B99" t="n">
         <v>1</v>
       </c>
-      <c r="C99" s="2" t="n">
-        <v>42630</v>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>2016-09-17</t>
+        </is>
       </c>
       <c r="D99" t="n">
         <v>2016</v>
@@ -9629,8 +9821,10 @@
       <c r="B100" t="n">
         <v>2</v>
       </c>
-      <c r="C100" s="2" t="n">
-        <v>42631</v>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>2016-09-18</t>
+        </is>
       </c>
       <c r="D100" t="n">
         <v>2016</v>
@@ -9722,8 +9916,10 @@
       <c r="B101" t="n">
         <v>2</v>
       </c>
-      <c r="C101" s="2" t="n">
-        <v>42631</v>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>2016-09-18</t>
+        </is>
       </c>
       <c r="D101" t="n">
         <v>2016</v>
@@ -9815,8 +10011,10 @@
       <c r="B102" t="n">
         <v>1</v>
       </c>
-      <c r="C102" s="2" t="n">
-        <v>42637</v>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>2016-09-24</t>
+        </is>
       </c>
       <c r="D102" t="n">
         <v>2016</v>
@@ -9908,8 +10106,10 @@
       <c r="B103" t="n">
         <v>1</v>
       </c>
-      <c r="C103" s="2" t="n">
-        <v>42645</v>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>2016-10-02</t>
+        </is>
       </c>
       <c r="D103" t="n">
         <v>2016</v>
@@ -10001,8 +10201,10 @@
       <c r="B104" t="n">
         <v>1</v>
       </c>
-      <c r="C104" s="2" t="n">
-        <v>42647</v>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>2016-10-04</t>
+        </is>
       </c>
       <c r="D104" t="n">
         <v>2016</v>
@@ -10090,8 +10292,10 @@
       <c r="B105" t="n">
         <v>1</v>
       </c>
-      <c r="C105" s="2" t="n">
-        <v>42652</v>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>2016-10-09</t>
+        </is>
       </c>
       <c r="D105" t="n">
         <v>2016</v>
@@ -10181,8 +10385,10 @@
       <c r="B106" t="n">
         <v>1</v>
       </c>
-      <c r="C106" s="2" t="n">
-        <v>42653</v>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>2016-10-10</t>
+        </is>
       </c>
       <c r="D106" t="n">
         <v>2016</v>
@@ -10274,8 +10480,10 @@
       <c r="B107" t="n">
         <v>1</v>
       </c>
-      <c r="C107" s="2" t="n">
-        <v>42657</v>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>2016-10-14</t>
+        </is>
       </c>
       <c r="D107" t="n">
         <v>2016</v>
@@ -10367,8 +10575,10 @@
       <c r="B108" t="n">
         <v>1</v>
       </c>
-      <c r="C108" s="2" t="n">
-        <v>42666</v>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>2016-10-23</t>
+        </is>
       </c>
       <c r="D108" t="n">
         <v>2016</v>
@@ -10460,8 +10670,10 @@
       <c r="B109" t="n">
         <v>1</v>
       </c>
-      <c r="C109" s="2" t="n">
-        <v>42667</v>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>2016-10-24</t>
+        </is>
       </c>
       <c r="D109" t="n">
         <v>2016</v>
@@ -10553,8 +10765,10 @@
       <c r="B110" t="n">
         <v>1</v>
       </c>
-      <c r="C110" s="2" t="n">
-        <v>42668</v>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>2016-10-25</t>
+        </is>
       </c>
       <c r="D110" t="n">
         <v>2016</v>
@@ -10638,8 +10852,10 @@
       <c r="B111" t="n">
         <v>1</v>
       </c>
-      <c r="C111" s="2" t="n">
-        <v>42668</v>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>2016-10-25</t>
+        </is>
       </c>
       <c r="D111" t="n">
         <v>2016</v>
@@ -10731,8 +10947,10 @@
       <c r="B112" t="n">
         <v>1</v>
       </c>
-      <c r="C112" s="2" t="n">
-        <v>42670</v>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>2016-10-27</t>
+        </is>
       </c>
       <c r="D112" t="n">
         <v>2016</v>
@@ -10824,8 +11042,10 @@
       <c r="B113" t="n">
         <v>1</v>
       </c>
-      <c r="C113" s="2" t="n">
-        <v>42671</v>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>2016-10-28</t>
+        </is>
       </c>
       <c r="D113" t="n">
         <v>2016</v>
@@ -10917,8 +11137,10 @@
       <c r="B114" t="n">
         <v>1</v>
       </c>
-      <c r="C114" s="2" t="n">
-        <v>42674</v>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>2016-10-31</t>
+        </is>
       </c>
       <c r="D114" t="n">
         <v>2016</v>
@@ -11010,8 +11232,10 @@
       <c r="B115" t="n">
         <v>1</v>
       </c>
-      <c r="C115" s="2" t="n">
-        <v>42679</v>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>2016-11-05</t>
+        </is>
       </c>
       <c r="D115" t="n">
         <v>2016</v>
@@ -11103,8 +11327,10 @@
       <c r="B116" t="n">
         <v>1</v>
       </c>
-      <c r="C116" s="2" t="n">
-        <v>42680</v>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>2016-11-06</t>
+        </is>
       </c>
       <c r="D116" t="n">
         <v>2016</v>
@@ -11196,8 +11422,10 @@
       <c r="B117" t="n">
         <v>1</v>
       </c>
-      <c r="C117" s="2" t="n">
-        <v>42681</v>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>2016-11-07</t>
+        </is>
       </c>
       <c r="D117" t="n">
         <v>2016</v>
@@ -11287,8 +11515,10 @@
       <c r="B118" t="n">
         <v>1</v>
       </c>
-      <c r="C118" s="2" t="n">
-        <v>42681</v>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>2016-11-07</t>
+        </is>
       </c>
       <c r="D118" t="n">
         <v>2016</v>
@@ -11380,8 +11610,10 @@
       <c r="B119" t="n">
         <v>1</v>
       </c>
-      <c r="C119" s="2" t="n">
-        <v>42683</v>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>2016-11-09</t>
+        </is>
       </c>
       <c r="D119" t="n">
         <v>2016</v>
@@ -11473,8 +11705,10 @@
       <c r="B120" t="n">
         <v>1</v>
       </c>
-      <c r="C120" s="2" t="n">
-        <v>42690</v>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>2016-11-16</t>
+        </is>
       </c>
       <c r="D120" t="n">
         <v>2016</v>
@@ -11566,8 +11800,10 @@
       <c r="B121" t="n">
         <v>1</v>
       </c>
-      <c r="C121" s="2" t="n">
-        <v>42690</v>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>2016-11-16</t>
+        </is>
       </c>
       <c r="D121" t="n">
         <v>2016</v>
@@ -11657,8 +11893,10 @@
       <c r="B122" t="n">
         <v>1</v>
       </c>
-      <c r="C122" s="2" t="n">
-        <v>42692</v>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>2016-11-18</t>
+        </is>
       </c>
       <c r="D122" t="n">
         <v>2016</v>
@@ -11750,8 +11988,10 @@
       <c r="B123" t="n">
         <v>1</v>
       </c>
-      <c r="C123" s="2" t="n">
-        <v>42692</v>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>2016-11-18</t>
+        </is>
       </c>
       <c r="D123" t="n">
         <v>2016</v>
@@ -11831,8 +12071,10 @@
       <c r="B124" t="n">
         <v>1</v>
       </c>
-      <c r="C124" s="2" t="n">
-        <v>42697</v>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>2016-11-23</t>
+        </is>
       </c>
       <c r="D124" t="n">
         <v>2016</v>
@@ -11924,8 +12166,10 @@
       <c r="B125" t="n">
         <v>1</v>
       </c>
-      <c r="C125" s="2" t="n">
-        <v>42699</v>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>2016-11-25</t>
+        </is>
       </c>
       <c r="D125" t="n">
         <v>2016</v>
@@ -12017,8 +12261,10 @@
       <c r="B126" t="n">
         <v>1</v>
       </c>
-      <c r="C126" s="2" t="n">
-        <v>42700</v>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>2016-11-26</t>
+        </is>
       </c>
       <c r="D126" t="n">
         <v>2016</v>
@@ -12108,8 +12354,10 @@
       <c r="B127" t="n">
         <v>1</v>
       </c>
-      <c r="C127" s="2" t="n">
-        <v>42700</v>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>2016-11-26</t>
+        </is>
       </c>
       <c r="D127" t="n">
         <v>2016</v>
@@ -12199,8 +12447,10 @@
       <c r="B128" t="n">
         <v>1</v>
       </c>
-      <c r="C128" s="2" t="n">
-        <v>42700</v>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>2016-11-26</t>
+        </is>
       </c>
       <c r="D128" t="n">
         <v>2016</v>
@@ -12292,8 +12542,10 @@
       <c r="B129" t="n">
         <v>1</v>
       </c>
-      <c r="C129" s="2" t="n">
-        <v>42707</v>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>2016-12-03</t>
+        </is>
       </c>
       <c r="D129" t="n">
         <v>2016</v>
@@ -12383,8 +12635,10 @@
       <c r="B130" t="n">
         <v>1</v>
       </c>
-      <c r="C130" s="2" t="n">
-        <v>42708</v>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>2016-12-04</t>
+        </is>
       </c>
       <c r="D130" t="n">
         <v>2016</v>
@@ -12476,8 +12730,10 @@
       <c r="B131" t="n">
         <v>1</v>
       </c>
-      <c r="C131" s="2" t="n">
-        <v>42710</v>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>2016-12-06</t>
+        </is>
       </c>
       <c r="D131" t="n">
         <v>2016</v>
@@ -12565,8 +12821,10 @@
       <c r="B132" t="n">
         <v>1</v>
       </c>
-      <c r="C132" s="2" t="n">
-        <v>42710</v>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>2016-12-06</t>
+        </is>
       </c>
       <c r="D132" t="n">
         <v>2016</v>
@@ -12658,8 +12916,10 @@
       <c r="B133" t="n">
         <v>1</v>
       </c>
-      <c r="C133" s="2" t="n">
-        <v>42711</v>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>2016-12-07</t>
+        </is>
       </c>
       <c r="D133" t="n">
         <v>2016</v>
@@ -12751,8 +13011,10 @@
       <c r="B134" t="n">
         <v>1</v>
       </c>
-      <c r="C134" s="2" t="n">
-        <v>42714</v>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>2016-12-10</t>
+        </is>
       </c>
       <c r="D134" t="n">
         <v>2016</v>
@@ -12844,8 +13106,10 @@
       <c r="B135" t="n">
         <v>1</v>
       </c>
-      <c r="C135" s="2" t="n">
-        <v>42715</v>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>2016-12-11</t>
+        </is>
       </c>
       <c r="D135" t="n">
         <v>2016</v>
@@ -12937,8 +13201,10 @@
       <c r="B136" t="n">
         <v>1</v>
       </c>
-      <c r="C136" s="2" t="n">
-        <v>42716</v>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>2016-12-12</t>
+        </is>
       </c>
       <c r="D136" t="n">
         <v>2016</v>
@@ -13028,8 +13294,10 @@
       <c r="B137" t="n">
         <v>1</v>
       </c>
-      <c r="C137" s="2" t="n">
-        <v>42717</v>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>2016-12-13</t>
+        </is>
       </c>
       <c r="D137" t="n">
         <v>2016</v>
@@ -13121,8 +13389,10 @@
       <c r="B138" t="n">
         <v>1</v>
       </c>
-      <c r="C138" s="2" t="n">
-        <v>42719</v>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>2016-12-15</t>
+        </is>
       </c>
       <c r="D138" t="n">
         <v>2016</v>
@@ -13214,8 +13484,10 @@
       <c r="B139" t="n">
         <v>1</v>
       </c>
-      <c r="C139" s="2" t="n">
-        <v>42723</v>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>2016-12-19</t>
+        </is>
       </c>
       <c r="D139" t="n">
         <v>2016</v>
@@ -13305,8 +13577,10 @@
       <c r="B140" t="n">
         <v>1</v>
       </c>
-      <c r="C140" s="2" t="n">
-        <v>42729</v>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>2016-12-25</t>
+        </is>
       </c>
       <c r="D140" t="n">
         <v>2016</v>
@@ -13398,8 +13672,10 @@
       <c r="B141" t="n">
         <v>1</v>
       </c>
-      <c r="C141" s="2" t="n">
-        <v>42730</v>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>2016-12-26</t>
+        </is>
       </c>
       <c r="D141" t="n">
         <v>2016</v>
@@ -13491,8 +13767,10 @@
       <c r="B142" t="n">
         <v>1</v>
       </c>
-      <c r="C142" s="2" t="n">
-        <v>42730</v>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>2016-12-26</t>
+        </is>
       </c>
       <c r="D142" t="n">
         <v>2016</v>
@@ -13584,8 +13862,10 @@
       <c r="B143" t="n">
         <v>1</v>
       </c>
-      <c r="C143" s="2" t="n">
-        <v>42731</v>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>2016-12-27</t>
+        </is>
       </c>
       <c r="D143" t="n">
         <v>2016</v>
@@ -13669,8 +13949,10 @@
       <c r="B144" t="n">
         <v>1</v>
       </c>
-      <c r="C144" s="2" t="n">
-        <v>42731</v>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>2016-12-27</t>
+        </is>
       </c>
       <c r="D144" t="n">
         <v>2016</v>
@@ -13762,8 +14044,10 @@
       <c r="B145" t="n">
         <v>1</v>
       </c>
-      <c r="C145" s="2" t="n">
-        <v>42732</v>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>2016-12-28</t>
+        </is>
       </c>
       <c r="D145" t="n">
         <v>2016</v>
@@ -13855,8 +14139,10 @@
       <c r="B146" t="n">
         <v>1</v>
       </c>
-      <c r="C146" s="2" t="n">
-        <v>42733</v>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>2016-12-29</t>
+        </is>
       </c>
       <c r="D146" t="n">
         <v>2016</v>
@@ -13946,8 +14232,10 @@
       <c r="B147" t="n">
         <v>1</v>
       </c>
-      <c r="C147" s="2" t="n">
-        <v>42734</v>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>2016-12-30</t>
+        </is>
       </c>
       <c r="D147" t="n">
         <v>2016</v>
@@ -14039,8 +14327,10 @@
       <c r="B148" t="n">
         <v>1</v>
       </c>
-      <c r="C148" s="2" t="n">
-        <v>42737</v>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>2017-01-02</t>
+        </is>
       </c>
       <c r="D148" t="n">
         <v>2017</v>
@@ -14132,8 +14422,10 @@
       <c r="B149" t="n">
         <v>1</v>
       </c>
-      <c r="C149" s="2" t="n">
-        <v>42740</v>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>2017-01-05</t>
+        </is>
       </c>
       <c r="D149" t="n">
         <v>2017</v>
@@ -14225,8 +14517,10 @@
       <c r="B150" t="n">
         <v>1</v>
       </c>
-      <c r="C150" s="2" t="n">
-        <v>42746</v>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>2017-01-11</t>
+        </is>
       </c>
       <c r="D150" t="n">
         <v>2017</v>
@@ -14318,8 +14612,10 @@
       <c r="B151" t="n">
         <v>1</v>
       </c>
-      <c r="C151" s="2" t="n">
-        <v>42751</v>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>2017-01-16</t>
+        </is>
       </c>
       <c r="D151" t="n">
         <v>2017</v>
@@ -14411,8 +14707,10 @@
       <c r="B152" t="n">
         <v>1</v>
       </c>
-      <c r="C152" s="2" t="n">
-        <v>42751</v>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>2017-01-16</t>
+        </is>
       </c>
       <c r="D152" t="n">
         <v>2017</v>
@@ -14500,8 +14798,10 @@
       <c r="B153" t="n">
         <v>1</v>
       </c>
-      <c r="C153" s="2" t="n">
-        <v>42751</v>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>2017-01-16</t>
+        </is>
       </c>
       <c r="D153" t="n">
         <v>2017</v>
@@ -14593,8 +14893,10 @@
       <c r="B154" t="n">
         <v>1</v>
       </c>
-      <c r="C154" s="2" t="n">
-        <v>42757</v>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>2017-01-22</t>
+        </is>
       </c>
       <c r="D154" t="n">
         <v>2017</v>
@@ -14686,8 +14988,10 @@
       <c r="B155" t="n">
         <v>1</v>
       </c>
-      <c r="C155" s="2" t="n">
-        <v>42759</v>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>2017-01-24</t>
+        </is>
       </c>
       <c r="D155" t="n">
         <v>2017</v>
@@ -14779,8 +15083,10 @@
       <c r="B156" t="n">
         <v>1</v>
       </c>
-      <c r="C156" s="2" t="n">
-        <v>42762</v>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>2017-01-27</t>
+        </is>
       </c>
       <c r="D156" t="n">
         <v>2017</v>
@@ -14870,8 +15176,10 @@
       <c r="B157" t="n">
         <v>1</v>
       </c>
-      <c r="C157" s="2" t="n">
-        <v>42763</v>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>2017-01-28</t>
+        </is>
       </c>
       <c r="D157" t="n">
         <v>2017</v>
@@ -14963,8 +15271,10 @@
       <c r="B158" t="n">
         <v>1</v>
       </c>
-      <c r="C158" s="2" t="n">
-        <v>42768</v>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>2017-02-02</t>
+        </is>
       </c>
       <c r="D158" t="n">
         <v>2017</v>
@@ -15056,8 +15366,10 @@
       <c r="B159" t="n">
         <v>1</v>
       </c>
-      <c r="C159" s="2" t="n">
-        <v>42769</v>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>2017-02-03</t>
+        </is>
       </c>
       <c r="D159" t="n">
         <v>2017</v>
@@ -15145,8 +15457,10 @@
       <c r="B160" t="n">
         <v>1</v>
       </c>
-      <c r="C160" s="2" t="n">
-        <v>42772</v>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>2017-02-06</t>
+        </is>
       </c>
       <c r="D160" t="n">
         <v>2017</v>
@@ -15238,8 +15552,10 @@
       <c r="B161" t="n">
         <v>1</v>
       </c>
-      <c r="C161" s="2" t="n">
-        <v>42775</v>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>2017-02-09</t>
+        </is>
       </c>
       <c r="D161" t="n">
         <v>2017</v>
@@ -15331,8 +15647,10 @@
       <c r="B162" t="n">
         <v>1</v>
       </c>
-      <c r="C162" s="2" t="n">
-        <v>42784</v>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>2017-02-18</t>
+        </is>
       </c>
       <c r="D162" t="n">
         <v>2017</v>
@@ -15424,8 +15742,10 @@
       <c r="B163" t="n">
         <v>1</v>
       </c>
-      <c r="C163" s="2" t="n">
-        <v>42789</v>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>2017-02-23</t>
+        </is>
       </c>
       <c r="D163" t="n">
         <v>2017</v>
@@ -15515,8 +15835,10 @@
       <c r="B164" t="n">
         <v>1</v>
       </c>
-      <c r="C164" s="2" t="n">
-        <v>42790</v>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>2017-02-24</t>
+        </is>
       </c>
       <c r="D164" t="n">
         <v>2017</v>
@@ -15608,8 +15930,10 @@
       <c r="B165" t="n">
         <v>2</v>
       </c>
-      <c r="C165" s="2" t="n">
-        <v>42792</v>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>2017-02-26</t>
+        </is>
       </c>
       <c r="D165" t="n">
         <v>2017</v>
@@ -15701,8 +16025,10 @@
       <c r="B166" t="n">
         <v>2</v>
       </c>
-      <c r="C166" s="2" t="n">
-        <v>42792</v>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>2017-02-26</t>
+        </is>
       </c>
       <c r="D166" t="n">
         <v>2017</v>
@@ -15794,8 +16120,10 @@
       <c r="B167" t="n">
         <v>1</v>
       </c>
-      <c r="C167" s="2" t="n">
-        <v>42792</v>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>2017-02-26</t>
+        </is>
       </c>
       <c r="D167" t="n">
         <v>2017</v>
@@ -15885,8 +16213,10 @@
       <c r="B168" t="n">
         <v>1</v>
       </c>
-      <c r="C168" s="2" t="n">
-        <v>42794</v>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>2017-02-28</t>
+        </is>
       </c>
       <c r="D168" t="n">
         <v>2017</v>
@@ -15978,8 +16308,10 @@
       <c r="B169" t="n">
         <v>1</v>
       </c>
-      <c r="C169" s="2" t="n">
-        <v>42801</v>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>2017-03-07</t>
+        </is>
       </c>
       <c r="D169" t="n">
         <v>2017</v>
@@ -16071,8 +16403,10 @@
       <c r="B170" t="n">
         <v>1</v>
       </c>
-      <c r="C170" s="2" t="n">
-        <v>42801</v>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>2017-03-07</t>
+        </is>
       </c>
       <c r="D170" t="n">
         <v>2017</v>
@@ -16164,8 +16498,10 @@
       <c r="B171" t="n">
         <v>1</v>
       </c>
-      <c r="C171" s="2" t="n">
-        <v>42805</v>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>2017-03-11</t>
+        </is>
       </c>
       <c r="D171" t="n">
         <v>2017</v>
@@ -16257,8 +16593,10 @@
       <c r="B172" t="n">
         <v>1</v>
       </c>
-      <c r="C172" s="2" t="n">
-        <v>42806</v>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>2017-03-12</t>
+        </is>
       </c>
       <c r="D172" t="n">
         <v>2017</v>
@@ -16350,8 +16688,10 @@
       <c r="B173" t="n">
         <v>1</v>
       </c>
-      <c r="C173" s="2" t="n">
-        <v>42806</v>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>2017-03-12</t>
+        </is>
       </c>
       <c r="D173" t="n">
         <v>2017</v>
@@ -16443,8 +16783,10 @@
       <c r="B174" t="n">
         <v>1</v>
       </c>
-      <c r="C174" s="2" t="n">
-        <v>42807</v>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>2017-03-13</t>
+        </is>
       </c>
       <c r="D174" t="n">
         <v>2017</v>
@@ -16534,8 +16876,10 @@
       <c r="B175" t="n">
         <v>3</v>
       </c>
-      <c r="C175" s="2" t="n">
-        <v>42817</v>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>2017-03-23</t>
+        </is>
       </c>
       <c r="D175" t="n">
         <v>2017</v>
@@ -16627,8 +16971,10 @@
       <c r="B176" t="n">
         <v>3</v>
       </c>
-      <c r="C176" s="2" t="n">
-        <v>42817</v>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>2017-03-23</t>
+        </is>
       </c>
       <c r="D176" t="n">
         <v>2017</v>
@@ -16720,8 +17066,10 @@
       <c r="B177" t="n">
         <v>3</v>
       </c>
-      <c r="C177" s="2" t="n">
-        <v>42817</v>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>2017-03-23</t>
+        </is>
       </c>
       <c r="D177" t="n">
         <v>2017</v>
@@ -16813,8 +17161,10 @@
       <c r="B178" t="n">
         <v>2</v>
       </c>
-      <c r="C178" s="2" t="n">
-        <v>42823</v>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>2017-03-29</t>
+        </is>
       </c>
       <c r="D178" t="n">
         <v>2017</v>
@@ -16906,8 +17256,10 @@
       <c r="B179" t="n">
         <v>2</v>
       </c>
-      <c r="C179" s="2" t="n">
-        <v>42823</v>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>2017-03-29</t>
+        </is>
       </c>
       <c r="D179" t="n">
         <v>2017</v>
@@ -16999,8 +17351,10 @@
       <c r="B180" t="n">
         <v>1</v>
       </c>
-      <c r="C180" s="2" t="n">
-        <v>42825</v>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>2017-03-31</t>
+        </is>
       </c>
       <c r="D180" t="n">
         <v>2017</v>
@@ -17092,8 +17446,10 @@
       <c r="B181" t="n">
         <v>1</v>
       </c>
-      <c r="C181" s="2" t="n">
-        <v>42826</v>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>2017-04-01</t>
+        </is>
       </c>
       <c r="D181" t="n">
         <v>2017</v>
@@ -17185,8 +17541,10 @@
       <c r="B182" t="n">
         <v>1</v>
       </c>
-      <c r="C182" s="2" t="n">
-        <v>42828</v>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>2017-04-03</t>
+        </is>
       </c>
       <c r="D182" t="n">
         <v>2017</v>
@@ -17276,8 +17634,10 @@
       <c r="B183" t="n">
         <v>1</v>
       </c>
-      <c r="C183" s="2" t="n">
-        <v>42828</v>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>2017-04-03</t>
+        </is>
       </c>
       <c r="D183" t="n">
         <v>2017</v>
@@ -17367,8 +17727,10 @@
       <c r="B184" t="n">
         <v>1</v>
       </c>
-      <c r="C184" s="2" t="n">
-        <v>42835</v>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>2017-04-10</t>
+        </is>
       </c>
       <c r="D184" t="n">
         <v>2017</v>
@@ -17452,8 +17814,10 @@
       <c r="B185" t="n">
         <v>1</v>
       </c>
-      <c r="C185" s="2" t="n">
-        <v>42839</v>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>2017-04-14</t>
+        </is>
       </c>
       <c r="D185" t="n">
         <v>2017</v>
@@ -17543,8 +17907,10 @@
       <c r="B186" t="n">
         <v>1</v>
       </c>
-      <c r="C186" s="2" t="n">
-        <v>42848</v>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>2017-04-23</t>
+        </is>
       </c>
       <c r="D186" t="n">
         <v>2017</v>
@@ -17636,8 +18002,10 @@
       <c r="B187" t="n">
         <v>1</v>
       </c>
-      <c r="C187" s="2" t="n">
-        <v>42852</v>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>2017-04-27</t>
+        </is>
       </c>
       <c r="D187" t="n">
         <v>2017</v>
@@ -17729,8 +18097,10 @@
       <c r="B188" t="n">
         <v>2</v>
       </c>
-      <c r="C188" s="2" t="n">
-        <v>42853</v>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>2017-04-28</t>
+        </is>
       </c>
       <c r="D188" t="n">
         <v>2017</v>
@@ -17814,8 +18184,10 @@
       <c r="B189" t="n">
         <v>2</v>
       </c>
-      <c r="C189" s="2" t="n">
-        <v>42853</v>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>2017-04-28</t>
+        </is>
       </c>
       <c r="D189" t="n">
         <v>2017</v>
@@ -17899,8 +18271,10 @@
       <c r="B190" t="n">
         <v>1</v>
       </c>
-      <c r="C190" s="2" t="n">
-        <v>42856</v>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>2017-05-01</t>
+        </is>
       </c>
       <c r="D190" t="n">
         <v>2017</v>
@@ -17984,8 +18358,10 @@
       <c r="B191" t="n">
         <v>1</v>
       </c>
-      <c r="C191" s="2" t="n">
-        <v>42860</v>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>2017-05-05</t>
+        </is>
       </c>
       <c r="D191" t="n">
         <v>2017</v>
@@ -18077,8 +18453,10 @@
       <c r="B192" t="n">
         <v>1</v>
       </c>
-      <c r="C192" s="2" t="n">
-        <v>42860</v>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>2017-05-05</t>
+        </is>
       </c>
       <c r="D192" t="n">
         <v>2017</v>
@@ -18170,8 +18548,10 @@
       <c r="B193" t="n">
         <v>1</v>
       </c>
-      <c r="C193" s="2" t="n">
-        <v>42862</v>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>2017-05-07</t>
+        </is>
       </c>
       <c r="D193" t="n">
         <v>2017</v>
@@ -18263,8 +18643,10 @@
       <c r="B194" t="n">
         <v>1</v>
       </c>
-      <c r="C194" s="2" t="n">
-        <v>42864</v>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>2017-05-09</t>
+        </is>
       </c>
       <c r="D194" t="n">
         <v>2017</v>
@@ -18354,8 +18736,10 @@
       <c r="B195" t="n">
         <v>1</v>
       </c>
-      <c r="C195" s="2" t="n">
-        <v>42864</v>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>2017-05-09</t>
+        </is>
       </c>
       <c r="D195" t="n">
         <v>2017</v>
@@ -18447,8 +18831,10 @@
       <c r="B196" t="n">
         <v>1</v>
       </c>
-      <c r="C196" s="2" t="n">
-        <v>42866</v>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>2017-05-11</t>
+        </is>
       </c>
       <c r="D196" t="n">
         <v>2017</v>
@@ -18540,8 +18926,10 @@
       <c r="B197" t="n">
         <v>1</v>
       </c>
-      <c r="C197" s="2" t="n">
-        <v>42868</v>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>2017-05-13</t>
+        </is>
       </c>
       <c r="D197" t="n">
         <v>2017</v>
@@ -18633,8 +19021,10 @@
       <c r="B198" t="n">
         <v>1</v>
       </c>
-      <c r="C198" s="2" t="n">
-        <v>42870</v>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>2017-05-15</t>
+        </is>
       </c>
       <c r="D198" t="n">
         <v>2017</v>
@@ -18726,8 +19116,10 @@
       <c r="B199" t="n">
         <v>1</v>
       </c>
-      <c r="C199" s="2" t="n">
-        <v>42870</v>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>2017-05-15</t>
+        </is>
       </c>
       <c r="D199" t="n">
         <v>2017</v>
@@ -18819,8 +19211,10 @@
       <c r="B200" t="n">
         <v>1</v>
       </c>
-      <c r="C200" s="2" t="n">
-        <v>42872</v>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>2017-05-17</t>
+        </is>
       </c>
       <c r="D200" t="n">
         <v>2017</v>
@@ -18912,8 +19306,10 @@
       <c r="B201" t="n">
         <v>1</v>
       </c>
-      <c r="C201" s="2" t="n">
-        <v>42875</v>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>2017-05-20</t>
+        </is>
       </c>
       <c r="D201" t="n">
         <v>2017</v>
@@ -19005,8 +19401,10 @@
       <c r="B202" t="n">
         <v>1</v>
       </c>
-      <c r="C202" s="2" t="n">
-        <v>42877</v>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>2017-05-22</t>
+        </is>
       </c>
       <c r="D202" t="n">
         <v>2017</v>
@@ -19098,8 +19496,10 @@
       <c r="B203" t="n">
         <v>1</v>
       </c>
-      <c r="C203" s="2" t="n">
-        <v>42877</v>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>2017-05-22</t>
+        </is>
       </c>
       <c r="D203" t="n">
         <v>2017</v>
@@ -19191,8 +19591,10 @@
       <c r="B204" t="n">
         <v>1</v>
       </c>
-      <c r="C204" s="2" t="n">
-        <v>42878</v>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>2017-05-23</t>
+        </is>
       </c>
       <c r="D204" t="n">
         <v>2017</v>
@@ -19284,8 +19686,10 @@
       <c r="B205" t="n">
         <v>1</v>
       </c>
-      <c r="C205" s="2" t="n">
-        <v>42882</v>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>2017-05-27</t>
+        </is>
       </c>
       <c r="D205" t="n">
         <v>2017</v>
@@ -19375,8 +19779,10 @@
       <c r="B206" t="n">
         <v>1</v>
       </c>
-      <c r="C206" s="2" t="n">
-        <v>42879</v>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>2017-05-24</t>
+        </is>
       </c>
       <c r="D206" t="n">
         <v>2017</v>
@@ -19468,8 +19874,10 @@
       <c r="B207" t="n">
         <v>1</v>
       </c>
-      <c r="C207" s="2" t="n">
-        <v>42885</v>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>2017-05-30</t>
+        </is>
       </c>
       <c r="D207" t="n">
         <v>2017</v>
@@ -19559,8 +19967,10 @@
       <c r="B208" t="n">
         <v>1</v>
       </c>
-      <c r="C208" s="2" t="n">
-        <v>42889</v>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>2017-06-03</t>
+        </is>
       </c>
       <c r="D208" t="n">
         <v>2017</v>
@@ -19652,8 +20062,10 @@
       <c r="B209" t="n">
         <v>1</v>
       </c>
-      <c r="C209" s="2" t="n">
-        <v>42890</v>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>2017-06-04</t>
+        </is>
       </c>
       <c r="D209" t="n">
         <v>2017</v>
@@ -19745,8 +20157,10 @@
       <c r="B210" t="n">
         <v>1</v>
       </c>
-      <c r="C210" s="2" t="n">
-        <v>42890</v>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>2017-06-04</t>
+        </is>
       </c>
       <c r="D210" t="n">
         <v>2017</v>
@@ -19836,8 +20250,10 @@
       <c r="B211" t="n">
         <v>1</v>
       </c>
-      <c r="C211" s="2" t="n">
-        <v>42898</v>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>2017-06-12</t>
+        </is>
       </c>
       <c r="D211" t="n">
         <v>2017</v>
@@ -19929,8 +20345,10 @@
       <c r="B212" t="n">
         <v>1</v>
       </c>
-      <c r="C212" s="2" t="n">
-        <v>42899</v>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>2017-06-13</t>
+        </is>
       </c>
       <c r="D212" t="n">
         <v>2017</v>
@@ -20022,8 +20440,10 @@
       <c r="B213" t="n">
         <v>1</v>
       </c>
-      <c r="C213" s="2" t="n">
-        <v>42903</v>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>2017-06-17</t>
+        </is>
       </c>
       <c r="D213" t="n">
         <v>2017</v>
@@ -20113,8 +20533,10 @@
       <c r="B214" t="n">
         <v>1</v>
       </c>
-      <c r="C214" s="2" t="n">
-        <v>42905</v>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>2017-06-19</t>
+        </is>
       </c>
       <c r="D214" t="n">
         <v>2017</v>
@@ -20206,8 +20628,10 @@
       <c r="B215" t="n">
         <v>1</v>
       </c>
-      <c r="C215" s="2" t="n">
-        <v>42908</v>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>2017-06-22</t>
+        </is>
       </c>
       <c r="D215" t="n">
         <v>2017</v>
@@ -20299,8 +20723,10 @@
       <c r="B216" t="n">
         <v>1</v>
       </c>
-      <c r="C216" s="2" t="n">
-        <v>42911</v>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>2017-06-25</t>
+        </is>
       </c>
       <c r="D216" t="n">
         <v>2017</v>
@@ -20392,8 +20818,10 @@
       <c r="B217" t="n">
         <v>1</v>
       </c>
-      <c r="C217" s="2" t="n">
-        <v>42920</v>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>2017-07-04</t>
+        </is>
       </c>
       <c r="D217" t="n">
         <v>2017</v>
@@ -20485,8 +20913,10 @@
       <c r="B218" t="n">
         <v>1</v>
       </c>
-      <c r="C218" s="2" t="n">
-        <v>42921</v>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>2017-07-05</t>
+        </is>
       </c>
       <c r="D218" t="n">
         <v>2017</v>
@@ -20578,8 +21008,10 @@
       <c r="B219" t="n">
         <v>1</v>
       </c>
-      <c r="C219" s="2" t="n">
-        <v>42923</v>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>2017-07-07</t>
+        </is>
       </c>
       <c r="D219" t="n">
         <v>2017</v>
@@ -20671,8 +21103,10 @@
       <c r="B220" t="n">
         <v>1</v>
       </c>
-      <c r="C220" s="2" t="n">
-        <v>42925</v>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>2017-07-09</t>
+        </is>
       </c>
       <c r="D220" t="n">
         <v>2017</v>
@@ -20764,8 +21198,10 @@
       <c r="B221" t="n">
         <v>1</v>
       </c>
-      <c r="C221" s="2" t="n">
-        <v>42926</v>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>2017-07-10</t>
+        </is>
       </c>
       <c r="D221" t="n">
         <v>2017</v>
@@ -20855,8 +21291,10 @@
       <c r="B222" t="n">
         <v>1</v>
       </c>
-      <c r="C222" s="2" t="n">
-        <v>42926</v>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>2017-07-10</t>
+        </is>
       </c>
       <c r="D222" t="n">
         <v>2017</v>
@@ -20948,8 +21386,10 @@
       <c r="B223" t="n">
         <v>1</v>
       </c>
-      <c r="C223" s="2" t="n">
-        <v>42929</v>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>2017-07-13</t>
+        </is>
       </c>
       <c r="D223" t="n">
         <v>2017</v>
@@ -21039,8 +21479,10 @@
       <c r="B224" t="n">
         <v>1</v>
       </c>
-      <c r="C224" s="2" t="n">
-        <v>42931</v>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>2017-07-15</t>
+        </is>
       </c>
       <c r="D224" t="n">
         <v>2017</v>
@@ -21132,8 +21574,10 @@
       <c r="B225" t="n">
         <v>1</v>
       </c>
-      <c r="C225" s="2" t="n">
-        <v>42931</v>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>2017-07-15</t>
+        </is>
       </c>
       <c r="D225" t="n">
         <v>2017</v>
@@ -21225,8 +21669,10 @@
       <c r="B226" t="n">
         <v>1</v>
       </c>
-      <c r="C226" s="2" t="n">
-        <v>42940</v>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>2017-07-24</t>
+        </is>
       </c>
       <c r="D226" t="n">
         <v>2017</v>
@@ -21318,8 +21764,10 @@
       <c r="B227" t="n">
         <v>1</v>
       </c>
-      <c r="C227" s="2" t="n">
-        <v>42941</v>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>2017-07-25</t>
+        </is>
       </c>
       <c r="D227" t="n">
         <v>2017</v>
@@ -21411,8 +21859,10 @@
       <c r="B228" t="n">
         <v>1</v>
       </c>
-      <c r="C228" s="2" t="n">
-        <v>42943</v>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>2017-07-27</t>
+        </is>
       </c>
       <c r="D228" t="n">
         <v>2017</v>
@@ -21502,8 +21952,10 @@
       <c r="B229" t="n">
         <v>1</v>
       </c>
-      <c r="C229" s="2" t="n">
-        <v>42953</v>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>2017-08-06</t>
+        </is>
       </c>
       <c r="D229" t="n">
         <v>2017</v>
@@ -21595,8 +22047,10 @@
       <c r="B230" t="n">
         <v>1</v>
       </c>
-      <c r="C230" s="2" t="n">
-        <v>42954</v>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>2017-08-07</t>
+        </is>
       </c>
       <c r="D230" t="n">
         <v>2017</v>
@@ -21688,8 +22142,10 @@
       <c r="B231" t="n">
         <v>1</v>
       </c>
-      <c r="C231" s="2" t="n">
-        <v>42955</v>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>2017-08-08</t>
+        </is>
       </c>
       <c r="D231" t="n">
         <v>2017</v>
@@ -21779,8 +22235,10 @@
       <c r="B232" t="n">
         <v>1</v>
       </c>
-      <c r="C232" s="2" t="n">
-        <v>42964</v>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>2017-08-17</t>
+        </is>
       </c>
       <c r="D232" t="n">
         <v>2017</v>
@@ -21870,8 +22328,10 @@
       <c r="B233" t="n">
         <v>1</v>
       </c>
-      <c r="C233" s="2" t="n">
-        <v>42968</v>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>2017-08-21</t>
+        </is>
       </c>
       <c r="D233" t="n">
         <v>2017</v>
@@ -21961,8 +22421,10 @@
       <c r="B234" t="n">
         <v>1</v>
       </c>
-      <c r="C234" s="2" t="n">
-        <v>42970</v>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>2017-08-23</t>
+        </is>
       </c>
       <c r="D234" t="n">
         <v>2017</v>
@@ -22054,8 +22516,10 @@
       <c r="B235" t="n">
         <v>1</v>
       </c>
-      <c r="C235" s="2" t="n">
-        <v>42971</v>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>2017-08-24</t>
+        </is>
       </c>
       <c r="D235" t="n">
         <v>2017</v>
@@ -22147,8 +22611,10 @@
       <c r="B236" t="n">
         <v>1</v>
       </c>
-      <c r="C236" s="2" t="n">
-        <v>42972</v>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>2017-08-25</t>
+        </is>
       </c>
       <c r="D236" t="n">
         <v>2017</v>
@@ -22240,8 +22706,10 @@
       <c r="B237" t="n">
         <v>1</v>
       </c>
-      <c r="C237" s="2" t="n">
-        <v>42978</v>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>2017-08-31</t>
+        </is>
       </c>
       <c r="D237" t="n">
         <v>2017</v>
@@ -22333,8 +22801,10 @@
       <c r="B238" t="n">
         <v>1</v>
       </c>
-      <c r="C238" s="2" t="n">
-        <v>42979</v>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>2017-09-01</t>
+        </is>
       </c>
       <c r="D238" t="n">
         <v>2017</v>
@@ -22426,8 +22896,10 @@
       <c r="B239" t="n">
         <v>2</v>
       </c>
-      <c r="C239" s="2" t="n">
-        <v>42980</v>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>2017-09-02</t>
+        </is>
       </c>
       <c r="D239" t="n">
         <v>2017</v>
@@ -22519,8 +22991,10 @@
       <c r="B240" t="n">
         <v>2</v>
       </c>
-      <c r="C240" s="2" t="n">
-        <v>42980</v>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>2017-09-02</t>
+        </is>
       </c>
       <c r="D240" t="n">
         <v>2017</v>
@@ -22612,8 +23086,10 @@
       <c r="B241" t="n">
         <v>1</v>
       </c>
-      <c r="C241" s="2" t="n">
-        <v>42982</v>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>2017-09-04</t>
+        </is>
       </c>
       <c r="D241" t="n">
         <v>2017</v>
@@ -22705,8 +23181,10 @@
       <c r="B242" t="n">
         <v>1</v>
       </c>
-      <c r="C242" s="2" t="n">
-        <v>42984</v>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>2017-09-06</t>
+        </is>
       </c>
       <c r="D242" t="n">
         <v>2017</v>
@@ -22798,8 +23276,10 @@
       <c r="B243" t="n">
         <v>1</v>
       </c>
-      <c r="C243" s="2" t="n">
-        <v>42985</v>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>2017-09-07</t>
+        </is>
       </c>
       <c r="D243" t="n">
         <v>2017</v>
@@ -22891,8 +23371,10 @@
       <c r="B244" t="n">
         <v>2</v>
       </c>
-      <c r="C244" s="2" t="n">
-        <v>42988</v>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>2017-09-10</t>
+        </is>
       </c>
       <c r="D244" t="n">
         <v>2017</v>
@@ -22980,8 +23462,10 @@
       <c r="B245" t="n">
         <v>2</v>
       </c>
-      <c r="C245" s="2" t="n">
-        <v>42988</v>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>2017-09-10</t>
+        </is>
       </c>
       <c r="D245" t="n">
         <v>2017</v>
@@ -23069,8 +23553,10 @@
       <c r="B246" t="n">
         <v>1</v>
       </c>
-      <c r="C246" s="2" t="n">
-        <v>42989</v>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>2017-09-11</t>
+        </is>
       </c>
       <c r="D246" t="n">
         <v>2017</v>
@@ -23162,8 +23648,10 @@
       <c r="B247" t="n">
         <v>1</v>
       </c>
-      <c r="C247" s="2" t="n">
-        <v>42993</v>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>2017-09-15</t>
+        </is>
       </c>
       <c r="D247" t="n">
         <v>2017</v>
@@ -23255,8 +23743,10 @@
       <c r="B248" t="n">
         <v>1</v>
       </c>
-      <c r="C248" s="2" t="n">
-        <v>42997</v>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>2017-09-19</t>
+        </is>
       </c>
       <c r="D248" t="n">
         <v>2017</v>
@@ -23348,8 +23838,10 @@
       <c r="B249" t="n">
         <v>1</v>
       </c>
-      <c r="C249" s="2" t="n">
-        <v>42998</v>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>2017-09-20</t>
+        </is>
       </c>
       <c r="D249" t="n">
         <v>2017</v>
@@ -23439,8 +23931,10 @@
       <c r="B250" t="n">
         <v>1</v>
       </c>
-      <c r="C250" s="2" t="n">
-        <v>43000</v>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>2017-09-22</t>
+        </is>
       </c>
       <c r="D250" t="n">
         <v>2017</v>
@@ -23532,8 +24026,10 @@
       <c r="B251" t="n">
         <v>1</v>
       </c>
-      <c r="C251" s="2" t="n">
-        <v>43010</v>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>2017-10-02</t>
+        </is>
       </c>
       <c r="D251" t="n">
         <v>2017</v>
@@ -23625,8 +24121,10 @@
       <c r="B252" t="n">
         <v>1</v>
       </c>
-      <c r="C252" s="2" t="n">
-        <v>43018</v>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>2017-10-10</t>
+        </is>
       </c>
       <c r="D252" t="n">
         <v>2017</v>
@@ -23718,8 +24216,10 @@
       <c r="B253" t="n">
         <v>1</v>
       </c>
-      <c r="C253" s="2" t="n">
-        <v>43020</v>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>2017-10-12</t>
+        </is>
       </c>
       <c r="D253" t="n">
         <v>2017</v>
@@ -23809,8 +24309,10 @@
       <c r="B254" t="n">
         <v>1</v>
       </c>
-      <c r="C254" s="2" t="n">
-        <v>43021</v>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>2017-10-13</t>
+        </is>
       </c>
       <c r="D254" t="n">
         <v>2017</v>
@@ -23902,8 +24404,10 @@
       <c r="B255" t="n">
         <v>2</v>
       </c>
-      <c r="C255" s="2" t="n">
-        <v>43022</v>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>2017-10-14</t>
+        </is>
       </c>
       <c r="D255" t="n">
         <v>2017</v>
@@ -23995,8 +24499,10 @@
       <c r="B256" t="n">
         <v>2</v>
       </c>
-      <c r="C256" s="2" t="n">
-        <v>43022</v>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>2017-10-14</t>
+        </is>
       </c>
       <c r="D256" t="n">
         <v>2017</v>
@@ -24088,8 +24594,10 @@
       <c r="B257" t="n">
         <v>1</v>
       </c>
-      <c r="C257" s="2" t="n">
-        <v>43024</v>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>2017-10-16</t>
+        </is>
       </c>
       <c r="D257" t="n">
         <v>2017</v>
@@ -24181,8 +24689,10 @@
       <c r="B258" t="n">
         <v>1</v>
       </c>
-      <c r="C258" s="2" t="n">
-        <v>43025</v>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>2017-10-17</t>
+        </is>
       </c>
       <c r="D258" t="n">
         <v>2017</v>
@@ -24272,8 +24782,10 @@
       <c r="B259" t="n">
         <v>1</v>
       </c>
-      <c r="C259" s="2" t="n">
-        <v>43034</v>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>2017-10-26</t>
+        </is>
       </c>
       <c r="D259" t="n">
         <v>2017</v>
@@ -24365,8 +24877,10 @@
       <c r="B260" t="n">
         <v>1</v>
       </c>
-      <c r="C260" s="2" t="n">
-        <v>43035</v>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>2017-10-27</t>
+        </is>
       </c>
       <c r="D260" t="n">
         <v>2017</v>
@@ -24458,8 +24972,10 @@
       <c r="B261" t="n">
         <v>1</v>
       </c>
-      <c r="C261" s="2" t="n">
-        <v>43038</v>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>2017-10-30</t>
+        </is>
       </c>
       <c r="D261" t="n">
         <v>2017</v>
@@ -24551,8 +25067,10 @@
       <c r="B262" t="n">
         <v>1</v>
       </c>
-      <c r="C262" s="2" t="n">
-        <v>43045</v>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>2017-11-06</t>
+        </is>
       </c>
       <c r="D262" t="n">
         <v>2017</v>
@@ -24642,8 +25160,10 @@
       <c r="B263" t="n">
         <v>1</v>
       </c>
-      <c r="C263" s="2" t="n">
-        <v>43046</v>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>2017-11-07</t>
+        </is>
       </c>
       <c r="D263" t="n">
         <v>2017</v>
@@ -24735,8 +25255,10 @@
       <c r="B264" t="n">
         <v>1</v>
       </c>
-      <c r="C264" s="2" t="n">
-        <v>43055</v>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>2017-11-16</t>
+        </is>
       </c>
       <c r="D264" t="n">
         <v>2017</v>
@@ -24828,8 +25350,10 @@
       <c r="B265" t="n">
         <v>1</v>
       </c>
-      <c r="C265" s="2" t="n">
-        <v>43056</v>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>2017-11-17</t>
+        </is>
       </c>
       <c r="D265" t="n">
         <v>2017</v>
@@ -24921,8 +25445,10 @@
       <c r="B266" t="n">
         <v>1</v>
       </c>
-      <c r="C266" s="2" t="n">
-        <v>43058</v>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>2017-11-19</t>
+        </is>
       </c>
       <c r="D266" t="n">
         <v>2017</v>
@@ -25014,8 +25540,10 @@
       <c r="B267" t="n">
         <v>1</v>
       </c>
-      <c r="C267" s="2" t="n">
-        <v>43058</v>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>2017-11-19</t>
+        </is>
       </c>
       <c r="D267" t="n">
         <v>2017</v>
@@ -25107,8 +25635,10 @@
       <c r="B268" t="n">
         <v>1</v>
       </c>
-      <c r="C268" s="2" t="n">
-        <v>43058</v>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>2017-11-19</t>
+        </is>
       </c>
       <c r="D268" t="n">
         <v>2017</v>
@@ -25192,8 +25722,10 @@
       <c r="B269" t="n">
         <v>1</v>
       </c>
-      <c r="C269" s="2" t="n">
-        <v>43062</v>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>2017-11-23</t>
+        </is>
       </c>
       <c r="D269" t="n">
         <v>2017</v>
@@ -25285,8 +25817,10 @@
       <c r="B270" t="n">
         <v>1</v>
       </c>
-      <c r="C270" s="2" t="n">
-        <v>43064</v>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>2017-11-25</t>
+        </is>
       </c>
       <c r="D270" t="n">
         <v>2017</v>
@@ -25378,8 +25912,10 @@
       <c r="B271" t="n">
         <v>1</v>
       </c>
-      <c r="C271" s="2" t="n">
-        <v>43065</v>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>2017-11-26</t>
+        </is>
       </c>
       <c r="D271" t="n">
         <v>2017</v>
@@ -25471,8 +26007,10 @@
       <c r="B272" t="n">
         <v>1</v>
       </c>
-      <c r="C272" s="2" t="n">
-        <v>43065</v>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>2017-11-26</t>
+        </is>
       </c>
       <c r="D272" t="n">
         <v>2017</v>
@@ -25564,8 +26102,10 @@
       <c r="B273" t="n">
         <v>1</v>
       </c>
-      <c r="C273" s="2" t="n">
-        <v>43067</v>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>2017-11-28</t>
+        </is>
       </c>
       <c r="D273" t="n">
         <v>2017</v>
@@ -25657,8 +26197,10 @@
       <c r="B274" t="n">
         <v>1</v>
       </c>
-      <c r="C274" s="2" t="n">
-        <v>43068</v>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>2017-11-29</t>
+        </is>
       </c>
       <c r="D274" t="n">
         <v>2017</v>
@@ -25750,8 +26292,10 @@
       <c r="B275" t="n">
         <v>1</v>
       </c>
-      <c r="C275" s="2" t="n">
-        <v>43069</v>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>2017-11-30</t>
+        </is>
       </c>
       <c r="D275" t="n">
         <v>2017</v>
@@ -25843,8 +26387,10 @@
       <c r="B276" t="n">
         <v>1</v>
       </c>
-      <c r="C276" s="2" t="n">
-        <v>43073</v>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>2017-12-04</t>
+        </is>
       </c>
       <c r="D276" t="n">
         <v>2017</v>
@@ -25936,8 +26482,10 @@
       <c r="B277" t="n">
         <v>1</v>
       </c>
-      <c r="C277" s="2" t="n">
-        <v>43073</v>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>2017-12-04</t>
+        </is>
       </c>
       <c r="D277" t="n">
         <v>2017</v>
@@ -26029,8 +26577,10 @@
       <c r="B278" t="n">
         <v>1</v>
       </c>
-      <c r="C278" s="2" t="n">
-        <v>43075</v>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>2017-12-06</t>
+        </is>
       </c>
       <c r="D278" t="n">
         <v>2017</v>
@@ -26122,8 +26672,10 @@
       <c r="B279" t="n">
         <v>2</v>
       </c>
-      <c r="C279" s="2" t="n">
-        <v>43080</v>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>2017-12-11</t>
+        </is>
       </c>
       <c r="D279" t="n">
         <v>2017</v>
@@ -26215,8 +26767,10 @@
       <c r="B280" t="n">
         <v>2</v>
       </c>
-      <c r="C280" s="2" t="n">
-        <v>43080</v>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>2017-12-11</t>
+        </is>
       </c>
       <c r="D280" t="n">
         <v>2017</v>
@@ -26308,8 +26862,10 @@
       <c r="B281" t="n">
         <v>1</v>
       </c>
-      <c r="C281" s="2" t="n">
-        <v>43080</v>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>2017-12-11</t>
+        </is>
       </c>
       <c r="D281" t="n">
         <v>2017</v>
@@ -26401,8 +26957,10 @@
       <c r="B282" t="n">
         <v>1</v>
       </c>
-      <c r="C282" s="2" t="n">
-        <v>43081</v>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>2017-12-12</t>
+        </is>
       </c>
       <c r="D282" t="n">
         <v>2017</v>
@@ -26492,8 +27050,10 @@
       <c r="B283" t="n">
         <v>1</v>
       </c>
-      <c r="C283" s="2" t="n">
-        <v>43086</v>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>2017-12-17</t>
+        </is>
       </c>
       <c r="D283" t="n">
         <v>2017</v>
@@ -26585,8 +27145,10 @@
       <c r="B284" t="n">
         <v>1</v>
       </c>
-      <c r="C284" s="2" t="n">
-        <v>43087</v>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>2017-12-18</t>
+        </is>
       </c>
       <c r="D284" t="n">
         <v>2017</v>
@@ -26678,8 +27240,10 @@
       <c r="B285" t="n">
         <v>1</v>
       </c>
-      <c r="C285" s="2" t="n">
-        <v>43089</v>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>2017-12-20</t>
+        </is>
       </c>
       <c r="D285" t="n">
         <v>2017</v>
@@ -26771,8 +27335,10 @@
       <c r="B286" t="n">
         <v>1</v>
       </c>
-      <c r="C286" s="2" t="n">
-        <v>43091</v>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>2017-12-22</t>
+        </is>
       </c>
       <c r="D286" t="n">
         <v>2017</v>
@@ -26862,8 +27428,10 @@
       <c r="B287" t="n">
         <v>1</v>
       </c>
-      <c r="C287" s="2" t="n">
-        <v>43095</v>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>2017-12-26</t>
+        </is>
       </c>
       <c r="D287" t="n">
         <v>2017</v>
@@ -26953,8 +27521,10 @@
       <c r="B288" t="n">
         <v>1</v>
       </c>
-      <c r="C288" s="2" t="n">
-        <v>43101</v>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>2018-01-01</t>
+        </is>
       </c>
       <c r="D288" t="n">
         <v>2018</v>
@@ -27046,8 +27616,10 @@
       <c r="B289" t="n">
         <v>1</v>
       </c>
-      <c r="C289" s="2" t="n">
-        <v>43103</v>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>2018-01-03</t>
+        </is>
       </c>
       <c r="D289" t="n">
         <v>2018</v>
@@ -27137,8 +27709,10 @@
       <c r="B290" t="n">
         <v>1</v>
       </c>
-      <c r="C290" s="2" t="n">
-        <v>43105</v>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>2018-01-05</t>
+        </is>
       </c>
       <c r="D290" t="n">
         <v>2018</v>
@@ -27230,8 +27804,10 @@
       <c r="B291" t="n">
         <v>1</v>
       </c>
-      <c r="C291" s="2" t="n">
-        <v>43109</v>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>2018-01-09</t>
+        </is>
       </c>
       <c r="D291" t="n">
         <v>2018</v>
@@ -27323,8 +27899,10 @@
       <c r="B292" t="n">
         <v>1</v>
       </c>
-      <c r="C292" s="2" t="n">
-        <v>43109</v>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>2018-01-09</t>
+        </is>
       </c>
       <c r="D292" t="n">
         <v>2018</v>
@@ -27414,8 +27992,10 @@
       <c r="B293" t="n">
         <v>1</v>
       </c>
-      <c r="C293" s="2" t="n">
-        <v>43110</v>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>2018-01-10</t>
+        </is>
       </c>
       <c r="D293" t="n">
         <v>2018</v>
@@ -27507,8 +28087,10 @@
       <c r="B294" t="n">
         <v>1</v>
       </c>
-      <c r="C294" s="2" t="n">
-        <v>43111</v>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>2018-01-11</t>
+        </is>
       </c>
       <c r="D294" t="n">
         <v>2018</v>
@@ -27596,8 +28178,10 @@
       <c r="B295" t="n">
         <v>1</v>
       </c>
-      <c r="C295" s="2" t="n">
-        <v>43112</v>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>2018-01-12</t>
+        </is>
       </c>
       <c r="D295" t="n">
         <v>2018</v>
@@ -27689,8 +28273,10 @@
       <c r="B296" t="n">
         <v>1</v>
       </c>
-      <c r="C296" s="2" t="n">
-        <v>43114</v>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>2018-01-14</t>
+        </is>
       </c>
       <c r="D296" t="n">
         <v>2018</v>
@@ -27782,8 +28368,10 @@
       <c r="B297" t="n">
         <v>1</v>
       </c>
-      <c r="C297" s="2" t="n">
-        <v>43118</v>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>2018-01-18</t>
+        </is>
       </c>
       <c r="D297" t="n">
         <v>2018</v>
@@ -27875,8 +28463,10 @@
       <c r="B298" t="n">
         <v>1</v>
       </c>
-      <c r="C298" s="2" t="n">
-        <v>43119</v>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>2018-01-19</t>
+        </is>
       </c>
       <c r="D298" t="n">
         <v>2018</v>
@@ -27968,8 +28558,10 @@
       <c r="B299" t="n">
         <v>1</v>
       </c>
-      <c r="C299" s="2" t="n">
-        <v>43126</v>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>2018-01-26</t>
+        </is>
       </c>
       <c r="D299" t="n">
         <v>2018</v>
@@ -28061,8 +28653,10 @@
       <c r="B300" t="n">
         <v>1</v>
       </c>
-      <c r="C300" s="2" t="n">
-        <v>43128</v>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>2018-01-28</t>
+        </is>
       </c>
       <c r="D300" t="n">
         <v>2018</v>
@@ -28154,8 +28748,10 @@
       <c r="B301" t="n">
         <v>1</v>
       </c>
-      <c r="C301" s="2" t="n">
-        <v>43131</v>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>2018-01-31</t>
+        </is>
       </c>
       <c r="D301" t="n">
         <v>2018</v>
@@ -28247,8 +28843,10 @@
       <c r="B302" t="n">
         <v>2</v>
       </c>
-      <c r="C302" s="2" t="n">
-        <v>43137</v>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>2018-02-06</t>
+        </is>
       </c>
       <c r="D302" t="n">
         <v>2018</v>
@@ -28338,8 +28936,10 @@
       <c r="B303" t="n">
         <v>2</v>
       </c>
-      <c r="C303" s="2" t="n">
-        <v>43137</v>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>2018-02-06</t>
+        </is>
       </c>
       <c r="D303" t="n">
         <v>2018</v>
@@ -28429,8 +29029,10 @@
       <c r="B304" t="n">
         <v>1</v>
       </c>
-      <c r="C304" s="2" t="n">
-        <v>43146</v>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>2018-02-15</t>
+        </is>
       </c>
       <c r="D304" t="n">
         <v>2018</v>
@@ -28522,8 +29124,10 @@
       <c r="B305" t="n">
         <v>1</v>
       </c>
-      <c r="C305" s="2" t="n">
-        <v>43148</v>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>2018-02-17</t>
+        </is>
       </c>
       <c r="D305" t="n">
         <v>2018</v>
@@ -28615,8 +29219,10 @@
       <c r="B306" t="n">
         <v>1</v>
       </c>
-      <c r="C306" s="2" t="n">
-        <v>43148</v>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>2018-02-17</t>
+        </is>
       </c>
       <c r="D306" t="n">
         <v>2018</v>
@@ -28708,8 +29314,10 @@
       <c r="B307" t="n">
         <v>1</v>
       </c>
-      <c r="C307" s="2" t="n">
-        <v>43148</v>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>2018-02-17</t>
+        </is>
       </c>
       <c r="D307" t="n">
         <v>2018</v>
@@ -28801,8 +29409,10 @@
       <c r="B308" t="n">
         <v>1</v>
       </c>
-      <c r="C308" s="2" t="n">
-        <v>43150</v>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>2018-02-19</t>
+        </is>
       </c>
       <c r="D308" t="n">
         <v>2018</v>
@@ -28890,8 +29500,10 @@
       <c r="B309" t="n">
         <v>1</v>
       </c>
-      <c r="C309" s="2" t="n">
-        <v>43153</v>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>2018-02-22</t>
+        </is>
       </c>
       <c r="D309" t="n">
         <v>2018</v>
@@ -28983,8 +29595,10 @@
       <c r="B310" t="n">
         <v>1</v>
       </c>
-      <c r="C310" s="2" t="n">
-        <v>43155</v>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>2018-02-24</t>
+        </is>
       </c>
       <c r="D310" t="n">
         <v>2018</v>
@@ -29076,8 +29690,10 @@
       <c r="B311" t="n">
         <v>1</v>
       </c>
-      <c r="C311" s="2" t="n">
-        <v>43155</v>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>2018-02-24</t>
+        </is>
       </c>
       <c r="D311" t="n">
         <v>2018</v>
@@ -29169,8 +29785,10 @@
       <c r="B312" t="n">
         <v>1</v>
       </c>
-      <c r="C312" s="2" t="n">
-        <v>43159</v>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>2018-02-28</t>
+        </is>
       </c>
       <c r="D312" t="n">
         <v>2018</v>
@@ -29262,8 +29880,10 @@
       <c r="B313" t="n">
         <v>1</v>
       </c>
-      <c r="C313" s="2" t="n">
-        <v>43163</v>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>2018-03-04</t>
+        </is>
       </c>
       <c r="D313" t="n">
         <v>2018</v>
@@ -29355,8 +29975,10 @@
       <c r="B314" t="n">
         <v>2</v>
       </c>
-      <c r="C314" s="2" t="n">
-        <v>43168</v>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>2018-03-09</t>
+        </is>
       </c>
       <c r="D314" t="n">
         <v>2018</v>
@@ -29448,8 +30070,10 @@
       <c r="B315" t="n">
         <v>2</v>
       </c>
-      <c r="C315" s="2" t="n">
-        <v>43168</v>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>2018-03-09</t>
+        </is>
       </c>
       <c r="D315" t="n">
         <v>2018</v>
@@ -29541,8 +30165,10 @@
       <c r="B316" t="n">
         <v>1</v>
       </c>
-      <c r="C316" s="2" t="n">
-        <v>43170</v>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>2018-03-11</t>
+        </is>
       </c>
       <c r="D316" t="n">
         <v>2018</v>
@@ -29634,8 +30260,10 @@
       <c r="B317" t="n">
         <v>1</v>
       </c>
-      <c r="C317" s="2" t="n">
-        <v>43172</v>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>2018-03-13</t>
+        </is>
       </c>
       <c r="D317" t="n">
         <v>2018</v>
@@ -29727,8 +30355,10 @@
       <c r="B318" t="n">
         <v>1</v>
       </c>
-      <c r="C318" s="2" t="n">
-        <v>43174</v>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>2018-03-15</t>
+        </is>
       </c>
       <c r="D318" t="n">
         <v>2018</v>
@@ -29820,8 +30450,10 @@
       <c r="B319" t="n">
         <v>1</v>
       </c>
-      <c r="C319" s="2" t="n">
-        <v>43179</v>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>2018-03-20</t>
+        </is>
       </c>
       <c r="D319" t="n">
         <v>2018</v>
@@ -29913,8 +30545,10 @@
       <c r="B320" t="n">
         <v>1</v>
       </c>
-      <c r="C320" s="2" t="n">
-        <v>43187</v>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>2018-03-28</t>
+        </is>
       </c>
       <c r="D320" t="n">
         <v>2018</v>
@@ -30006,8 +30640,10 @@
       <c r="B321" t="n">
         <v>1</v>
       </c>
-      <c r="C321" s="2" t="n">
-        <v>43192</v>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>2018-04-02</t>
+        </is>
       </c>
       <c r="D321" t="n">
         <v>2018</v>
@@ -30099,8 +30735,10 @@
       <c r="B322" t="n">
         <v>1</v>
       </c>
-      <c r="C322" s="2" t="n">
-        <v>43197</v>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>2018-04-07</t>
+        </is>
       </c>
       <c r="D322" t="n">
         <v>2018</v>
@@ -30192,8 +30830,10 @@
       <c r="B323" t="n">
         <v>1</v>
       </c>
-      <c r="C323" s="2" t="n">
-        <v>43201</v>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>2018-04-11</t>
+        </is>
       </c>
       <c r="D323" t="n">
         <v>2018</v>
@@ -30283,8 +30923,10 @@
       <c r="B324" t="n">
         <v>1</v>
       </c>
-      <c r="C324" s="2" t="n">
-        <v>43202</v>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>2018-04-12</t>
+        </is>
       </c>
       <c r="D324" t="n">
         <v>2018</v>
@@ -30374,8 +31016,10 @@
       <c r="B325" t="n">
         <v>1</v>
       </c>
-      <c r="C325" s="2" t="n">
-        <v>43203</v>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>2018-04-13</t>
+        </is>
       </c>
       <c r="D325" t="n">
         <v>2018</v>
@@ -30467,8 +31111,10 @@
       <c r="B326" t="n">
         <v>1</v>
       </c>
-      <c r="C326" s="2" t="n">
-        <v>43208</v>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>2018-04-18</t>
+        </is>
       </c>
       <c r="D326" t="n">
         <v>2018</v>
@@ -30560,8 +31206,10 @@
       <c r="B327" t="n">
         <v>2</v>
       </c>
-      <c r="C327" s="2" t="n">
-        <v>43210</v>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>2018-04-20</t>
+        </is>
       </c>
       <c r="D327" t="n">
         <v>2018</v>
@@ -30651,8 +31299,10 @@
       <c r="B328" t="n">
         <v>2</v>
       </c>
-      <c r="C328" s="2" t="n">
-        <v>43210</v>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>2018-04-20</t>
+        </is>
       </c>
       <c r="D328" t="n">
         <v>2018</v>
@@ -30742,8 +31392,10 @@
       <c r="B329" t="n">
         <v>1</v>
       </c>
-      <c r="C329" s="2" t="n">
-        <v>43211</v>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>2018-04-21</t>
+        </is>
       </c>
       <c r="D329" t="n">
         <v>2018</v>
@@ -30827,8 +31479,10 @@
       <c r="B330" t="n">
         <v>1</v>
       </c>
-      <c r="C330" s="2" t="n">
-        <v>43217</v>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>2018-04-27</t>
+        </is>
       </c>
       <c r="D330" t="n">
         <v>2018</v>
@@ -30920,8 +31574,10 @@
       <c r="B331" t="n">
         <v>1</v>
       </c>
-      <c r="C331" s="2" t="n">
-        <v>43217</v>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>2018-04-27</t>
+        </is>
       </c>
       <c r="D331" t="n">
         <v>2018</v>
@@ -31013,8 +31669,10 @@
       <c r="B332" t="n">
         <v>1</v>
       </c>
-      <c r="C332" s="2" t="n">
-        <v>43217</v>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>2018-04-27</t>
+        </is>
       </c>
       <c r="D332" t="n">
         <v>2018</v>
@@ -31106,8 +31764,10 @@
       <c r="B333" t="n">
         <v>1</v>
       </c>
-      <c r="C333" s="2" t="n">
-        <v>43218</v>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>2018-04-28</t>
+        </is>
       </c>
       <c r="D333" t="n">
         <v>2018</v>
@@ -31199,8 +31859,10 @@
       <c r="B334" t="n">
         <v>1</v>
       </c>
-      <c r="C334" s="2" t="n">
-        <v>43218</v>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>2018-04-28</t>
+        </is>
       </c>
       <c r="D334" t="n">
         <v>2018</v>
@@ -31292,8 +31954,10 @@
       <c r="B335" t="n">
         <v>1</v>
       </c>
-      <c r="C335" s="2" t="n">
-        <v>43220</v>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>2018-04-30</t>
+        </is>
       </c>
       <c r="D335" t="n">
         <v>2018</v>
@@ -31383,8 +32047,10 @@
       <c r="B336" t="n">
         <v>1</v>
       </c>
-      <c r="C336" s="2" t="n">
-        <v>43222</v>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>2018-05-02</t>
+        </is>
       </c>
       <c r="D336" t="n">
         <v>2018</v>
@@ -31476,8 +32142,10 @@
       <c r="B337" t="n">
         <v>1</v>
       </c>
-      <c r="C337" s="2" t="n">
-        <v>43228</v>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>2018-05-08</t>
+        </is>
       </c>
       <c r="D337" t="n">
         <v>2018</v>
@@ -31569,8 +32237,10 @@
       <c r="B338" t="n">
         <v>1</v>
       </c>
-      <c r="C338" s="2" t="n">
-        <v>43229</v>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>2018-05-09</t>
+        </is>
       </c>
       <c r="D338" t="n">
         <v>2018</v>
@@ -31662,8 +32332,10 @@
       <c r="B339" t="n">
         <v>1</v>
       </c>
-      <c r="C339" s="2" t="n">
-        <v>43231</v>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>2018-05-11</t>
+        </is>
       </c>
       <c r="D339" t="n">
         <v>2018</v>
@@ -31753,8 +32425,10 @@
       <c r="B340" t="n">
         <v>1</v>
       </c>
-      <c r="C340" s="2" t="n">
-        <v>43234</v>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>2018-05-14</t>
+        </is>
       </c>
       <c r="D340" t="n">
         <v>2018</v>
@@ -31846,8 +32520,10 @@
       <c r="B341" t="n">
         <v>1</v>
       </c>
-      <c r="C341" s="2" t="n">
-        <v>43235</v>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>2018-05-15</t>
+        </is>
       </c>
       <c r="D341" t="n">
         <v>2018</v>
@@ -31939,8 +32615,10 @@
       <c r="B342" t="n">
         <v>1</v>
       </c>
-      <c r="C342" s="2" t="n">
-        <v>43238</v>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>2018-05-18</t>
+        </is>
       </c>
       <c r="D342" t="n">
         <v>2018</v>
@@ -32032,8 +32710,10 @@
       <c r="B343" t="n">
         <v>1</v>
       </c>
-      <c r="C343" s="2" t="n">
-        <v>43240</v>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>2018-05-20</t>
+        </is>
       </c>
       <c r="D343" t="n">
         <v>2018</v>
@@ -32125,8 +32805,10 @@
       <c r="B344" t="n">
         <v>1</v>
       </c>
-      <c r="C344" s="2" t="n">
-        <v>43242</v>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>2018-05-22</t>
+        </is>
       </c>
       <c r="D344" t="n">
         <v>2018</v>
@@ -32216,8 +32898,10 @@
       <c r="B345" t="n">
         <v>1</v>
       </c>
-      <c r="C345" s="2" t="n">
-        <v>43249</v>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>2018-05-29</t>
+        </is>
       </c>
       <c r="D345" t="n">
         <v>2018</v>
@@ -32309,8 +32993,10 @@
       <c r="B346" t="n">
         <v>1</v>
       </c>
-      <c r="C346" s="2" t="n">
-        <v>43253</v>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>2018-06-02</t>
+        </is>
       </c>
       <c r="D346" t="n">
         <v>2018</v>
@@ -32400,8 +33086,10 @@
       <c r="B347" t="n">
         <v>1</v>
       </c>
-      <c r="C347" s="2" t="n">
-        <v>43254</v>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>2018-06-03</t>
+        </is>
       </c>
       <c r="D347" t="n">
         <v>2018</v>
@@ -32493,8 +33181,10 @@
       <c r="B348" t="n">
         <v>1</v>
       </c>
-      <c r="C348" s="2" t="n">
-        <v>43254</v>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>2018-06-03</t>
+        </is>
       </c>
       <c r="D348" t="n">
         <v>2018</v>
@@ -32586,8 +33276,10 @@
       <c r="B349" t="n">
         <v>1</v>
       </c>
-      <c r="C349" s="2" t="n">
-        <v>43259</v>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>2018-06-08</t>
+        </is>
       </c>
       <c r="D349" t="n">
         <v>2018</v>
@@ -32679,8 +33371,10 @@
       <c r="B350" t="n">
         <v>1</v>
       </c>
-      <c r="C350" s="2" t="n">
-        <v>43259</v>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>2018-06-08</t>
+        </is>
       </c>
       <c r="D350" t="n">
         <v>2018</v>
@@ -32772,8 +33466,10 @@
       <c r="B351" t="n">
         <v>1</v>
       </c>
-      <c r="C351" s="2" t="n">
-        <v>43261</v>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>2018-06-10</t>
+        </is>
       </c>
       <c r="D351" t="n">
         <v>2018</v>
@@ -32865,8 +33561,10 @@
       <c r="B352" t="n">
         <v>1</v>
       </c>
-      <c r="C352" s="2" t="n">
-        <v>43265</v>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>2018-06-14</t>
+        </is>
       </c>
       <c r="D352" t="n">
         <v>2018</v>
@@ -32958,8 +33656,10 @@
       <c r="B353" t="n">
         <v>1</v>
       </c>
-      <c r="C353" s="2" t="n">
-        <v>43267</v>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>2018-06-16</t>
+        </is>
       </c>
       <c r="D353" t="n">
         <v>2018</v>
@@ -33051,8 +33751,10 @@
       <c r="B354" t="n">
         <v>1</v>
       </c>
-      <c r="C354" s="2" t="n">
-        <v>43276</v>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>2018-06-25</t>
+        </is>
       </c>
       <c r="D354" t="n">
         <v>2018</v>
@@ -33144,8 +33846,10 @@
       <c r="B355" t="n">
         <v>1</v>
       </c>
-      <c r="C355" s="2" t="n">
-        <v>43277</v>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>2018-06-26</t>
+        </is>
       </c>
       <c r="D355" t="n">
         <v>2018</v>
@@ -33237,8 +33941,10 @@
       <c r="B356" t="n">
         <v>1</v>
       </c>
-      <c r="C356" s="2" t="n">
-        <v>43279</v>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>2018-06-28</t>
+        </is>
       </c>
       <c r="D356" t="n">
         <v>2018</v>
@@ -33330,8 +34036,10 @@
       <c r="B357" t="n">
         <v>1</v>
       </c>
-      <c r="C357" s="2" t="n">
-        <v>43280</v>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>2018-06-29</t>
+        </is>
       </c>
       <c r="D357" t="n">
         <v>2018</v>
@@ -33423,8 +34131,10 @@
       <c r="B358" t="n">
         <v>1</v>
       </c>
-      <c r="C358" s="2" t="n">
-        <v>43282</v>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>2018-07-01</t>
+        </is>
       </c>
       <c r="D358" t="n">
         <v>2018</v>
@@ -33516,8 +34226,10 @@
       <c r="B359" t="n">
         <v>1</v>
       </c>
-      <c r="C359" s="2" t="n">
-        <v>43285</v>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>2018-07-04</t>
+        </is>
       </c>
       <c r="D359" t="n">
         <v>2018</v>
@@ -33608,8 +34320,10 @@
       <c r="B360" t="n">
         <v>1</v>
       </c>
-      <c r="C360" s="2" t="n">
-        <v>43288</v>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>2018-07-07</t>
+        </is>
       </c>
       <c r="D360" t="n">
         <v>2018</v>
@@ -33701,8 +34415,10 @@
       <c r="B361" t="n">
         <v>1</v>
       </c>
-      <c r="C361" s="2" t="n">
-        <v>43291</v>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>2018-07-10</t>
+        </is>
       </c>
       <c r="D361" t="n">
         <v>2018</v>
@@ -33794,8 +34510,10 @@
       <c r="B362" t="n">
         <v>1</v>
       </c>
-      <c r="C362" s="2" t="n">
-        <v>43292</v>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>2018-07-11</t>
+        </is>
       </c>
       <c r="D362" t="n">
         <v>2018</v>
@@ -33883,8 +34601,10 @@
       <c r="B363" t="n">
         <v>1</v>
       </c>
-      <c r="C363" s="2" t="n">
-        <v>43292</v>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>2018-07-11</t>
+        </is>
       </c>
       <c r="D363" t="n">
         <v>2018</v>
@@ -33974,8 +34694,10 @@
       <c r="B364" t="n">
         <v>1</v>
       </c>
-      <c r="C364" s="2" t="n">
-        <v>43295</v>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>2018-07-14</t>
+        </is>
       </c>
       <c r="D364" t="n">
         <v>2018</v>
@@ -34065,8 +34787,10 @@
       <c r="B365" t="n">
         <v>1</v>
       </c>
-      <c r="C365" s="2" t="n">
-        <v>43296</v>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>2018-07-15</t>
+        </is>
       </c>
       <c r="D365" t="n">
         <v>2018</v>
@@ -34158,8 +34882,10 @@
       <c r="B366" t="n">
         <v>1</v>
       </c>
-      <c r="C366" s="2" t="n">
-        <v>43297</v>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>2018-07-16</t>
+        </is>
       </c>
       <c r="D366" t="n">
         <v>2018</v>
@@ -34251,8 +34977,10 @@
       <c r="B367" t="n">
         <v>1</v>
       </c>
-      <c r="C367" s="2" t="n">
-        <v>43297</v>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>2018-07-16</t>
+        </is>
       </c>
       <c r="D367" t="n">
         <v>2018</v>
@@ -34344,8 +35072,10 @@
       <c r="B368" t="n">
         <v>1</v>
       </c>
-      <c r="C368" s="2" t="n">
-        <v>43302</v>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>2018-07-21</t>
+        </is>
       </c>
       <c r="D368" t="n">
         <v>2018</v>
@@ -34437,8 +35167,10 @@
       <c r="B369" t="n">
         <v>1</v>
       </c>
-      <c r="C369" s="2" t="n">
-        <v>43304</v>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>2018-07-23</t>
+        </is>
       </c>
       <c r="D369" t="n">
         <v>2018</v>
@@ -34530,8 +35262,10 @@
       <c r="B370" t="n">
         <v>1</v>
       </c>
-      <c r="C370" s="2" t="n">
-        <v>43306</v>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>2018-07-25</t>
+        </is>
       </c>
       <c r="D370" t="n">
         <v>2018</v>
@@ -34623,8 +35357,10 @@
       <c r="B371" t="n">
         <v>1</v>
       </c>
-      <c r="C371" s="2" t="n">
-        <v>43310</v>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>2018-07-29</t>
+        </is>
       </c>
       <c r="D371" t="n">
         <v>2018</v>
@@ -34716,8 +35452,10 @@
       <c r="B372" t="n">
         <v>1</v>
       </c>
-      <c r="C372" s="2" t="n">
-        <v>43313</v>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>2018-08-01</t>
+        </is>
       </c>
       <c r="D372" t="n">
         <v>2018</v>
@@ -34809,8 +35547,10 @@
       <c r="B373" t="n">
         <v>1</v>
       </c>
-      <c r="C373" s="2" t="n">
-        <v>43314</v>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>2018-08-02</t>
+        </is>
       </c>
       <c r="D373" t="n">
         <v>2018</v>
@@ -34902,8 +35642,10 @@
       <c r="B374" t="n">
         <v>1</v>
       </c>
-      <c r="C374" s="2" t="n">
-        <v>43315</v>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>2018-08-03</t>
+        </is>
       </c>
       <c r="D374" t="n">
         <v>2018</v>
@@ -34995,8 +35737,10 @@
       <c r="B375" t="n">
         <v>2</v>
       </c>
-      <c r="C375" s="2" t="n">
-        <v>43315</v>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>2018-08-03</t>
+        </is>
       </c>
       <c r="D375" t="n">
         <v>2018</v>
@@ -35088,8 +35832,10 @@
       <c r="B376" t="n">
         <v>2</v>
       </c>
-      <c r="C376" s="2" t="n">
-        <v>43315</v>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>2018-08-03</t>
+        </is>
       </c>
       <c r="D376" t="n">
         <v>2018</v>
@@ -35181,8 +35927,10 @@
       <c r="B377" t="n">
         <v>1</v>
       </c>
-      <c r="C377" s="2" t="n">
-        <v>43322</v>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>2018-08-10</t>
+        </is>
       </c>
       <c r="D377" t="n">
         <v>2018</v>
@@ -35274,8 +36022,10 @@
       <c r="B378" t="n">
         <v>1</v>
       </c>
-      <c r="C378" s="2" t="n">
-        <v>43327</v>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>2018-08-15</t>
+        </is>
       </c>
       <c r="D378" t="n">
         <v>2018</v>
@@ -35367,8 +36117,10 @@
       <c r="B379" t="n">
         <v>1</v>
       </c>
-      <c r="C379" s="2" t="n">
-        <v>43329</v>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>2018-08-17</t>
+        </is>
       </c>
       <c r="D379" t="n">
         <v>2018</v>
@@ -35460,8 +36212,10 @@
       <c r="B380" t="n">
         <v>1</v>
       </c>
-      <c r="C380" s="2" t="n">
-        <v>43329</v>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>2018-08-17</t>
+        </is>
       </c>
       <c r="D380" t="n">
         <v>2018</v>
@@ -35553,8 +36307,10 @@
       <c r="B381" t="n">
         <v>1</v>
       </c>
-      <c r="C381" s="2" t="n">
-        <v>43330</v>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>2018-08-18</t>
+        </is>
       </c>
       <c r="D381" t="n">
         <v>2018</v>
@@ -35646,8 +36402,10 @@
       <c r="B382" t="n">
         <v>1</v>
       </c>
-      <c r="C382" s="2" t="n">
-        <v>43331</v>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>2018-08-19</t>
+        </is>
       </c>
       <c r="D382" t="n">
         <v>2018</v>
@@ -35739,8 +36497,10 @@
       <c r="B383" t="n">
         <v>1</v>
       </c>
-      <c r="C383" s="2" t="n">
-        <v>43332</v>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>2018-08-20</t>
+        </is>
       </c>
       <c r="D383" t="n">
         <v>2018</v>
@@ -35832,8 +36592,10 @@
       <c r="B384" t="n">
         <v>1</v>
       </c>
-      <c r="C384" s="2" t="n">
-        <v>43332</v>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>2018-08-20</t>
+        </is>
       </c>
       <c r="D384" t="n">
         <v>2018</v>
@@ -35923,8 +36685,10 @@
       <c r="B385" t="n">
         <v>1</v>
       </c>
-      <c r="C385" s="2" t="n">
-        <v>43335</v>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>2018-08-23</t>
+        </is>
       </c>
       <c r="D385" t="n">
         <v>2018</v>
@@ -36016,8 +36780,10 @@
       <c r="B386" t="n">
         <v>1</v>
       </c>
-      <c r="C386" s="2" t="n">
-        <v>43338</v>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>2018-08-26</t>
+        </is>
       </c>
       <c r="D386" t="n">
         <v>2018</v>
@@ -36109,8 +36875,10 @@
       <c r="B387" t="n">
         <v>1</v>
       </c>
-      <c r="C387" s="2" t="n">
-        <v>43343</v>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>2018-08-31</t>
+        </is>
       </c>
       <c r="D387" t="n">
         <v>2018</v>
@@ -36202,8 +36970,10 @@
       <c r="B388" t="n">
         <v>1</v>
       </c>
-      <c r="C388" s="2" t="n">
-        <v>43345</v>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>2018-09-02</t>
+        </is>
       </c>
       <c r="D388" t="n">
         <v>2018</v>
@@ -36295,8 +37065,10 @@
       <c r="B389" t="n">
         <v>2</v>
       </c>
-      <c r="C389" s="2" t="n">
-        <v>43352</v>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>2018-09-09</t>
+        </is>
       </c>
       <c r="D389" t="n">
         <v>2018</v>
@@ -36388,8 +37160,10 @@
       <c r="B390" t="n">
         <v>2</v>
       </c>
-      <c r="C390" s="2" t="n">
-        <v>43352</v>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>2018-09-09</t>
+        </is>
       </c>
       <c r="D390" t="n">
         <v>2018</v>
@@ -36481,8 +37255,10 @@
       <c r="B391" t="n">
         <v>1</v>
       </c>
-      <c r="C391" s="2" t="n">
-        <v>43355</v>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>2018-09-12</t>
+        </is>
       </c>
       <c r="D391" t="n">
         <v>2018</v>
@@ -36574,8 +37350,10 @@
       <c r="B392" t="n">
         <v>1</v>
       </c>
-      <c r="C392" s="2" t="n">
-        <v>43363</v>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>2018-09-20</t>
+        </is>
       </c>
       <c r="D392" t="n">
         <v>2018</v>
@@ -36665,8 +37443,10 @@
       <c r="B393" t="n">
         <v>1</v>
       </c>
-      <c r="C393" s="2" t="n">
-        <v>43364</v>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>2018-09-21</t>
+        </is>
       </c>
       <c r="D393" t="n">
         <v>2018</v>
@@ -36758,8 +37538,10 @@
       <c r="B394" t="n">
         <v>1</v>
       </c>
-      <c r="C394" s="2" t="n">
-        <v>43364</v>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>2018-09-21</t>
+        </is>
       </c>
       <c r="D394" t="n">
         <v>2018</v>
@@ -36851,8 +37633,10 @@
       <c r="B395" t="n">
         <v>1</v>
       </c>
-      <c r="C395" s="2" t="n">
-        <v>43370</v>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>2018-09-27</t>
+        </is>
       </c>
       <c r="D395" t="n">
         <v>2018</v>
@@ -36944,8 +37728,10 @@
       <c r="B396" t="n">
         <v>1</v>
       </c>
-      <c r="C396" s="2" t="n">
-        <v>43374</v>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>2018-10-01</t>
+        </is>
       </c>
       <c r="D396" t="n">
         <v>2018</v>
@@ -37037,8 +37823,10 @@
       <c r="B397" t="n">
         <v>1</v>
       </c>
-      <c r="C397" s="2" t="n">
-        <v>43376</v>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>2018-10-03</t>
+        </is>
       </c>
       <c r="D397" t="n">
         <v>2018</v>
@@ -37130,8 +37918,10 @@
       <c r="B398" t="n">
         <v>1</v>
       </c>
-      <c r="C398" s="2" t="n">
-        <v>43377</v>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>2018-10-04</t>
+        </is>
       </c>
       <c r="D398" t="n">
         <v>2018</v>
@@ -37223,8 +38013,10 @@
       <c r="B399" t="n">
         <v>1</v>
       </c>
-      <c r="C399" s="2" t="n">
-        <v>43379</v>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>2018-10-06</t>
+        </is>
       </c>
       <c r="D399" t="n">
         <v>2018</v>
@@ -37316,8 +38108,10 @@
       <c r="B400" t="n">
         <v>1</v>
       </c>
-      <c r="C400" s="2" t="n">
-        <v>43382</v>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>2018-10-09</t>
+        </is>
       </c>
       <c r="D400" t="n">
         <v>2018</v>
@@ -37409,8 +38203,10 @@
       <c r="B401" t="n">
         <v>1</v>
       </c>
-      <c r="C401" s="2" t="n">
-        <v>43383</v>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>2018-10-10</t>
+        </is>
       </c>
       <c r="D401" t="n">
         <v>2018</v>
@@ -37502,8 +38298,10 @@
       <c r="B402" t="n">
         <v>1</v>
       </c>
-      <c r="C402" s="2" t="n">
-        <v>43386</v>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>2018-10-13</t>
+        </is>
       </c>
       <c r="D402" t="n">
         <v>2018</v>
@@ -37595,8 +38393,10 @@
       <c r="B403" t="n">
         <v>1</v>
       </c>
-      <c r="C403" s="2" t="n">
-        <v>43392</v>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>2018-10-19</t>
+        </is>
       </c>
       <c r="D403" t="n">
         <v>2018</v>
@@ -37684,8 +38484,10 @@
       <c r="B404" t="n">
         <v>1</v>
       </c>
-      <c r="C404" s="2" t="n">
-        <v>43397</v>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>2018-10-24</t>
+        </is>
       </c>
       <c r="D404" t="n">
         <v>2018</v>
@@ -37777,8 +38579,10 @@
       <c r="B405" t="n">
         <v>1</v>
       </c>
-      <c r="C405" s="2" t="n">
-        <v>43398</v>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>2018-10-25</t>
+        </is>
       </c>
       <c r="D405" t="n">
         <v>2018</v>
@@ -37870,8 +38674,10 @@
       <c r="B406" t="n">
         <v>1</v>
       </c>
-      <c r="C406" s="2" t="n">
-        <v>43403</v>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>2018-10-30</t>
+        </is>
       </c>
       <c r="D406" t="n">
         <v>2018</v>
@@ -37963,8 +38769,10 @@
       <c r="B407" t="n">
         <v>1</v>
       </c>
-      <c r="C407" s="2" t="n">
-        <v>43404</v>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>2018-10-31</t>
+        </is>
       </c>
       <c r="D407" t="n">
         <v>2018</v>
@@ -38056,8 +38864,10 @@
       <c r="B408" t="n">
         <v>1</v>
       </c>
-      <c r="C408" s="2" t="n">
-        <v>43405</v>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>2018-11-01</t>
+        </is>
       </c>
       <c r="D408" t="n">
         <v>2018</v>
@@ -38147,8 +38957,10 @@
       <c r="B409" t="n">
         <v>1</v>
       </c>
-      <c r="C409" s="2" t="n">
-        <v>43408</v>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>2018-11-04</t>
+        </is>
       </c>
       <c r="D409" t="n">
         <v>2018</v>
@@ -38238,8 +39050,10 @@
       <c r="B410" t="n">
         <v>1</v>
       </c>
-      <c r="C410" s="2" t="n">
-        <v>43409</v>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>2018-11-05</t>
+        </is>
       </c>
       <c r="D410" t="n">
         <v>2018</v>
@@ -38331,8 +39145,10 @@
       <c r="B411" t="n">
         <v>1</v>
       </c>
-      <c r="C411" s="2" t="n">
-        <v>43409</v>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>2018-11-05</t>
+        </is>
       </c>
       <c r="D411" t="n">
         <v>2018</v>
@@ -38424,8 +39240,10 @@
       <c r="B412" t="n">
         <v>1</v>
       </c>
-      <c r="C412" s="2" t="n">
-        <v>43413</v>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>2018-11-09</t>
+        </is>
       </c>
       <c r="D412" t="n">
         <v>2018</v>
@@ -38517,8 +39335,10 @@
       <c r="B413" t="n">
         <v>1</v>
       </c>
-      <c r="C413" s="2" t="n">
-        <v>43413</v>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>2018-11-09</t>
+        </is>
       </c>
       <c r="D413" t="n">
         <v>2018</v>
@@ -38610,8 +39430,10 @@
       <c r="B414" t="n">
         <v>1</v>
       </c>
-      <c r="C414" s="2" t="n">
-        <v>43416</v>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>2018-11-12</t>
+        </is>
       </c>
       <c r="D414" t="n">
         <v>2018</v>
@@ -38703,8 +39525,10 @@
       <c r="B415" t="n">
         <v>1</v>
       </c>
-      <c r="C415" s="2" t="n">
-        <v>43416</v>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>2018-11-12</t>
+        </is>
       </c>
       <c r="D415" t="n">
         <v>2018</v>
@@ -38796,8 +39620,10 @@
       <c r="B416" t="n">
         <v>1</v>
       </c>
-      <c r="C416" s="2" t="n">
-        <v>43419</v>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>2018-11-15</t>
+        </is>
       </c>
       <c r="D416" t="n">
         <v>2018</v>
@@ -38885,8 +39711,10 @@
       <c r="B417" t="n">
         <v>1</v>
       </c>
-      <c r="C417" s="2" t="n">
-        <v>43420</v>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>2018-11-16</t>
+        </is>
       </c>
       <c r="D417" t="n">
         <v>2018</v>
@@ -38978,8 +39806,10 @@
       <c r="B418" t="n">
         <v>1</v>
       </c>
-      <c r="C418" s="2" t="n">
-        <v>43422</v>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>2018-11-18</t>
+        </is>
       </c>
       <c r="D418" t="n">
         <v>2018</v>
@@ -39071,8 +39901,10 @@
       <c r="B419" t="n">
         <v>1</v>
       </c>
-      <c r="C419" s="2" t="n">
-        <v>43423</v>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>2018-11-19</t>
+        </is>
       </c>
       <c r="D419" t="n">
         <v>2018</v>
@@ -39164,8 +39996,10 @@
       <c r="B420" t="n">
         <v>2</v>
       </c>
-      <c r="C420" s="2" t="n">
-        <v>43429</v>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>2018-11-25</t>
+        </is>
       </c>
       <c r="D420" t="n">
         <v>2018</v>
@@ -39255,8 +40089,10 @@
       <c r="B421" t="n">
         <v>2</v>
       </c>
-      <c r="C421" s="2" t="n">
-        <v>43429</v>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>2018-11-25</t>
+        </is>
       </c>
       <c r="D421" t="n">
         <v>2018</v>
@@ -39346,8 +40182,10 @@
       <c r="B422" t="n">
         <v>1</v>
       </c>
-      <c r="C422" s="2" t="n">
-        <v>43432</v>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>2018-11-28</t>
+        </is>
       </c>
       <c r="D422" t="n">
         <v>2018</v>
@@ -39439,8 +40277,10 @@
       <c r="B423" t="n">
         <v>1</v>
       </c>
-      <c r="C423" s="2" t="n">
-        <v>43437</v>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>2018-12-03</t>
+        </is>
       </c>
       <c r="D423" t="n">
         <v>2018</v>
@@ -39532,8 +40372,10 @@
       <c r="B424" t="n">
         <v>1</v>
       </c>
-      <c r="C424" s="2" t="n">
-        <v>43441</v>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>2018-12-07</t>
+        </is>
       </c>
       <c r="D424" t="n">
         <v>2018</v>
@@ -39623,8 +40465,10 @@
       <c r="B425" t="n">
         <v>1</v>
       </c>
-      <c r="C425" s="2" t="n">
-        <v>43446</v>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>2018-12-12</t>
+        </is>
       </c>
       <c r="D425" t="n">
         <v>2018</v>
@@ -39716,8 +40560,10 @@
       <c r="B426" t="n">
         <v>1</v>
       </c>
-      <c r="C426" s="2" t="n">
-        <v>43446</v>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>2018-12-12</t>
+        </is>
       </c>
       <c r="D426" t="n">
         <v>2018</v>
@@ -39809,8 +40655,10 @@
       <c r="B427" t="n">
         <v>1</v>
       </c>
-      <c r="C427" s="2" t="n">
-        <v>43446</v>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>2018-12-12</t>
+        </is>
       </c>
       <c r="D427" t="n">
         <v>2018</v>
@@ -39902,8 +40750,10 @@
       <c r="B428" t="n">
         <v>1</v>
       </c>
-      <c r="C428" s="2" t="n">
-        <v>43452</v>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>2018-12-18</t>
+        </is>
       </c>
       <c r="D428" t="n">
         <v>2018</v>
@@ -39995,8 +40845,10 @@
       <c r="B429" t="n">
         <v>1</v>
       </c>
-      <c r="C429" s="2" t="n">
-        <v>43452</v>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>2018-12-18</t>
+        </is>
       </c>
       <c r="D429" t="n">
         <v>2018</v>
@@ -40086,8 +40938,10 @@
       <c r="B430" t="n">
         <v>1</v>
       </c>
-      <c r="C430" s="2" t="n">
-        <v>43452</v>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>2018-12-18</t>
+        </is>
       </c>
       <c r="D430" t="n">
         <v>2018</v>
@@ -40179,8 +41033,10 @@
       <c r="B431" t="n">
         <v>1</v>
       </c>
-      <c r="C431" s="2" t="n">
-        <v>43455</v>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>2018-12-21</t>
+        </is>
       </c>
       <c r="D431" t="n">
         <v>2018</v>
@@ -40270,8 +41126,10 @@
       <c r="B432" t="n">
         <v>1</v>
       </c>
-      <c r="C432" s="2" t="n">
-        <v>43456</v>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>2018-12-22</t>
+        </is>
       </c>
       <c r="D432" t="n">
         <v>2018</v>
@@ -40361,8 +41219,10 @@
       <c r="B433" t="n">
         <v>1</v>
       </c>
-      <c r="C433" s="2" t="n">
-        <v>43456</v>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>2018-12-22</t>
+        </is>
       </c>
       <c r="D433" t="n">
         <v>2018</v>
@@ -40452,8 +41312,10 @@
       <c r="B434" t="n">
         <v>1</v>
       </c>
-      <c r="C434" s="2" t="n">
-        <v>43456</v>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>2018-12-22</t>
+        </is>
       </c>
       <c r="D434" t="n">
         <v>2018</v>
@@ -40545,8 +41407,10 @@
       <c r="B435" t="n">
         <v>1</v>
       </c>
-      <c r="C435" s="2" t="n">
-        <v>43459</v>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>2018-12-25</t>
+        </is>
       </c>
       <c r="D435" t="n">
         <v>2018</v>
@@ -40636,8 +41500,10 @@
       <c r="B436" t="n">
         <v>1</v>
       </c>
-      <c r="C436" s="2" t="n">
-        <v>43463</v>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>2018-12-29</t>
+        </is>
       </c>
       <c r="D436" t="n">
         <v>2018</v>
@@ -40729,8 +41595,10 @@
       <c r="B437" t="n">
         <v>1</v>
       </c>
-      <c r="C437" s="2" t="n">
-        <v>43473</v>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>2019-01-08</t>
+        </is>
       </c>
       <c r="D437" t="n">
         <v>2019</v>
@@ -40822,8 +41690,10 @@
       <c r="B438" t="n">
         <v>1</v>
       </c>
-      <c r="C438" s="2" t="n">
-        <v>43474</v>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>2019-01-09</t>
+        </is>
       </c>
       <c r="D438" t="n">
         <v>2019</v>
@@ -40915,8 +41785,10 @@
       <c r="B439" t="n">
         <v>1</v>
       </c>
-      <c r="C439" s="2" t="n">
-        <v>43477</v>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>2019-01-12</t>
+        </is>
       </c>
       <c r="D439" t="n">
         <v>2019</v>
@@ -41008,8 +41880,10 @@
       <c r="B440" t="n">
         <v>1</v>
       </c>
-      <c r="C440" s="2" t="n">
-        <v>43479</v>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>2019-01-14</t>
+        </is>
       </c>
       <c r="D440" t="n">
         <v>2019</v>
@@ -41101,8 +41975,10 @@
       <c r="B441" t="n">
         <v>1</v>
       </c>
-      <c r="C441" s="2" t="n">
-        <v>43484</v>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>2019-01-19</t>
+        </is>
       </c>
       <c r="D441" t="n">
         <v>2019</v>
@@ -41194,8 +42070,10 @@
       <c r="B442" t="n">
         <v>1</v>
       </c>
-      <c r="C442" s="2" t="n">
-        <v>43488</v>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>2019-01-23</t>
+        </is>
       </c>
       <c r="D442" t="n">
         <v>2019</v>
@@ -41285,8 +42163,10 @@
       <c r="B443" t="n">
         <v>1</v>
       </c>
-      <c r="C443" s="2" t="n">
-        <v>43491</v>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>2019-01-26</t>
+        </is>
       </c>
       <c r="D443" t="n">
         <v>2019</v>
@@ -41378,8 +42258,10 @@
       <c r="B444" t="n">
         <v>1</v>
       </c>
-      <c r="C444" s="2" t="n">
-        <v>43495</v>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>2019-01-30</t>
+        </is>
       </c>
       <c r="D444" t="n">
         <v>2019</v>
@@ -41469,8 +42351,10 @@
       <c r="B445" t="n">
         <v>1</v>
       </c>
-      <c r="C445" s="2" t="n">
-        <v>43496</v>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>2019-01-31</t>
+        </is>
       </c>
       <c r="D445" t="n">
         <v>2019</v>
@@ -41562,8 +42446,10 @@
       <c r="B446" t="n">
         <v>2</v>
       </c>
-      <c r="C446" s="2" t="n">
-        <v>43498</v>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>2019-02-02</t>
+        </is>
       </c>
       <c r="D446" t="n">
         <v>2019</v>
@@ -41653,8 +42539,10 @@
       <c r="B447" t="n">
         <v>2</v>
       </c>
-      <c r="C447" s="2" t="n">
-        <v>43498</v>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>2019-02-02</t>
+        </is>
       </c>
       <c r="D447" t="n">
         <v>2019</v>
@@ -41744,8 +42632,10 @@
       <c r="B448" t="n">
         <v>1</v>
       </c>
-      <c r="C448" s="2" t="n">
-        <v>43506</v>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>2019-02-10</t>
+        </is>
       </c>
       <c r="D448" t="n">
         <v>2019</v>
@@ -41837,8 +42727,10 @@
       <c r="B449" t="n">
         <v>1</v>
       </c>
-      <c r="C449" s="2" t="n">
-        <v>43513</v>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>2019-02-17</t>
+        </is>
       </c>
       <c r="D449" t="n">
         <v>2019</v>
@@ -41930,8 +42822,10 @@
       <c r="B450" t="n">
         <v>1</v>
       </c>
-      <c r="C450" s="2" t="n">
-        <v>43516</v>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>2019-02-20</t>
+        </is>
       </c>
       <c r="D450" t="n">
         <v>2019</v>
@@ -42023,8 +42917,10 @@
       <c r="B451" t="n">
         <v>1</v>
       </c>
-      <c r="C451" s="2" t="n">
-        <v>43516</v>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>2019-02-20</t>
+        </is>
       </c>
       <c r="D451" t="n">
         <v>2019</v>
@@ -42114,8 +43010,10 @@
       <c r="B452" t="n">
         <v>1</v>
       </c>
-      <c r="C452" s="2" t="n">
-        <v>43519</v>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>2019-02-23</t>
+        </is>
       </c>
       <c r="D452" t="n">
         <v>2019</v>
@@ -42205,8 +43103,10 @@
       <c r="B453" t="n">
         <v>1</v>
       </c>
-      <c r="C453" s="2" t="n">
-        <v>43520</v>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>2019-02-24</t>
+        </is>
       </c>
       <c r="D453" t="n">
         <v>2019</v>
@@ -42298,8 +43198,10 @@
       <c r="B454" t="n">
         <v>1</v>
       </c>
-      <c r="C454" s="2" t="n">
-        <v>43527</v>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>2019-03-03</t>
+        </is>
       </c>
       <c r="D454" t="n">
         <v>2019</v>
@@ -42391,8 +43293,10 @@
       <c r="B455" t="n">
         <v>1</v>
       </c>
-      <c r="C455" s="2" t="n">
-        <v>43527</v>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>2019-03-03</t>
+        </is>
       </c>
       <c r="D455" t="n">
         <v>2019</v>
@@ -42484,8 +43388,10 @@
       <c r="B456" t="n">
         <v>1</v>
       </c>
-      <c r="C456" s="2" t="n">
-        <v>43530</v>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>2019-03-06</t>
+        </is>
       </c>
       <c r="D456" t="n">
         <v>2019</v>
@@ -42575,8 +43481,10 @@
       <c r="B457" t="n">
         <v>1</v>
       </c>
-      <c r="C457" s="2" t="n">
-        <v>43531</v>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>2019-03-07</t>
+        </is>
       </c>
       <c r="D457" t="n">
         <v>2019</v>
@@ -42666,8 +43574,10 @@
       <c r="B458" t="n">
         <v>1</v>
       </c>
-      <c r="C458" s="2" t="n">
-        <v>43539</v>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>2019-03-15</t>
+        </is>
       </c>
       <c r="D458" t="n">
         <v>2019</v>
@@ -42759,8 +43669,10 @@
       <c r="B459" t="n">
         <v>1</v>
       </c>
-      <c r="C459" s="2" t="n">
-        <v>43539</v>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>2019-03-15</t>
+        </is>
       </c>
       <c r="D459" t="n">
         <v>2019</v>
@@ -42850,8 +43762,10 @@
       <c r="B460" t="n">
         <v>1</v>
       </c>
-      <c r="C460" s="2" t="n">
-        <v>43540</v>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>2019-03-16</t>
+        </is>
       </c>
       <c r="D460" t="n">
         <v>2019</v>
@@ -42943,8 +43857,10 @@
       <c r="B461" t="n">
         <v>1</v>
       </c>
-      <c r="C461" s="2" t="n">
-        <v>43543</v>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>2019-03-19</t>
+        </is>
       </c>
       <c r="D461" t="n">
         <v>2019</v>
@@ -43034,8 +43950,10 @@
       <c r="B462" t="n">
         <v>1</v>
       </c>
-      <c r="C462" s="2" t="n">
-        <v>43546</v>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>2019-03-22</t>
+        </is>
       </c>
       <c r="D462" t="n">
         <v>2019</v>
@@ -43127,8 +44045,10 @@
       <c r="B463" t="n">
         <v>1</v>
       </c>
-      <c r="C463" s="2" t="n">
-        <v>43552</v>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>2019-03-28</t>
+        </is>
       </c>
       <c r="D463" t="n">
         <v>2019</v>
@@ -43220,8 +44140,10 @@
       <c r="B464" t="n">
         <v>1</v>
       </c>
-      <c r="C464" s="2" t="n">
-        <v>43552</v>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>2019-03-28</t>
+        </is>
       </c>
       <c r="D464" t="n">
         <v>2019</v>
@@ -43313,8 +44235,10 @@
       <c r="B465" t="n">
         <v>1</v>
       </c>
-      <c r="C465" s="2" t="n">
-        <v>43561</v>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>2019-04-06</t>
+        </is>
       </c>
       <c r="D465" t="n">
         <v>2019</v>
@@ -43406,8 +44330,10 @@
       <c r="B466" t="n">
         <v>1</v>
       </c>
-      <c r="C466" s="2" t="n">
-        <v>43562</v>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>2019-04-07</t>
+        </is>
       </c>
       <c r="D466" t="n">
         <v>2019</v>
@@ -43499,8 +44425,10 @@
       <c r="B467" t="n">
         <v>1</v>
       </c>
-      <c r="C467" s="2" t="n">
-        <v>43564</v>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>2019-04-09</t>
+        </is>
       </c>
       <c r="D467" t="n">
         <v>2019</v>
@@ -43592,8 +44520,10 @@
       <c r="B468" t="n">
         <v>1</v>
       </c>
-      <c r="C468" s="2" t="n">
-        <v>43567</v>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>2019-04-12</t>
+        </is>
       </c>
       <c r="D468" t="n">
         <v>2019</v>
@@ -43685,8 +44615,10 @@
       <c r="B469" t="n">
         <v>1</v>
       </c>
-      <c r="C469" s="2" t="n">
-        <v>43571</v>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>2019-04-16</t>
+        </is>
       </c>
       <c r="D469" t="n">
         <v>2019</v>
@@ -43778,8 +44710,10 @@
       <c r="B470" t="n">
         <v>1</v>
       </c>
-      <c r="C470" s="2" t="n">
-        <v>43573</v>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>2019-04-18</t>
+        </is>
       </c>
       <c r="D470" t="n">
         <v>2019</v>
@@ -43871,8 +44805,10 @@
       <c r="B471" t="n">
         <v>1</v>
       </c>
-      <c r="C471" s="2" t="n">
-        <v>43576</v>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>2019-04-21</t>
+        </is>
       </c>
       <c r="D471" t="n">
         <v>2019</v>
@@ -43962,8 +44898,10 @@
       <c r="B472" t="n">
         <v>1</v>
       </c>
-      <c r="C472" s="2" t="n">
-        <v>43578</v>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>2019-04-23</t>
+        </is>
       </c>
       <c r="D472" t="n">
         <v>2019</v>
@@ -44053,8 +44991,10 @@
       <c r="B473" t="n">
         <v>1</v>
       </c>
-      <c r="C473" s="2" t="n">
-        <v>43581</v>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>2019-04-26</t>
+        </is>
       </c>
       <c r="D473" t="n">
         <v>2019</v>
@@ -44146,8 +45086,10 @@
       <c r="B474" t="n">
         <v>1</v>
       </c>
-      <c r="C474" s="2" t="n">
-        <v>43586</v>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>2019-05-01</t>
+        </is>
       </c>
       <c r="D474" t="n">
         <v>2019</v>
@@ -44239,8 +45181,10 @@
       <c r="B475" t="n">
         <v>1</v>
       </c>
-      <c r="C475" s="2" t="n">
-        <v>43589</v>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>2019-05-04</t>
+        </is>
       </c>
       <c r="D475" t="n">
         <v>2019</v>
@@ -44332,8 +45276,10 @@
       <c r="B476" t="n">
         <v>1</v>
       </c>
-      <c r="C476" s="2" t="n">
-        <v>43594</v>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>2019-05-09</t>
+        </is>
       </c>
       <c r="D476" t="n">
         <v>2019</v>
@@ -44425,8 +45371,10 @@
       <c r="B477" t="n">
         <v>1</v>
       </c>
-      <c r="C477" s="2" t="n">
-        <v>43594</v>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>2019-05-09</t>
+        </is>
       </c>
       <c r="D477" t="n">
         <v>2019</v>
@@ -44518,8 +45466,10 @@
       <c r="B478" t="n">
         <v>1</v>
       </c>
-      <c r="C478" s="2" t="n">
-        <v>43596</v>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>2019-05-11</t>
+        </is>
       </c>
       <c r="D478" t="n">
         <v>2019</v>
@@ -44611,8 +45561,10 @@
       <c r="B479" t="n">
         <v>1</v>
       </c>
-      <c r="C479" s="2" t="n">
-        <v>43599</v>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>2019-05-14</t>
+        </is>
       </c>
       <c r="D479" t="n">
         <v>2019</v>
@@ -44704,8 +45656,10 @@
       <c r="B480" t="n">
         <v>1</v>
       </c>
-      <c r="C480" s="2" t="n">
-        <v>43606</v>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>2019-05-21</t>
+        </is>
       </c>
       <c r="D480" t="n">
         <v>2019</v>
@@ -44797,8 +45751,10 @@
       <c r="B481" t="n">
         <v>1</v>
       </c>
-      <c r="C481" s="2" t="n">
-        <v>43612</v>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>2019-05-27</t>
+        </is>
       </c>
       <c r="D481" t="n">
         <v>2019</v>
@@ -44888,8 +45844,10 @@
       <c r="B482" t="n">
         <v>1</v>
       </c>
-      <c r="C482" s="2" t="n">
-        <v>43619</v>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>2019-06-03</t>
+        </is>
       </c>
       <c r="D482" t="n">
         <v>2019</v>
@@ -44981,8 +45939,10 @@
       <c r="B483" t="n">
         <v>1</v>
       </c>
-      <c r="C483" s="2" t="n">
-        <v>43620</v>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>2019-06-04</t>
+        </is>
       </c>
       <c r="D483" t="n">
         <v>2019</v>
@@ -45074,8 +46034,10 @@
       <c r="B484" t="n">
         <v>1</v>
       </c>
-      <c r="C484" s="2" t="n">
-        <v>43622</v>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>2019-06-06</t>
+        </is>
       </c>
       <c r="D484" t="n">
         <v>2019</v>
@@ -45165,8 +46127,10 @@
       <c r="B485" t="n">
         <v>1</v>
       </c>
-      <c r="C485" s="2" t="n">
-        <v>43623</v>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>2019-06-07</t>
+        </is>
       </c>
       <c r="D485" t="n">
         <v>2019</v>
@@ -45256,8 +46220,10 @@
       <c r="B486" t="n">
         <v>1</v>
       </c>
-      <c r="C486" s="2" t="n">
-        <v>43624</v>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>2019-06-08</t>
+        </is>
       </c>
       <c r="D486" t="n">
         <v>2019</v>
@@ -45349,8 +46315,10 @@
       <c r="B487" t="n">
         <v>1</v>
       </c>
-      <c r="C487" s="2" t="n">
-        <v>43624</v>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>2019-06-08</t>
+        </is>
       </c>
       <c r="D487" t="n">
         <v>2019</v>
@@ -45442,8 +46410,10 @@
       <c r="B488" t="n">
         <v>1</v>
       </c>
-      <c r="C488" s="2" t="n">
-        <v>43627</v>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>2019-06-11</t>
+        </is>
       </c>
       <c r="D488" t="n">
         <v>2019</v>
@@ -45535,8 +46505,10 @@
       <c r="B489" t="n">
         <v>1</v>
       </c>
-      <c r="C489" s="2" t="n">
-        <v>43630</v>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>2019-06-14</t>
+        </is>
       </c>
       <c r="D489" t="n">
         <v>2019</v>
@@ -45628,8 +46600,10 @@
       <c r="B490" t="n">
         <v>1</v>
       </c>
-      <c r="C490" s="2" t="n">
-        <v>43636</v>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>2019-06-20</t>
+        </is>
       </c>
       <c r="D490" t="n">
         <v>2019</v>
@@ -45719,8 +46693,10 @@
       <c r="B491" t="n">
         <v>1</v>
       </c>
-      <c r="C491" s="2" t="n">
-        <v>43636</v>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>2019-06-20</t>
+        </is>
       </c>
       <c r="D491" t="n">
         <v>2019</v>
@@ -45812,8 +46788,10 @@
       <c r="B492" t="n">
         <v>1</v>
       </c>
-      <c r="C492" s="2" t="n">
-        <v>43645</v>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>2019-06-29</t>
+        </is>
       </c>
       <c r="D492" t="n">
         <v>2019</v>
@@ -45903,8 +46881,10 @@
       <c r="B493" t="n">
         <v>1</v>
       </c>
-      <c r="C493" s="2" t="n">
-        <v>43651</v>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>2019-07-05</t>
+        </is>
       </c>
       <c r="D493" t="n">
         <v>2019</v>
@@ -45996,8 +46976,10 @@
       <c r="B494" t="n">
         <v>1</v>
       </c>
-      <c r="C494" s="2" t="n">
-        <v>43656</v>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>2019-07-10</t>
+        </is>
       </c>
       <c r="D494" t="n">
         <v>2019</v>
@@ -46085,8 +47067,10 @@
       <c r="B495" t="n">
         <v>1</v>
       </c>
-      <c r="C495" s="2" t="n">
-        <v>43659</v>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>2019-07-13</t>
+        </is>
       </c>
       <c r="D495" t="n">
         <v>2019</v>
@@ -46178,8 +47162,10 @@
       <c r="B496" t="n">
         <v>1</v>
       </c>
-      <c r="C496" s="2" t="n">
-        <v>43663</v>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>2019-07-17</t>
+        </is>
       </c>
       <c r="D496" t="n">
         <v>2019</v>
@@ -46271,8 +47257,10 @@
       <c r="B497" t="n">
         <v>1</v>
       </c>
-      <c r="C497" s="2" t="n">
-        <v>43663</v>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>2019-07-17</t>
+        </is>
       </c>
       <c r="D497" t="n">
         <v>2019</v>
@@ -46364,8 +47352,10 @@
       <c r="B498" t="n">
         <v>1</v>
       </c>
-      <c r="C498" s="2" t="n">
-        <v>43678</v>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>2019-08-01</t>
+        </is>
       </c>
       <c r="D498" t="n">
         <v>2019</v>
@@ -46457,8 +47447,10 @@
       <c r="B499" t="n">
         <v>1</v>
       </c>
-      <c r="C499" s="2" t="n">
-        <v>43681</v>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>2019-08-04</t>
+        </is>
       </c>
       <c r="D499" t="n">
         <v>2019</v>
@@ -46550,8 +47542,10 @@
       <c r="B500" t="n">
         <v>1</v>
       </c>
-      <c r="C500" s="2" t="n">
-        <v>43683</v>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>2019-08-06</t>
+        </is>
       </c>
       <c r="D500" t="n">
         <v>2019</v>
@@ -46643,8 +47637,10 @@
       <c r="B501" t="n">
         <v>1</v>
       </c>
-      <c r="C501" s="2" t="n">
-        <v>43685</v>
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>2019-08-08</t>
+        </is>
       </c>
       <c r="D501" t="n">
         <v>2019</v>
@@ -46736,8 +47732,10 @@
       <c r="B502" t="n">
         <v>1</v>
       </c>
-      <c r="C502" s="2" t="n">
-        <v>43688</v>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>2019-08-11</t>
+        </is>
       </c>
       <c r="D502" t="n">
         <v>2019</v>
@@ -46829,8 +47827,10 @@
       <c r="B503" t="n">
         <v>1</v>
       </c>
-      <c r="C503" s="2" t="n">
-        <v>43691</v>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>2019-08-14</t>
+        </is>
       </c>
       <c r="D503" t="n">
         <v>2019</v>
@@ -46920,8 +47920,10 @@
       <c r="B504" t="n">
         <v>1</v>
       </c>
-      <c r="C504" s="2" t="n">
-        <v>43691</v>
+      <c r="C504" t="inlineStr">
+        <is>
+          <t>2019-08-14</t>
+        </is>
       </c>
       <c r="D504" t="n">
         <v>2019</v>
@@ -47011,8 +48013,10 @@
       <c r="B505" t="n">
         <v>1</v>
       </c>
-      <c r="C505" s="2" t="n">
-        <v>43694</v>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>2019-08-17</t>
+        </is>
       </c>
       <c r="D505" t="n">
         <v>2019</v>
@@ -47102,8 +48106,10 @@
       <c r="B506" t="n">
         <v>1</v>
       </c>
-      <c r="C506" s="2" t="n">
-        <v>43699</v>
+      <c r="C506" t="inlineStr">
+        <is>
+          <t>2019-08-22</t>
+        </is>
       </c>
       <c r="D506" t="n">
         <v>2019</v>
@@ -47195,8 +48201,10 @@
       <c r="B507" t="n">
         <v>1</v>
       </c>
-      <c r="C507" s="2" t="n">
-        <v>43704</v>
+      <c r="C507" t="inlineStr">
+        <is>
+          <t>2019-08-27</t>
+        </is>
       </c>
       <c r="D507" t="n">
         <v>2019</v>
@@ -47288,8 +48296,10 @@
       <c r="B508" t="n">
         <v>1</v>
       </c>
-      <c r="C508" s="2" t="n">
-        <v>43705</v>
+      <c r="C508" t="inlineStr">
+        <is>
+          <t>2019-08-28</t>
+        </is>
       </c>
       <c r="D508" t="n">
         <v>2019</v>
@@ -47381,8 +48391,10 @@
       <c r="B509" t="n">
         <v>1</v>
       </c>
-      <c r="C509" s="2" t="n">
-        <v>43706</v>
+      <c r="C509" t="inlineStr">
+        <is>
+          <t>2019-08-29</t>
+        </is>
       </c>
       <c r="D509" t="n">
         <v>2019</v>
@@ -47472,8 +48484,10 @@
       <c r="B510" t="n">
         <v>1</v>
       </c>
-      <c r="C510" s="2" t="n">
-        <v>43706</v>
+      <c r="C510" t="inlineStr">
+        <is>
+          <t>2019-08-29</t>
+        </is>
       </c>
       <c r="D510" t="n">
         <v>2019</v>
@@ -47565,8 +48579,10 @@
       <c r="B511" t="n">
         <v>1</v>
       </c>
-      <c r="C511" s="2" t="n">
-        <v>43707</v>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>2019-08-30</t>
+        </is>
       </c>
       <c r="D511" t="n">
         <v>2019</v>
@@ -47658,8 +48674,10 @@
       <c r="B512" t="n">
         <v>1</v>
       </c>
-      <c r="C512" s="2" t="n">
-        <v>43713</v>
+      <c r="C512" t="inlineStr">
+        <is>
+          <t>2019-09-05</t>
+        </is>
       </c>
       <c r="D512" t="n">
         <v>2019</v>
@@ -47747,8 +48765,10 @@
       <c r="B513" t="n">
         <v>1</v>
       </c>
-      <c r="C513" s="2" t="n">
-        <v>43716</v>
+      <c r="C513" t="inlineStr">
+        <is>
+          <t>2019-09-08</t>
+        </is>
       </c>
       <c r="D513" t="n">
         <v>2019</v>
@@ -47840,8 +48860,10 @@
       <c r="B514" t="n">
         <v>1</v>
       </c>
-      <c r="C514" s="2" t="n">
-        <v>43720</v>
+      <c r="C514" t="inlineStr">
+        <is>
+          <t>2019-09-12</t>
+        </is>
       </c>
       <c r="D514" t="n">
         <v>2019</v>
@@ -47933,8 +48955,10 @@
       <c r="B515" t="n">
         <v>1</v>
       </c>
-      <c r="C515" s="2" t="n">
-        <v>43725</v>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>2019-09-17</t>
+        </is>
       </c>
       <c r="D515" t="n">
         <v>2019</v>
@@ -48026,8 +49050,10 @@
       <c r="B516" t="n">
         <v>1</v>
       </c>
-      <c r="C516" s="2" t="n">
-        <v>43725</v>
+      <c r="C516" t="inlineStr">
+        <is>
+          <t>2019-09-17</t>
+        </is>
       </c>
       <c r="D516" t="n">
         <v>2019</v>
@@ -48119,8 +49145,10 @@
       <c r="B517" t="n">
         <v>1</v>
       </c>
-      <c r="C517" s="2" t="n">
-        <v>43731</v>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t>2019-09-23</t>
+        </is>
       </c>
       <c r="D517" t="n">
         <v>2019</v>
@@ -48210,8 +49238,10 @@
       <c r="B518" t="n">
         <v>1</v>
       </c>
-      <c r="C518" s="2" t="n">
-        <v>43733</v>
+      <c r="C518" t="inlineStr">
+        <is>
+          <t>2019-09-25</t>
+        </is>
       </c>
       <c r="D518" t="n">
         <v>2019</v>
@@ -48301,8 +49331,10 @@
       <c r="B519" t="n">
         <v>1</v>
       </c>
-      <c r="C519" s="2" t="n">
-        <v>43734</v>
+      <c r="C519" t="inlineStr">
+        <is>
+          <t>2019-09-26</t>
+        </is>
       </c>
       <c r="D519" t="n">
         <v>2019</v>
@@ -48394,8 +49426,10 @@
       <c r="B520" t="n">
         <v>1</v>
       </c>
-      <c r="C520" s="2" t="n">
-        <v>43735</v>
+      <c r="C520" t="inlineStr">
+        <is>
+          <t>2019-09-27</t>
+        </is>
       </c>
       <c r="D520" t="n">
         <v>2019</v>
@@ -48487,8 +49521,10 @@
       <c r="B521" t="n">
         <v>1</v>
       </c>
-      <c r="C521" s="2" t="n">
-        <v>43747</v>
+      <c r="C521" t="inlineStr">
+        <is>
+          <t>2019-10-09</t>
+        </is>
       </c>
       <c r="D521" t="n">
         <v>2019</v>
@@ -48580,8 +49616,10 @@
       <c r="B522" t="n">
         <v>1</v>
       </c>
-      <c r="C522" s="2" t="n">
-        <v>43753</v>
+      <c r="C522" t="inlineStr">
+        <is>
+          <t>2019-10-15</t>
+        </is>
       </c>
       <c r="D522" t="n">
         <v>2019</v>
@@ -48671,8 +49709,10 @@
       <c r="B523" t="n">
         <v>1</v>
       </c>
-      <c r="C523" s="2" t="n">
-        <v>43759</v>
+      <c r="C523" t="inlineStr">
+        <is>
+          <t>2019-10-21</t>
+        </is>
       </c>
       <c r="D523" t="n">
         <v>2019</v>
@@ -48764,8 +49804,10 @@
       <c r="B524" t="n">
         <v>1</v>
       </c>
-      <c r="C524" s="2" t="n">
-        <v>43760</v>
+      <c r="C524" t="inlineStr">
+        <is>
+          <t>2019-10-22</t>
+        </is>
       </c>
       <c r="D524" t="n">
         <v>2019</v>
@@ -48857,8 +49899,10 @@
       <c r="B525" t="n">
         <v>1</v>
       </c>
-      <c r="C525" s="2" t="n">
-        <v>43761</v>
+      <c r="C525" t="inlineStr">
+        <is>
+          <t>2019-10-23</t>
+        </is>
       </c>
       <c r="D525" t="n">
         <v>2019</v>
@@ -48950,8 +49994,10 @@
       <c r="B526" t="n">
         <v>1</v>
       </c>
-      <c r="C526" s="2" t="n">
-        <v>43762</v>
+      <c r="C526" t="inlineStr">
+        <is>
+          <t>2019-10-24</t>
+        </is>
       </c>
       <c r="D526" t="n">
         <v>2019</v>
@@ -49041,8 +50087,10 @@
       <c r="B527" t="n">
         <v>1</v>
       </c>
-      <c r="C527" s="2" t="n">
-        <v>43770</v>
+      <c r="C527" t="inlineStr">
+        <is>
+          <t>2019-11-01</t>
+        </is>
       </c>
       <c r="D527" t="n">
         <v>2019</v>
@@ -49134,8 +50182,10 @@
       <c r="B528" t="n">
         <v>1</v>
       </c>
-      <c r="C528" s="2" t="n">
-        <v>43772</v>
+      <c r="C528" t="inlineStr">
+        <is>
+          <t>2019-11-03</t>
+        </is>
       </c>
       <c r="D528" t="n">
         <v>2019</v>
@@ -49227,8 +50277,10 @@
       <c r="B529" t="n">
         <v>1</v>
       </c>
-      <c r="C529" s="2" t="n">
-        <v>43782</v>
+      <c r="C529" t="inlineStr">
+        <is>
+          <t>2019-11-13</t>
+        </is>
       </c>
       <c r="D529" t="n">
         <v>2019</v>
@@ -49320,8 +50372,10 @@
       <c r="B530" t="n">
         <v>1</v>
       </c>
-      <c r="C530" s="2" t="n">
-        <v>43787</v>
+      <c r="C530" t="inlineStr">
+        <is>
+          <t>2019-11-18</t>
+        </is>
       </c>
       <c r="D530" t="n">
         <v>2019</v>
@@ -49413,8 +50467,10 @@
       <c r="B531" t="n">
         <v>1</v>
       </c>
-      <c r="C531" s="2" t="n">
-        <v>43789</v>
+      <c r="C531" t="inlineStr">
+        <is>
+          <t>2019-11-20</t>
+        </is>
       </c>
       <c r="D531" t="n">
         <v>2019</v>
@@ -49502,8 +50558,10 @@
       <c r="B532" t="n">
         <v>1</v>
       </c>
-      <c r="C532" s="2" t="n">
-        <v>43791</v>
+      <c r="C532" t="inlineStr">
+        <is>
+          <t>2019-11-22</t>
+        </is>
       </c>
       <c r="D532" t="n">
         <v>2019</v>
@@ -49595,8 +50653,10 @@
       <c r="B533" t="n">
         <v>1</v>
       </c>
-      <c r="C533" s="2" t="n">
-        <v>43794</v>
+      <c r="C533" t="inlineStr">
+        <is>
+          <t>2019-11-25</t>
+        </is>
       </c>
       <c r="D533" t="n">
         <v>2019</v>
@@ -49684,8 +50744,10 @@
       <c r="B534" t="n">
         <v>1</v>
       </c>
-      <c r="C534" s="2" t="n">
-        <v>43794</v>
+      <c r="C534" t="inlineStr">
+        <is>
+          <t>2019-11-25</t>
+        </is>
       </c>
       <c r="D534" t="n">
         <v>2019</v>
@@ -49775,8 +50837,10 @@
       <c r="B535" t="n">
         <v>1</v>
       </c>
-      <c r="C535" s="2" t="n">
-        <v>43804</v>
+      <c r="C535" t="inlineStr">
+        <is>
+          <t>2019-12-05</t>
+        </is>
       </c>
       <c r="D535" t="n">
         <v>2019</v>
@@ -49866,8 +50930,10 @@
       <c r="B536" t="n">
         <v>1</v>
       </c>
-      <c r="C536" s="2" t="n">
-        <v>43816</v>
+      <c r="C536" t="inlineStr">
+        <is>
+          <t>2019-12-17</t>
+        </is>
       </c>
       <c r="D536" t="n">
         <v>2019</v>
@@ -49959,8 +51025,10 @@
       <c r="B537" t="n">
         <v>1</v>
       </c>
-      <c r="C537" s="2" t="n">
-        <v>43816</v>
+      <c r="C537" t="inlineStr">
+        <is>
+          <t>2019-12-17</t>
+        </is>
       </c>
       <c r="D537" t="n">
         <v>2019</v>
@@ -50052,8 +51120,10 @@
       <c r="B538" t="n">
         <v>1</v>
       </c>
-      <c r="C538" s="2" t="n">
-        <v>43817</v>
+      <c r="C538" t="inlineStr">
+        <is>
+          <t>2019-12-18</t>
+        </is>
       </c>
       <c r="D538" t="n">
         <v>2019</v>
@@ -50141,8 +51211,10 @@
       <c r="B539" t="n">
         <v>1</v>
       </c>
-      <c r="C539" s="2" t="n">
-        <v>43820</v>
+      <c r="C539" t="inlineStr">
+        <is>
+          <t>2019-12-21</t>
+        </is>
       </c>
       <c r="D539" t="n">
         <v>2019</v>
@@ -50234,8 +51306,10 @@
       <c r="B540" t="n">
         <v>1</v>
       </c>
-      <c r="C540" s="2" t="n">
-        <v>43590</v>
+      <c r="C540" t="inlineStr">
+        <is>
+          <t>2019-05-05</t>
+        </is>
       </c>
       <c r="D540" t="n">
         <v>2019</v>
@@ -50327,8 +51401,10 @@
       <c r="B541" t="n">
         <v>1</v>
       </c>
-      <c r="C541" s="2" t="n">
-        <v>43834</v>
+      <c r="C541" t="inlineStr">
+        <is>
+          <t>2020-01-04</t>
+        </is>
       </c>
       <c r="D541" t="n">
         <v>2020</v>
@@ -50420,8 +51496,10 @@
       <c r="B542" t="n">
         <v>1</v>
       </c>
-      <c r="C542" s="2" t="n">
-        <v>43835</v>
+      <c r="C542" t="inlineStr">
+        <is>
+          <t>2020-01-05</t>
+        </is>
       </c>
       <c r="D542" t="n">
         <v>2020</v>
@@ -50513,8 +51591,10 @@
       <c r="B543" t="n">
         <v>1</v>
       </c>
-      <c r="C543" s="2" t="n">
-        <v>43841</v>
+      <c r="C543" t="inlineStr">
+        <is>
+          <t>2020-01-11</t>
+        </is>
       </c>
       <c r="D543" t="n">
         <v>2020</v>
@@ -50606,8 +51686,10 @@
       <c r="B544" t="n">
         <v>1</v>
       </c>
-      <c r="C544" s="2" t="n">
-        <v>43844</v>
+      <c r="C544" t="inlineStr">
+        <is>
+          <t>2020-01-14</t>
+        </is>
       </c>
       <c r="D544" t="n">
         <v>2020</v>
@@ -50699,8 +51781,10 @@
       <c r="B545" t="n">
         <v>1</v>
       </c>
-      <c r="C545" s="2" t="n">
-        <v>43844</v>
+      <c r="C545" t="inlineStr">
+        <is>
+          <t>2020-01-14</t>
+        </is>
       </c>
       <c r="D545" t="n">
         <v>2020</v>
@@ -50792,8 +51876,10 @@
       <c r="B546" t="n">
         <v>1</v>
       </c>
-      <c r="C546" s="2" t="n">
-        <v>43850</v>
+      <c r="C546" t="inlineStr">
+        <is>
+          <t>2020-01-20</t>
+        </is>
       </c>
       <c r="D546" t="n">
         <v>2020</v>
@@ -50883,8 +51969,10 @@
       <c r="B547" t="n">
         <v>1</v>
       </c>
-      <c r="C547" s="2" t="n">
-        <v>43857</v>
+      <c r="C547" t="inlineStr">
+        <is>
+          <t>2020-01-27</t>
+        </is>
       </c>
       <c r="D547" t="n">
         <v>2020</v>
@@ -50976,8 +52064,10 @@
       <c r="B548" t="n">
         <v>1</v>
       </c>
-      <c r="C548" s="2" t="n">
-        <v>43860</v>
+      <c r="C548" t="inlineStr">
+        <is>
+          <t>2020-01-30</t>
+        </is>
       </c>
       <c r="D548" t="n">
         <v>2020</v>
@@ -51069,8 +52159,10 @@
       <c r="B549" t="n">
         <v>1</v>
       </c>
-      <c r="C549" s="2" t="n">
-        <v>43865</v>
+      <c r="C549" t="inlineStr">
+        <is>
+          <t>2020-02-04</t>
+        </is>
       </c>
       <c r="D549" t="n">
         <v>2020</v>
@@ -51162,8 +52254,10 @@
       <c r="B550" t="n">
         <v>1</v>
       </c>
-      <c r="C550" s="2" t="n">
-        <v>43869</v>
+      <c r="C550" t="inlineStr">
+        <is>
+          <t>2020-02-08</t>
+        </is>
       </c>
       <c r="D550" t="n">
         <v>2020</v>
@@ -51255,8 +52349,10 @@
       <c r="B551" t="n">
         <v>1</v>
       </c>
-      <c r="C551" s="2" t="n">
-        <v>43873</v>
+      <c r="C551" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
       </c>
       <c r="D551" t="n">
         <v>2020</v>
@@ -51346,8 +52442,10 @@
       <c r="B552" t="n">
         <v>1</v>
       </c>
-      <c r="C552" s="2" t="n">
-        <v>43879</v>
+      <c r="C552" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
       </c>
       <c r="D552" t="n">
         <v>2020</v>
@@ -51437,8 +52535,10 @@
       <c r="B553" t="n">
         <v>1</v>
       </c>
-      <c r="C553" s="2" t="n">
-        <v>43881</v>
+      <c r="C553" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
       </c>
       <c r="D553" t="n">
         <v>2020</v>
@@ -51530,8 +52630,10 @@
       <c r="B554" t="n">
         <v>1</v>
       </c>
-      <c r="C554" s="2" t="n">
-        <v>43888</v>
+      <c r="C554" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
       </c>
       <c r="D554" t="n">
         <v>2020</v>
@@ -51623,8 +52725,10 @@
       <c r="B555" t="n">
         <v>1</v>
       </c>
-      <c r="C555" s="2" t="n">
-        <v>43889</v>
+      <c r="C555" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
       </c>
       <c r="D555" t="n">
         <v>2020</v>
@@ -51716,8 +52820,10 @@
       <c r="B556" t="n">
         <v>1</v>
       </c>
-      <c r="C556" s="2" t="n">
-        <v>43890</v>
+      <c r="C556" t="inlineStr">
+        <is>
+          <t>2020-02-29</t>
+        </is>
       </c>
       <c r="D556" t="n">
         <v>2020</v>
@@ -51807,8 +52913,10 @@
       <c r="B557" t="n">
         <v>1</v>
       </c>
-      <c r="C557" s="2" t="n">
-        <v>43895</v>
+      <c r="C557" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
       </c>
       <c r="D557" t="n">
         <v>2020</v>
@@ -51900,8 +53008,10 @@
       <c r="B558" t="n">
         <v>1</v>
       </c>
-      <c r="C558" s="2" t="n">
-        <v>43899</v>
+      <c r="C558" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
       </c>
       <c r="D558" t="n">
         <v>2020</v>
@@ -51991,8 +53101,10 @@
       <c r="B559" t="n">
         <v>1</v>
       </c>
-      <c r="C559" s="2" t="n">
-        <v>43900</v>
+      <c r="C559" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
       </c>
       <c r="D559" t="n">
         <v>2020</v>
@@ -52084,8 +53196,10 @@
       <c r="B560" t="n">
         <v>1</v>
       </c>
-      <c r="C560" s="2" t="n">
-        <v>43903</v>
+      <c r="C560" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
       </c>
       <c r="D560" t="n">
         <v>2020</v>
@@ -52177,8 +53291,10 @@
       <c r="B561" t="n">
         <v>1</v>
       </c>
-      <c r="C561" s="2" t="n">
-        <v>43904</v>
+      <c r="C561" t="inlineStr">
+        <is>
+          <t>2020-03-14</t>
+        </is>
       </c>
       <c r="D561" t="n">
         <v>2020</v>
@@ -52268,8 +53384,10 @@
       <c r="B562" t="n">
         <v>1</v>
       </c>
-      <c r="C562" s="2" t="n">
-        <v>43928</v>
+      <c r="C562" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
       </c>
       <c r="D562" t="n">
         <v>2020</v>
@@ -52361,8 +53479,10 @@
       <c r="B563" t="n">
         <v>1</v>
       </c>
-      <c r="C563" s="2" t="n">
-        <v>43930</v>
+      <c r="C563" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
       </c>
       <c r="D563" t="n">
         <v>2020</v>
@@ -52454,8 +53574,10 @@
       <c r="B564" t="n">
         <v>1</v>
       </c>
-      <c r="C564" s="2" t="n">
-        <v>43945</v>
+      <c r="C564" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
       </c>
       <c r="D564" t="n">
         <v>2020</v>
@@ -52545,8 +53667,10 @@
       <c r="B565" t="n">
         <v>1</v>
       </c>
-      <c r="C565" s="2" t="n">
-        <v>43963</v>
+      <c r="C565" t="inlineStr">
+        <is>
+          <t>2020-05-12</t>
+        </is>
       </c>
       <c r="D565" t="n">
         <v>2020</v>
@@ -52636,8 +53760,10 @@
       <c r="B566" t="n">
         <v>1</v>
       </c>
-      <c r="C566" s="2" t="n">
-        <v>43968</v>
+      <c r="C566" t="inlineStr">
+        <is>
+          <t>2020-05-17</t>
+        </is>
       </c>
       <c r="D566" t="n">
         <v>2020</v>
@@ -52721,8 +53847,10 @@
       <c r="B567" t="n">
         <v>1</v>
       </c>
-      <c r="C567" s="2" t="n">
-        <v>43969</v>
+      <c r="C567" t="inlineStr">
+        <is>
+          <t>2020-05-18</t>
+        </is>
       </c>
       <c r="D567" t="n">
         <v>2020</v>
@@ -52814,8 +53942,10 @@
       <c r="B568" t="n">
         <v>1</v>
       </c>
-      <c r="C568" s="2" t="n">
-        <v>43970</v>
+      <c r="C568" t="inlineStr">
+        <is>
+          <t>2020-05-19</t>
+        </is>
       </c>
       <c r="D568" t="n">
         <v>2020</v>
@@ -52907,8 +54037,10 @@
       <c r="B569" t="n">
         <v>1</v>
       </c>
-      <c r="C569" s="2" t="n">
-        <v>43992</v>
+      <c r="C569" t="inlineStr">
+        <is>
+          <t>2020-06-10</t>
+        </is>
       </c>
       <c r="D569" t="n">
         <v>2020</v>
@@ -53000,8 +54132,10 @@
       <c r="B570" t="n">
         <v>1</v>
       </c>
-      <c r="C570" s="2" t="n">
-        <v>43998</v>
+      <c r="C570" t="inlineStr">
+        <is>
+          <t>2020-06-16</t>
+        </is>
       </c>
       <c r="D570" t="n">
         <v>2020</v>
@@ -53091,8 +54225,10 @@
       <c r="B571" t="n">
         <v>1</v>
       </c>
-      <c r="C571" s="2" t="n">
-        <v>44012</v>
+      <c r="C571" t="inlineStr">
+        <is>
+          <t>2020-06-30</t>
+        </is>
       </c>
       <c r="D571" t="n">
         <v>2020</v>
@@ -53184,8 +54320,10 @@
       <c r="B572" t="n">
         <v>1</v>
       </c>
-      <c r="C572" s="2" t="n">
-        <v>44022</v>
+      <c r="C572" t="inlineStr">
+        <is>
+          <t>2020-07-10</t>
+        </is>
       </c>
       <c r="D572" t="n">
         <v>2020</v>
@@ -53277,8 +54415,10 @@
       <c r="B573" t="n">
         <v>1</v>
       </c>
-      <c r="C573" s="2" t="n">
-        <v>44031</v>
+      <c r="C573" t="inlineStr">
+        <is>
+          <t>2020-07-19</t>
+        </is>
       </c>
       <c r="D573" t="n">
         <v>2020</v>
@@ -53370,8 +54510,10 @@
       <c r="B574" t="n">
         <v>1</v>
       </c>
-      <c r="C574" s="2" t="n">
-        <v>44045</v>
+      <c r="C574" t="inlineStr">
+        <is>
+          <t>2020-08-02</t>
+        </is>
       </c>
       <c r="D574" t="n">
         <v>2020</v>
@@ -53463,8 +54605,10 @@
       <c r="B575" t="n">
         <v>1</v>
       </c>
-      <c r="C575" s="2" t="n">
-        <v>44047</v>
+      <c r="C575" t="inlineStr">
+        <is>
+          <t>2020-08-04</t>
+        </is>
       </c>
       <c r="D575" t="n">
         <v>2020</v>
@@ -53552,8 +54696,10 @@
       <c r="B576" t="n">
         <v>1</v>
       </c>
-      <c r="C576" s="2" t="n">
-        <v>44050</v>
+      <c r="C576" t="inlineStr">
+        <is>
+          <t>2020-08-07</t>
+        </is>
       </c>
       <c r="D576" t="n">
         <v>2020</v>
@@ -53645,8 +54791,10 @@
       <c r="B577" t="n">
         <v>1</v>
       </c>
-      <c r="C577" s="2" t="n">
-        <v>44072</v>
+      <c r="C577" t="inlineStr">
+        <is>
+          <t>2020-08-29</t>
+        </is>
       </c>
       <c r="D577" t="n">
         <v>2020</v>
@@ -53738,8 +54886,10 @@
       <c r="B578" t="n">
         <v>2</v>
       </c>
-      <c r="C578" s="2" t="n">
-        <v>44073</v>
+      <c r="C578" t="inlineStr">
+        <is>
+          <t>2020-08-30</t>
+        </is>
       </c>
       <c r="D578" t="n">
         <v>2020</v>
@@ -53831,8 +54981,10 @@
       <c r="B579" t="n">
         <v>2</v>
       </c>
-      <c r="C579" s="2" t="n">
-        <v>44073</v>
+      <c r="C579" t="inlineStr">
+        <is>
+          <t>2020-08-30</t>
+        </is>
       </c>
       <c r="D579" t="n">
         <v>2020</v>
@@ -53924,8 +55076,10 @@
       <c r="B580" t="n">
         <v>1</v>
       </c>
-      <c r="C580" s="2" t="n">
-        <v>44075</v>
+      <c r="C580" t="inlineStr">
+        <is>
+          <t>2020-09-01</t>
+        </is>
       </c>
       <c r="D580" t="n">
         <v>2020</v>
@@ -54009,8 +55163,10 @@
       <c r="B581" t="n">
         <v>1</v>
       </c>
-      <c r="C581" s="2" t="n">
-        <v>44086</v>
+      <c r="C581" t="inlineStr">
+        <is>
+          <t>2020-09-12</t>
+        </is>
       </c>
       <c r="D581" t="n">
         <v>2020</v>
@@ -54102,8 +55258,10 @@
       <c r="B582" t="n">
         <v>1</v>
       </c>
-      <c r="C582" s="2" t="n">
-        <v>44102</v>
+      <c r="C582" t="inlineStr">
+        <is>
+          <t>2020-09-28</t>
+        </is>
       </c>
       <c r="D582" t="n">
         <v>2020</v>
@@ -54195,8 +55353,10 @@
       <c r="B583" t="n">
         <v>1</v>
       </c>
-      <c r="C583" s="2" t="n">
-        <v>44103</v>
+      <c r="C583" t="inlineStr">
+        <is>
+          <t>2020-09-29</t>
+        </is>
       </c>
       <c r="D583" t="n">
         <v>2020</v>
@@ -54288,8 +55448,10 @@
       <c r="B584" t="n">
         <v>1</v>
       </c>
-      <c r="C584" s="2" t="n">
-        <v>44104</v>
+      <c r="C584" t="inlineStr">
+        <is>
+          <t>2020-09-30</t>
+        </is>
       </c>
       <c r="D584" t="n">
         <v>2020</v>
@@ -54381,8 +55543,10 @@
       <c r="B585" t="n">
         <v>1</v>
       </c>
-      <c r="C585" s="2" t="n">
-        <v>44109</v>
+      <c r="C585" t="inlineStr">
+        <is>
+          <t>2020-10-05</t>
+        </is>
       </c>
       <c r="D585" t="n">
         <v>2020</v>
@@ -54474,8 +55638,10 @@
       <c r="B586" t="n">
         <v>1</v>
       </c>
-      <c r="C586" s="2" t="n">
-        <v>44123</v>
+      <c r="C586" t="inlineStr">
+        <is>
+          <t>2020-10-19</t>
+        </is>
       </c>
       <c r="D586" t="n">
         <v>2020</v>
@@ -54567,8 +55733,10 @@
       <c r="B587" t="n">
         <v>1</v>
       </c>
-      <c r="C587" s="2" t="n">
-        <v>44131</v>
+      <c r="C587" t="inlineStr">
+        <is>
+          <t>2020-10-27</t>
+        </is>
       </c>
       <c r="D587" t="n">
         <v>2020</v>
@@ -54660,8 +55828,10 @@
       <c r="B588" t="n">
         <v>1</v>
       </c>
-      <c r="C588" s="2" t="n">
-        <v>44131</v>
+      <c r="C588" t="inlineStr">
+        <is>
+          <t>2020-10-27</t>
+        </is>
       </c>
       <c r="D588" t="n">
         <v>2020</v>
@@ -54753,8 +55923,10 @@
       <c r="B589" t="n">
         <v>1</v>
       </c>
-      <c r="C589" s="2" t="n">
-        <v>44133</v>
+      <c r="C589" t="inlineStr">
+        <is>
+          <t>2020-10-29</t>
+        </is>
       </c>
       <c r="D589" t="n">
         <v>2020</v>
@@ -54844,8 +56016,10 @@
       <c r="B590" t="n">
         <v>1</v>
       </c>
-      <c r="C590" s="2" t="n">
-        <v>44134</v>
+      <c r="C590" t="inlineStr">
+        <is>
+          <t>2020-10-30</t>
+        </is>
       </c>
       <c r="D590" t="n">
         <v>2020</v>
@@ -54937,8 +56111,10 @@
       <c r="B591" t="n">
         <v>1</v>
       </c>
-      <c r="C591" s="2" t="n">
-        <v>44136</v>
+      <c r="C591" t="inlineStr">
+        <is>
+          <t>2020-11-01</t>
+        </is>
       </c>
       <c r="D591" t="n">
         <v>2020</v>
@@ -55030,8 +56206,10 @@
       <c r="B592" t="n">
         <v>1</v>
       </c>
-      <c r="C592" s="2" t="n">
-        <v>44140</v>
+      <c r="C592" t="inlineStr">
+        <is>
+          <t>2020-11-05</t>
+        </is>
       </c>
       <c r="D592" t="n">
         <v>2020</v>
@@ -55123,8 +56301,10 @@
       <c r="B593" t="n">
         <v>1</v>
       </c>
-      <c r="C593" s="2" t="n">
-        <v>44142</v>
+      <c r="C593" t="inlineStr">
+        <is>
+          <t>2020-11-07</t>
+        </is>
       </c>
       <c r="D593" t="n">
         <v>2020</v>
@@ -55216,8 +56396,10 @@
       <c r="B594" t="n">
         <v>1</v>
       </c>
-      <c r="C594" s="2" t="n">
-        <v>44144</v>
+      <c r="C594" t="inlineStr">
+        <is>
+          <t>2020-11-09</t>
+        </is>
       </c>
       <c r="D594" t="n">
         <v>2020</v>
@@ -55309,8 +56491,10 @@
       <c r="B595" t="n">
         <v>1</v>
       </c>
-      <c r="C595" s="2" t="n">
-        <v>44154</v>
+      <c r="C595" t="inlineStr">
+        <is>
+          <t>2020-11-19</t>
+        </is>
       </c>
       <c r="D595" t="n">
         <v>2020</v>
@@ -55402,8 +56586,10 @@
       <c r="B596" t="n">
         <v>1</v>
       </c>
-      <c r="C596" s="2" t="n">
-        <v>44154</v>
+      <c r="C596" t="inlineStr">
+        <is>
+          <t>2020-11-19</t>
+        </is>
       </c>
       <c r="D596" t="n">
         <v>2020</v>
@@ -55493,8 +56679,10 @@
       <c r="B597" t="n">
         <v>1</v>
       </c>
-      <c r="C597" s="2" t="n">
-        <v>44156</v>
+      <c r="C597" t="inlineStr">
+        <is>
+          <t>2020-11-21</t>
+        </is>
       </c>
       <c r="D597" t="n">
         <v>2020</v>
@@ -55586,8 +56774,10 @@
       <c r="B598" t="n">
         <v>1</v>
       </c>
-      <c r="C598" s="2" t="n">
-        <v>44158</v>
+      <c r="C598" t="inlineStr">
+        <is>
+          <t>2020-11-23</t>
+        </is>
       </c>
       <c r="D598" t="n">
         <v>2020</v>
@@ -55679,8 +56869,10 @@
       <c r="B599" t="n">
         <v>1</v>
       </c>
-      <c r="C599" s="2" t="n">
-        <v>44159</v>
+      <c r="C599" t="inlineStr">
+        <is>
+          <t>2020-11-24</t>
+        </is>
       </c>
       <c r="D599" t="n">
         <v>2020</v>
@@ -55772,8 +56964,10 @@
       <c r="B600" t="n">
         <v>1</v>
       </c>
-      <c r="C600" s="2" t="n">
-        <v>44166</v>
+      <c r="C600" t="inlineStr">
+        <is>
+          <t>2020-12-01</t>
+        </is>
       </c>
       <c r="D600" t="n">
         <v>2020</v>
@@ -55863,8 +57057,10 @@
       <c r="B601" t="n">
         <v>1</v>
       </c>
-      <c r="C601" s="2" t="n">
-        <v>44168</v>
+      <c r="C601" t="inlineStr">
+        <is>
+          <t>2020-12-03</t>
+        </is>
       </c>
       <c r="D601" t="n">
         <v>2020</v>
@@ -55956,8 +57152,10 @@
       <c r="B602" t="n">
         <v>1</v>
       </c>
-      <c r="C602" s="2" t="n">
-        <v>44168</v>
+      <c r="C602" t="inlineStr">
+        <is>
+          <t>2020-12-03</t>
+        </is>
       </c>
       <c r="D602" t="n">
         <v>2020</v>
@@ -56049,8 +57247,10 @@
       <c r="B603" t="n">
         <v>1</v>
       </c>
-      <c r="C603" s="2" t="n">
-        <v>44169</v>
+      <c r="C603" t="inlineStr">
+        <is>
+          <t>2020-12-04</t>
+        </is>
       </c>
       <c r="D603" t="n">
         <v>2020</v>
@@ -56140,8 +57340,10 @@
       <c r="B604" t="n">
         <v>2</v>
       </c>
-      <c r="C604" s="2" t="n">
-        <v>44170</v>
+      <c r="C604" t="inlineStr">
+        <is>
+          <t>2020-12-05</t>
+        </is>
       </c>
       <c r="D604" t="n">
         <v>2020</v>
@@ -56233,8 +57435,10 @@
       <c r="B605" t="n">
         <v>2</v>
       </c>
-      <c r="C605" s="2" t="n">
-        <v>44170</v>
+      <c r="C605" t="inlineStr">
+        <is>
+          <t>2020-12-05</t>
+        </is>
       </c>
       <c r="D605" t="n">
         <v>2020</v>
@@ -56326,8 +57530,10 @@
       <c r="B606" t="n">
         <v>1</v>
       </c>
-      <c r="C606" s="2" t="n">
-        <v>44170</v>
+      <c r="C606" t="inlineStr">
+        <is>
+          <t>2020-12-05</t>
+        </is>
       </c>
       <c r="D606" t="n">
         <v>2020</v>
@@ -56419,8 +57625,10 @@
       <c r="B607" t="n">
         <v>1</v>
       </c>
-      <c r="C607" s="2" t="n">
-        <v>44172</v>
+      <c r="C607" t="inlineStr">
+        <is>
+          <t>2020-12-07</t>
+        </is>
       </c>
       <c r="D607" t="n">
         <v>2020</v>
@@ -56508,8 +57716,10 @@
       <c r="B608" t="n">
         <v>1</v>
       </c>
-      <c r="C608" s="2" t="n">
-        <v>44176</v>
+      <c r="C608" t="inlineStr">
+        <is>
+          <t>2020-12-11</t>
+        </is>
       </c>
       <c r="D608" t="n">
         <v>2020</v>
@@ -56601,8 +57811,10 @@
       <c r="B609" t="n">
         <v>1</v>
       </c>
-      <c r="C609" s="2" t="n">
-        <v>44177</v>
+      <c r="C609" t="inlineStr">
+        <is>
+          <t>2020-12-12</t>
+        </is>
       </c>
       <c r="D609" t="n">
         <v>2020</v>
@@ -56694,8 +57906,10 @@
       <c r="B610" t="n">
         <v>1</v>
       </c>
-      <c r="C610" s="2" t="n">
-        <v>44180</v>
+      <c r="C610" t="inlineStr">
+        <is>
+          <t>2020-12-15</t>
+        </is>
       </c>
       <c r="D610" t="n">
         <v>2020</v>
@@ -56787,8 +58001,10 @@
       <c r="B611" t="n">
         <v>1</v>
       </c>
-      <c r="C611" s="2" t="n">
-        <v>44182</v>
+      <c r="C611" t="inlineStr">
+        <is>
+          <t>2020-12-17</t>
+        </is>
       </c>
       <c r="D611" t="n">
         <v>2020</v>
@@ -56880,8 +58096,10 @@
       <c r="B612" t="n">
         <v>1</v>
       </c>
-      <c r="C612" s="2" t="n">
-        <v>44182</v>
+      <c r="C612" t="inlineStr">
+        <is>
+          <t>2020-12-17</t>
+        </is>
       </c>
       <c r="D612" t="n">
         <v>2020</v>
@@ -56973,8 +58191,10 @@
       <c r="B613" t="n">
         <v>1</v>
       </c>
-      <c r="C613" s="2" t="n">
-        <v>44184</v>
+      <c r="C613" t="inlineStr">
+        <is>
+          <t>2020-12-19</t>
+        </is>
       </c>
       <c r="D613" t="n">
         <v>2020</v>
@@ -57066,8 +58286,10 @@
       <c r="B614" t="n">
         <v>1</v>
       </c>
-      <c r="C614" s="2" t="n">
-        <v>44185</v>
+      <c r="C614" t="inlineStr">
+        <is>
+          <t>2020-12-20</t>
+        </is>
       </c>
       <c r="D614" t="n">
         <v>2020</v>
@@ -57159,8 +58381,10 @@
       <c r="B615" t="n">
         <v>1</v>
       </c>
-      <c r="C615" s="2" t="n">
-        <v>44185</v>
+      <c r="C615" t="inlineStr">
+        <is>
+          <t>2020-12-20</t>
+        </is>
       </c>
       <c r="D615" t="n">
         <v>2020</v>
@@ -57252,8 +58476,10 @@
       <c r="B616" t="n">
         <v>1</v>
       </c>
-      <c r="C616" s="2" t="n">
-        <v>44188</v>
+      <c r="C616" t="inlineStr">
+        <is>
+          <t>2020-12-23</t>
+        </is>
       </c>
       <c r="D616" t="n">
         <v>2020</v>
@@ -57345,8 +58571,10 @@
       <c r="B617" t="n">
         <v>1</v>
       </c>
-      <c r="C617" s="2" t="n">
-        <v>44189</v>
+      <c r="C617" t="inlineStr">
+        <is>
+          <t>2020-12-24</t>
+        </is>
       </c>
       <c r="D617" t="n">
         <v>2020</v>
@@ -57438,8 +58666,10 @@
       <c r="B618" t="n">
         <v>2</v>
       </c>
-      <c r="C618" s="2" t="n">
-        <v>44190</v>
+      <c r="C618" t="inlineStr">
+        <is>
+          <t>2020-12-25</t>
+        </is>
       </c>
       <c r="D618" t="n">
         <v>2020</v>
@@ -57531,8 +58761,10 @@
       <c r="B619" t="n">
         <v>2</v>
       </c>
-      <c r="C619" s="2" t="n">
-        <v>44190</v>
+      <c r="C619" t="inlineStr">
+        <is>
+          <t>2020-12-25</t>
+        </is>
       </c>
       <c r="D619" t="n">
         <v>2020</v>
@@ -57624,8 +58856,10 @@
       <c r="B620" t="n">
         <v>1</v>
       </c>
-      <c r="C620" s="2" t="n">
-        <v>44190</v>
+      <c r="C620" t="inlineStr">
+        <is>
+          <t>2020-12-25</t>
+        </is>
       </c>
       <c r="D620" t="n">
         <v>2020</v>
@@ -57715,8 +58949,10 @@
       <c r="B621" t="n">
         <v>1</v>
       </c>
-      <c r="C621" s="2" t="n">
-        <v>44192</v>
+      <c r="C621" t="inlineStr">
+        <is>
+          <t>2020-12-27</t>
+        </is>
       </c>
       <c r="D621" t="n">
         <v>2020</v>
@@ -57808,8 +59044,10 @@
       <c r="B622" t="n">
         <v>1</v>
       </c>
-      <c r="C622" s="2" t="n">
-        <v>44202</v>
+      <c r="C622" t="inlineStr">
+        <is>
+          <t>2021-01-06</t>
+        </is>
       </c>
       <c r="D622" t="n">
         <v>2021</v>
@@ -57897,8 +59135,10 @@
       <c r="B623" t="n">
         <v>1</v>
       </c>
-      <c r="C623" s="2" t="n">
-        <v>44203</v>
+      <c r="C623" t="inlineStr">
+        <is>
+          <t>2021-01-07</t>
+        </is>
       </c>
       <c r="D623" t="n">
         <v>2021</v>
@@ -57990,8 +59230,10 @@
       <c r="B624" t="n">
         <v>1</v>
       </c>
-      <c r="C624" s="2" t="n">
-        <v>44206</v>
+      <c r="C624" t="inlineStr">
+        <is>
+          <t>2021-01-10</t>
+        </is>
       </c>
       <c r="D624" t="n">
         <v>2021</v>
@@ -58079,8 +59321,10 @@
       <c r="B625" t="n">
         <v>1</v>
       </c>
-      <c r="C625" s="2" t="n">
-        <v>44207</v>
+      <c r="C625" t="inlineStr">
+        <is>
+          <t>2021-01-11</t>
+        </is>
       </c>
       <c r="D625" t="n">
         <v>2021</v>
@@ -58172,8 +59416,10 @@
       <c r="B626" t="n">
         <v>1</v>
       </c>
-      <c r="C626" s="2" t="n">
-        <v>44207</v>
+      <c r="C626" t="inlineStr">
+        <is>
+          <t>2021-01-11</t>
+        </is>
       </c>
       <c r="D626" t="n">
         <v>2021</v>
@@ -58263,8 +59509,10 @@
       <c r="B627" t="n">
         <v>1</v>
       </c>
-      <c r="C627" s="2" t="n">
-        <v>44208</v>
+      <c r="C627" t="inlineStr">
+        <is>
+          <t>2021-01-12</t>
+        </is>
       </c>
       <c r="D627" t="n">
         <v>2021</v>
@@ -58356,8 +59604,10 @@
       <c r="B628" t="n">
         <v>1</v>
       </c>
-      <c r="C628" s="2" t="n">
-        <v>44214</v>
+      <c r="C628" t="inlineStr">
+        <is>
+          <t>2021-01-18</t>
+        </is>
       </c>
       <c r="D628" t="n">
         <v>2021</v>
@@ -58449,8 +59699,10 @@
       <c r="B629" t="n">
         <v>1</v>
       </c>
-      <c r="C629" s="2" t="n">
-        <v>44218</v>
+      <c r="C629" t="inlineStr">
+        <is>
+          <t>2021-01-22</t>
+        </is>
       </c>
       <c r="D629" t="n">
         <v>2021</v>
@@ -58542,8 +59794,10 @@
       <c r="B630" t="n">
         <v>1</v>
       </c>
-      <c r="C630" s="2" t="n">
-        <v>44219</v>
+      <c r="C630" t="inlineStr">
+        <is>
+          <t>2021-01-23</t>
+        </is>
       </c>
       <c r="D630" t="n">
         <v>2021</v>
@@ -58635,8 +59889,10 @@
       <c r="B631" t="n">
         <v>1</v>
       </c>
-      <c r="C631" s="2" t="n">
-        <v>44219</v>
+      <c r="C631" t="inlineStr">
+        <is>
+          <t>2021-01-23</t>
+        </is>
       </c>
       <c r="D631" t="n">
         <v>2021</v>
@@ -58728,8 +59984,10 @@
       <c r="B632" t="n">
         <v>1</v>
       </c>
-      <c r="C632" s="2" t="n">
-        <v>44223</v>
+      <c r="C632" t="inlineStr">
+        <is>
+          <t>2021-01-27</t>
+        </is>
       </c>
       <c r="D632" t="n">
         <v>2021</v>
@@ -58819,8 +60077,10 @@
       <c r="B633" t="n">
         <v>1</v>
       </c>
-      <c r="C633" s="2" t="n">
-        <v>44225</v>
+      <c r="C633" t="inlineStr">
+        <is>
+          <t>2021-01-29</t>
+        </is>
       </c>
       <c r="D633" t="n">
         <v>2021</v>
@@ -58912,8 +60172,10 @@
       <c r="B634" t="n">
         <v>1</v>
       </c>
-      <c r="C634" s="2" t="n">
-        <v>44227</v>
+      <c r="C634" t="inlineStr">
+        <is>
+          <t>2021-01-31</t>
+        </is>
       </c>
       <c r="D634" t="n">
         <v>2021</v>
@@ -59005,8 +60267,10 @@
       <c r="B635" t="n">
         <v>1</v>
       </c>
-      <c r="C635" s="2" t="n">
-        <v>44229</v>
+      <c r="C635" t="inlineStr">
+        <is>
+          <t>2021-02-02</t>
+        </is>
       </c>
       <c r="D635" t="n">
         <v>2021</v>
@@ -59098,8 +60362,10 @@
       <c r="B636" t="n">
         <v>1</v>
       </c>
-      <c r="C636" s="2" t="n">
-        <v>44233</v>
+      <c r="C636" t="inlineStr">
+        <is>
+          <t>2021-02-06</t>
+        </is>
       </c>
       <c r="D636" t="n">
         <v>2021</v>
@@ -59191,8 +60457,10 @@
       <c r="B637" t="n">
         <v>1</v>
       </c>
-      <c r="C637" s="2" t="n">
-        <v>44241</v>
+      <c r="C637" t="inlineStr">
+        <is>
+          <t>2021-02-14</t>
+        </is>
       </c>
       <c r="D637" t="n">
         <v>2021</v>
@@ -59284,8 +60552,10 @@
       <c r="B638" t="n">
         <v>1</v>
       </c>
-      <c r="C638" s="2" t="n">
-        <v>44244</v>
+      <c r="C638" t="inlineStr">
+        <is>
+          <t>2021-02-17</t>
+        </is>
       </c>
       <c r="D638" t="n">
         <v>2021</v>
@@ -59377,8 +60647,10 @@
       <c r="B639" t="n">
         <v>1</v>
       </c>
-      <c r="C639" s="2" t="n">
-        <v>44247</v>
+      <c r="C639" t="inlineStr">
+        <is>
+          <t>2021-02-20</t>
+        </is>
       </c>
       <c r="D639" t="n">
         <v>2021</v>
@@ -59470,8 +60742,10 @@
       <c r="B640" t="n">
         <v>1</v>
       </c>
-      <c r="C640" s="2" t="n">
-        <v>44248</v>
+      <c r="C640" t="inlineStr">
+        <is>
+          <t>2021-02-21</t>
+        </is>
       </c>
       <c r="D640" t="n">
         <v>2021</v>
@@ -59563,8 +60837,10 @@
       <c r="B641" t="n">
         <v>1</v>
       </c>
-      <c r="C641" s="2" t="n">
-        <v>44248</v>
+      <c r="C641" t="inlineStr">
+        <is>
+          <t>2021-02-21</t>
+        </is>
       </c>
       <c r="D641" t="n">
         <v>2021</v>
@@ -59656,8 +60932,10 @@
       <c r="B642" t="n">
         <v>1</v>
       </c>
-      <c r="C642" s="2" t="n">
-        <v>44253</v>
+      <c r="C642" t="inlineStr">
+        <is>
+          <t>2021-02-26</t>
+        </is>
       </c>
       <c r="D642" t="n">
         <v>2021</v>
@@ -59749,8 +61027,10 @@
       <c r="B643" t="n">
         <v>1</v>
       </c>
-      <c r="C643" s="2" t="n">
-        <v>44255</v>
+      <c r="C643" t="inlineStr">
+        <is>
+          <t>2021-02-28</t>
+        </is>
       </c>
       <c r="D643" t="n">
         <v>2021</v>
@@ -59842,8 +61122,10 @@
       <c r="B644" t="n">
         <v>1</v>
       </c>
-      <c r="C644" s="2" t="n">
-        <v>44256</v>
+      <c r="C644" t="inlineStr">
+        <is>
+          <t>2021-03-01</t>
+        </is>
       </c>
       <c r="D644" t="n">
         <v>2021</v>
@@ -59927,8 +61209,10 @@
       <c r="B645" t="n">
         <v>1</v>
       </c>
-      <c r="C645" s="2" t="n">
-        <v>44258</v>
+      <c r="C645" t="inlineStr">
+        <is>
+          <t>2021-03-03</t>
+        </is>
       </c>
       <c r="D645" t="n">
         <v>2021</v>
@@ -60020,8 +61304,10 @@
       <c r="B646" t="n">
         <v>1</v>
       </c>
-      <c r="C646" s="2" t="n">
-        <v>44266</v>
+      <c r="C646" t="inlineStr">
+        <is>
+          <t>2021-03-11</t>
+        </is>
       </c>
       <c r="D646" t="n">
         <v>2021</v>
@@ -60113,8 +61399,10 @@
       <c r="B647" t="n">
         <v>1</v>
       </c>
-      <c r="C647" s="2" t="n">
-        <v>44270</v>
+      <c r="C647" t="inlineStr">
+        <is>
+          <t>2021-03-15</t>
+        </is>
       </c>
       <c r="D647" t="n">
         <v>2021</v>
@@ -60202,8 +61490,10 @@
       <c r="B648" t="n">
         <v>1</v>
       </c>
-      <c r="C648" s="2" t="n">
-        <v>44271</v>
+      <c r="C648" t="inlineStr">
+        <is>
+          <t>2021-03-16</t>
+        </is>
       </c>
       <c r="D648" t="n">
         <v>2021</v>
@@ -60295,8 +61585,10 @@
       <c r="B649" t="n">
         <v>1</v>
       </c>
-      <c r="C649" s="2" t="n">
-        <v>44284</v>
+      <c r="C649" t="inlineStr">
+        <is>
+          <t>2021-03-29</t>
+        </is>
       </c>
       <c r="D649" t="n">
         <v>2021</v>
@@ -60388,8 +61680,10 @@
       <c r="B650" t="n">
         <v>1</v>
       </c>
-      <c r="C650" s="2" t="n">
-        <v>44286</v>
+      <c r="C650" t="inlineStr">
+        <is>
+          <t>2021-03-31</t>
+        </is>
       </c>
       <c r="D650" t="n">
         <v>2021</v>
@@ -60481,8 +61775,10 @@
       <c r="B651" t="n">
         <v>1</v>
       </c>
-      <c r="C651" s="2" t="n">
-        <v>44289</v>
+      <c r="C651" t="inlineStr">
+        <is>
+          <t>2021-04-03</t>
+        </is>
       </c>
       <c r="D651" t="n">
         <v>2021</v>
@@ -60572,8 +61868,10 @@
       <c r="B652" t="n">
         <v>1</v>
       </c>
-      <c r="C652" s="2" t="n">
-        <v>44293</v>
+      <c r="C652" t="inlineStr">
+        <is>
+          <t>2021-04-07</t>
+        </is>
       </c>
       <c r="D652" t="n">
         <v>2021</v>
@@ -60665,8 +61963,10 @@
       <c r="B653" t="n">
         <v>1</v>
       </c>
-      <c r="C653" s="2" t="n">
-        <v>44296</v>
+      <c r="C653" t="inlineStr">
+        <is>
+          <t>2021-04-10</t>
+        </is>
       </c>
       <c r="D653" t="n">
         <v>2021</v>
@@ -60758,8 +62058,10 @@
       <c r="B654" t="n">
         <v>1</v>
       </c>
-      <c r="C654" s="2" t="n">
-        <v>44300</v>
+      <c r="C654" t="inlineStr">
+        <is>
+          <t>2021-04-14</t>
+        </is>
       </c>
       <c r="D654" t="n">
         <v>2021</v>
@@ -60847,8 +62149,10 @@
       <c r="B655" t="n">
         <v>1</v>
       </c>
-      <c r="C655" s="2" t="n">
-        <v>44305</v>
+      <c r="C655" t="inlineStr">
+        <is>
+          <t>2021-04-19</t>
+        </is>
       </c>
       <c r="D655" t="n">
         <v>2021</v>
@@ -60940,8 +62244,10 @@
       <c r="B656" t="n">
         <v>1</v>
       </c>
-      <c r="C656" s="2" t="n">
-        <v>44319</v>
+      <c r="C656" t="inlineStr">
+        <is>
+          <t>2021-05-03</t>
+        </is>
       </c>
       <c r="D656" t="n">
         <v>2021</v>
@@ -61033,8 +62339,10 @@
       <c r="B657" t="n">
         <v>1</v>
       </c>
-      <c r="C657" s="2" t="n">
-        <v>44325</v>
+      <c r="C657" t="inlineStr">
+        <is>
+          <t>2021-05-09</t>
+        </is>
       </c>
       <c r="D657" t="n">
         <v>2021</v>
@@ -61126,8 +62434,10 @@
       <c r="B658" t="n">
         <v>1</v>
       </c>
-      <c r="C658" s="2" t="n">
-        <v>44327</v>
+      <c r="C658" t="inlineStr">
+        <is>
+          <t>2021-05-11</t>
+        </is>
       </c>
       <c r="D658" t="n">
         <v>2021</v>
@@ -61219,8 +62529,10 @@
       <c r="B659" t="n">
         <v>1</v>
       </c>
-      <c r="C659" s="2" t="n">
-        <v>44330</v>
+      <c r="C659" t="inlineStr">
+        <is>
+          <t>2021-05-14</t>
+        </is>
       </c>
       <c r="D659" t="n">
         <v>2021</v>
@@ -61312,8 +62624,10 @@
       <c r="B660" t="n">
         <v>1</v>
       </c>
-      <c r="C660" s="2" t="n">
-        <v>44331</v>
+      <c r="C660" t="inlineStr">
+        <is>
+          <t>2021-05-15</t>
+        </is>
       </c>
       <c r="D660" t="n">
         <v>2021</v>
@@ -61405,8 +62719,10 @@
       <c r="B661" t="n">
         <v>1</v>
       </c>
-      <c r="C661" s="2" t="n">
-        <v>44336</v>
+      <c r="C661" t="inlineStr">
+        <is>
+          <t>2021-05-20</t>
+        </is>
       </c>
       <c r="D661" t="n">
         <v>2021</v>
@@ -61498,8 +62814,10 @@
       <c r="B662" t="n">
         <v>1</v>
       </c>
-      <c r="C662" s="2" t="n">
-        <v>44336</v>
+      <c r="C662" t="inlineStr">
+        <is>
+          <t>2021-05-20</t>
+        </is>
       </c>
       <c r="D662" t="n">
         <v>2021</v>
@@ -61591,8 +62909,10 @@
       <c r="B663" t="n">
         <v>1</v>
       </c>
-      <c r="C663" s="2" t="n">
-        <v>44337</v>
+      <c r="C663" t="inlineStr">
+        <is>
+          <t>2021-05-21</t>
+        </is>
       </c>
       <c r="D663" t="n">
         <v>2021</v>
@@ -61682,8 +63002,10 @@
       <c r="B664" t="n">
         <v>1</v>
       </c>
-      <c r="C664" s="2" t="n">
-        <v>44338</v>
+      <c r="C664" t="inlineStr">
+        <is>
+          <t>2021-05-22</t>
+        </is>
       </c>
       <c r="D664" t="n">
         <v>2021</v>
@@ -61775,8 +63097,10 @@
       <c r="B665" t="n">
         <v>1</v>
       </c>
-      <c r="C665" s="2" t="n">
-        <v>44341</v>
+      <c r="C665" t="inlineStr">
+        <is>
+          <t>2021-05-25</t>
+        </is>
       </c>
       <c r="D665" t="n">
         <v>2021</v>
@@ -61868,8 +63192,10 @@
       <c r="B666" t="n">
         <v>1</v>
       </c>
-      <c r="C666" s="2" t="n">
-        <v>44342</v>
+      <c r="C666" t="inlineStr">
+        <is>
+          <t>2021-05-26</t>
+        </is>
       </c>
       <c r="D666" t="n">
         <v>2021</v>
@@ -61957,8 +63283,10 @@
       <c r="B667" t="n">
         <v>1</v>
       </c>
-      <c r="C667" s="2" t="n">
-        <v>44347</v>
+      <c r="C667" t="inlineStr">
+        <is>
+          <t>2021-05-31</t>
+        </is>
       </c>
       <c r="D667" t="n">
         <v>2021</v>
@@ -62050,8 +63378,10 @@
       <c r="B668" t="n">
         <v>1</v>
       </c>
-      <c r="C668" s="2" t="n">
-        <v>44349</v>
+      <c r="C668" t="inlineStr">
+        <is>
+          <t>2021-06-02</t>
+        </is>
       </c>
       <c r="D668" t="n">
         <v>2021</v>
@@ -62143,8 +63473,10 @@
       <c r="B669" t="n">
         <v>1</v>
       </c>
-      <c r="C669" s="2" t="n">
-        <v>44350</v>
+      <c r="C669" t="inlineStr">
+        <is>
+          <t>2021-06-03</t>
+        </is>
       </c>
       <c r="D669" t="n">
         <v>2021</v>
@@ -62236,8 +63568,10 @@
       <c r="B670" t="n">
         <v>1</v>
       </c>
-      <c r="C670" s="2" t="n">
-        <v>44350</v>
+      <c r="C670" t="inlineStr">
+        <is>
+          <t>2021-06-03</t>
+        </is>
       </c>
       <c r="D670" t="n">
         <v>2021</v>
@@ -62327,8 +63661,10 @@
       <c r="B671" t="n">
         <v>1</v>
       </c>
-      <c r="C671" s="2" t="n">
-        <v>44357</v>
+      <c r="C671" t="inlineStr">
+        <is>
+          <t>2021-06-10</t>
+        </is>
       </c>
       <c r="D671" t="n">
         <v>2021</v>
@@ -62418,8 +63754,10 @@
       <c r="B672" t="n">
         <v>1</v>
       </c>
-      <c r="C672" s="2" t="n">
-        <v>44362</v>
+      <c r="C672" t="inlineStr">
+        <is>
+          <t>2021-06-15</t>
+        </is>
       </c>
       <c r="D672" t="n">
         <v>2021</v>
@@ -62511,8 +63849,10 @@
       <c r="B673" t="n">
         <v>1</v>
       </c>
-      <c r="C673" s="2" t="n">
-        <v>44367</v>
+      <c r="C673" t="inlineStr">
+        <is>
+          <t>2021-06-20</t>
+        </is>
       </c>
       <c r="D673" t="n">
         <v>2021</v>
@@ -62602,8 +63942,10 @@
       <c r="B674" t="n">
         <v>1</v>
       </c>
-      <c r="C674" s="2" t="n">
-        <v>44367</v>
+      <c r="C674" t="inlineStr">
+        <is>
+          <t>2021-06-20</t>
+        </is>
       </c>
       <c r="D674" t="n">
         <v>2021</v>
@@ -62693,8 +64035,10 @@
       <c r="B675" t="n">
         <v>1</v>
       </c>
-      <c r="C675" s="2" t="n">
-        <v>44369</v>
+      <c r="C675" t="inlineStr">
+        <is>
+          <t>2021-06-22</t>
+        </is>
       </c>
       <c r="D675" t="n">
         <v>2021</v>
@@ -62786,8 +64130,10 @@
       <c r="B676" t="n">
         <v>1</v>
       </c>
-      <c r="C676" s="2" t="n">
-        <v>44376</v>
+      <c r="C676" t="inlineStr">
+        <is>
+          <t>2021-06-29</t>
+        </is>
       </c>
       <c r="D676" t="n">
         <v>2021</v>
@@ -62879,8 +64225,10 @@
       <c r="B677" t="n">
         <v>1</v>
       </c>
-      <c r="C677" s="2" t="n">
-        <v>44386</v>
+      <c r="C677" t="inlineStr">
+        <is>
+          <t>2021-07-09</t>
+        </is>
       </c>
       <c r="D677" t="n">
         <v>2021</v>
@@ -62972,8 +64320,10 @@
       <c r="B678" t="n">
         <v>1</v>
       </c>
-      <c r="C678" s="2" t="n">
-        <v>44387</v>
+      <c r="C678" t="inlineStr">
+        <is>
+          <t>2021-07-10</t>
+        </is>
       </c>
       <c r="D678" t="n">
         <v>2021</v>
@@ -63061,8 +64411,10 @@
       <c r="B679" t="n">
         <v>1</v>
       </c>
-      <c r="C679" s="2" t="n">
-        <v>44398</v>
+      <c r="C679" t="inlineStr">
+        <is>
+          <t>2021-07-21</t>
+        </is>
       </c>
       <c r="D679" t="n">
         <v>2021</v>
@@ -63154,8 +64506,10 @@
       <c r="B680" t="n">
         <v>1</v>
       </c>
-      <c r="C680" s="2" t="n">
-        <v>44399</v>
+      <c r="C680" t="inlineStr">
+        <is>
+          <t>2021-07-22</t>
+        </is>
       </c>
       <c r="D680" t="n">
         <v>2021</v>
@@ -63245,8 +64599,10 @@
       <c r="B681" t="n">
         <v>1</v>
       </c>
-      <c r="C681" s="2" t="n">
-        <v>44399</v>
+      <c r="C681" t="inlineStr">
+        <is>
+          <t>2021-07-22</t>
+        </is>
       </c>
       <c r="D681" t="n">
         <v>2021</v>
@@ -63338,8 +64694,10 @@
       <c r="B682" t="n">
         <v>1</v>
       </c>
-      <c r="C682" s="2" t="n">
-        <v>44401</v>
+      <c r="C682" t="inlineStr">
+        <is>
+          <t>2021-07-24</t>
+        </is>
       </c>
       <c r="D682" t="n">
         <v>2021</v>
@@ -63431,8 +64789,10 @@
       <c r="B683" t="n">
         <v>1</v>
       </c>
-      <c r="C683" s="2" t="n">
-        <v>44404</v>
+      <c r="C683" t="inlineStr">
+        <is>
+          <t>2021-07-27</t>
+        </is>
       </c>
       <c r="D683" t="n">
         <v>2021</v>
@@ -63522,8 +64882,10 @@
       <c r="B684" t="n">
         <v>1</v>
       </c>
-      <c r="C684" s="2" t="n">
-        <v>44410</v>
+      <c r="C684" t="inlineStr">
+        <is>
+          <t>2021-08-02</t>
+        </is>
       </c>
       <c r="D684" t="n">
         <v>2021</v>
@@ -63613,8 +64975,10 @@
       <c r="B685" t="n">
         <v>1</v>
       </c>
-      <c r="C685" s="2" t="n">
-        <v>44410</v>
+      <c r="C685" t="inlineStr">
+        <is>
+          <t>2021-08-02</t>
+        </is>
       </c>
       <c r="D685" t="n">
         <v>2021</v>
@@ -63706,8 +65070,10 @@
       <c r="B686" t="n">
         <v>1</v>
       </c>
-      <c r="C686" s="2" t="n">
-        <v>44414</v>
+      <c r="C686" t="inlineStr">
+        <is>
+          <t>2021-08-06</t>
+        </is>
       </c>
       <c r="D686" t="n">
         <v>2021</v>
@@ -63799,8 +65165,10 @@
       <c r="B687" t="n">
         <v>1</v>
       </c>
-      <c r="C687" s="2" t="n">
-        <v>44414</v>
+      <c r="C687" t="inlineStr">
+        <is>
+          <t>2021-08-06</t>
+        </is>
       </c>
       <c r="D687" t="n">
         <v>2021</v>
@@ -63892,8 +65260,10 @@
       <c r="B688" t="n">
         <v>1</v>
       </c>
-      <c r="C688" s="2" t="n">
-        <v>44416</v>
+      <c r="C688" t="inlineStr">
+        <is>
+          <t>2021-08-08</t>
+        </is>
       </c>
       <c r="D688" t="n">
         <v>2021</v>
@@ -63981,8 +65351,10 @@
       <c r="B689" t="n">
         <v>1</v>
       </c>
-      <c r="C689" s="2" t="n">
-        <v>44423</v>
+      <c r="C689" t="inlineStr">
+        <is>
+          <t>2021-08-15</t>
+        </is>
       </c>
       <c r="D689" t="n">
         <v>2021</v>
@@ -64072,8 +65444,10 @@
       <c r="B690" t="n">
         <v>1</v>
       </c>
-      <c r="C690" s="2" t="n">
-        <v>44428</v>
+      <c r="C690" t="inlineStr">
+        <is>
+          <t>2021-08-20</t>
+        </is>
       </c>
       <c r="D690" t="n">
         <v>2021</v>
@@ -64163,8 +65537,10 @@
       <c r="B691" t="n">
         <v>1</v>
       </c>
-      <c r="C691" s="2" t="n">
-        <v>44436</v>
+      <c r="C691" t="inlineStr">
+        <is>
+          <t>2021-08-28</t>
+        </is>
       </c>
       <c r="D691" t="n">
         <v>2021</v>
@@ -64256,8 +65632,10 @@
       <c r="B692" t="n">
         <v>1</v>
       </c>
-      <c r="C692" s="2" t="n">
-        <v>44439</v>
+      <c r="C692" t="inlineStr">
+        <is>
+          <t>2021-08-31</t>
+        </is>
       </c>
       <c r="D692" t="n">
         <v>2021</v>
@@ -64347,8 +65725,10 @@
       <c r="B693" t="n">
         <v>1</v>
       </c>
-      <c r="C693" s="2" t="n">
-        <v>44440</v>
+      <c r="C693" t="inlineStr">
+        <is>
+          <t>2021-09-01</t>
+        </is>
       </c>
       <c r="D693" t="n">
         <v>2021</v>
@@ -64440,8 +65820,10 @@
       <c r="B694" t="n">
         <v>1</v>
       </c>
-      <c r="C694" s="2" t="n">
-        <v>44457</v>
+      <c r="C694" t="inlineStr">
+        <is>
+          <t>2021-09-18</t>
+        </is>
       </c>
       <c r="D694" t="n">
         <v>2021</v>
@@ -64533,8 +65915,10 @@
       <c r="B695" t="n">
         <v>1</v>
       </c>
-      <c r="C695" s="2" t="n">
-        <v>44459</v>
+      <c r="C695" t="inlineStr">
+        <is>
+          <t>2021-09-20</t>
+        </is>
       </c>
       <c r="D695" t="n">
         <v>2021</v>
@@ -64626,8 +66010,10 @@
       <c r="B696" t="n">
         <v>1</v>
       </c>
-      <c r="C696" s="2" t="n">
-        <v>44460</v>
+      <c r="C696" t="inlineStr">
+        <is>
+          <t>2021-09-21</t>
+        </is>
       </c>
       <c r="D696" t="n">
         <v>2021</v>
@@ -64719,8 +66105,10 @@
       <c r="B697" t="n">
         <v>1</v>
       </c>
-      <c r="C697" s="2" t="n">
-        <v>44485</v>
+      <c r="C697" t="inlineStr">
+        <is>
+          <t>2021-10-16</t>
+        </is>
       </c>
       <c r="D697" t="n">
         <v>2021</v>
@@ -64810,8 +66198,10 @@
       <c r="B698" t="n">
         <v>1</v>
       </c>
-      <c r="C698" s="2" t="n">
-        <v>44487</v>
+      <c r="C698" t="inlineStr">
+        <is>
+          <t>2021-10-18</t>
+        </is>
       </c>
       <c r="D698" t="n">
         <v>2021</v>
@@ -64901,8 +66291,10 @@
       <c r="B699" t="n">
         <v>1</v>
       </c>
-      <c r="C699" s="2" t="n">
-        <v>44492</v>
+      <c r="C699" t="inlineStr">
+        <is>
+          <t>2021-10-23</t>
+        </is>
       </c>
       <c r="D699" t="n">
         <v>2021</v>
@@ -64994,8 +66386,10 @@
       <c r="B700" t="n">
         <v>1</v>
       </c>
-      <c r="C700" s="2" t="n">
-        <v>44494</v>
+      <c r="C700" t="inlineStr">
+        <is>
+          <t>2021-10-25</t>
+        </is>
       </c>
       <c r="D700" t="n">
         <v>2021</v>
@@ -65085,8 +66479,10 @@
       <c r="B701" t="n">
         <v>1</v>
       </c>
-      <c r="C701" s="2" t="n">
-        <v>44497</v>
+      <c r="C701" t="inlineStr">
+        <is>
+          <t>2021-10-28</t>
+        </is>
       </c>
       <c r="D701" t="n">
         <v>2021</v>
@@ -65178,8 +66574,10 @@
       <c r="B702" t="n">
         <v>1</v>
       </c>
-      <c r="C702" s="2" t="n">
-        <v>44502</v>
+      <c r="C702" t="inlineStr">
+        <is>
+          <t>2021-11-02</t>
+        </is>
       </c>
       <c r="D702" t="n">
         <v>2021</v>
@@ -65267,8 +66665,10 @@
       <c r="B703" t="n">
         <v>1</v>
       </c>
-      <c r="C703" s="2" t="n">
-        <v>44506</v>
+      <c r="C703" t="inlineStr">
+        <is>
+          <t>2021-11-06</t>
+        </is>
       </c>
       <c r="D703" t="n">
         <v>2021</v>
@@ -65356,8 +66756,10 @@
       <c r="B704" t="n">
         <v>1</v>
       </c>
-      <c r="C704" s="2" t="n">
-        <v>44509</v>
+      <c r="C704" t="inlineStr">
+        <is>
+          <t>2021-11-09</t>
+        </is>
       </c>
       <c r="D704" t="n">
         <v>2021</v>
@@ -65449,8 +66851,10 @@
       <c r="B705" t="n">
         <v>1</v>
       </c>
-      <c r="C705" s="2" t="n">
-        <v>44511</v>
+      <c r="C705" t="inlineStr">
+        <is>
+          <t>2021-11-11</t>
+        </is>
       </c>
       <c r="D705" t="n">
         <v>2021</v>
@@ -65542,8 +66946,10 @@
       <c r="B706" t="n">
         <v>1</v>
       </c>
-      <c r="C706" s="2" t="n">
-        <v>44520</v>
+      <c r="C706" t="inlineStr">
+        <is>
+          <t>2021-11-20</t>
+        </is>
       </c>
       <c r="D706" t="n">
         <v>2021</v>
@@ -65635,8 +67041,10 @@
       <c r="B707" t="n">
         <v>1</v>
       </c>
-      <c r="C707" s="2" t="n">
-        <v>44525</v>
+      <c r="C707" t="inlineStr">
+        <is>
+          <t>2021-11-25</t>
+        </is>
       </c>
       <c r="D707" t="n">
         <v>2021</v>
@@ -65728,8 +67136,10 @@
       <c r="B708" t="n">
         <v>1</v>
       </c>
-      <c r="C708" s="2" t="n">
-        <v>44527</v>
+      <c r="C708" t="inlineStr">
+        <is>
+          <t>2021-11-27</t>
+        </is>
       </c>
       <c r="D708" t="n">
         <v>2021</v>
@@ -65819,8 +67229,10 @@
       <c r="B709" t="n">
         <v>1</v>
       </c>
-      <c r="C709" s="2" t="n">
-        <v>44531</v>
+      <c r="C709" t="inlineStr">
+        <is>
+          <t>2021-12-01</t>
+        </is>
       </c>
       <c r="D709" t="n">
         <v>2021</v>
@@ -65912,8 +67324,10 @@
       <c r="B710" t="n">
         <v>1</v>
       </c>
-      <c r="C710" s="2" t="n">
-        <v>44532</v>
+      <c r="C710" t="inlineStr">
+        <is>
+          <t>2021-12-02</t>
+        </is>
       </c>
       <c r="D710" t="n">
         <v>2021</v>
@@ -66003,8 +67417,10 @@
       <c r="B711" t="n">
         <v>1</v>
       </c>
-      <c r="C711" s="2" t="n">
-        <v>44540</v>
+      <c r="C711" t="inlineStr">
+        <is>
+          <t>2021-12-10</t>
+        </is>
       </c>
       <c r="D711" t="n">
         <v>2021</v>
@@ -66096,8 +67512,10 @@
       <c r="B712" t="n">
         <v>1</v>
       </c>
-      <c r="C712" s="2" t="n">
-        <v>44541</v>
+      <c r="C712" t="inlineStr">
+        <is>
+          <t>2021-12-11</t>
+        </is>
       </c>
       <c r="D712" t="n">
         <v>2021</v>
@@ -66189,8 +67607,10 @@
       <c r="B713" t="n">
         <v>1</v>
       </c>
-      <c r="C713" s="2" t="n">
-        <v>44542</v>
+      <c r="C713" t="inlineStr">
+        <is>
+          <t>2021-12-12</t>
+        </is>
       </c>
       <c r="D713" t="n">
         <v>2021</v>
@@ -66282,8 +67702,10 @@
       <c r="B714" t="n">
         <v>1</v>
       </c>
-      <c r="C714" s="2" t="n">
-        <v>44543</v>
+      <c r="C714" t="inlineStr">
+        <is>
+          <t>2021-12-13</t>
+        </is>
       </c>
       <c r="D714" t="n">
         <v>2021</v>
@@ -66375,8 +67797,10 @@
       <c r="B715" t="n">
         <v>1</v>
       </c>
-      <c r="C715" s="2" t="n">
-        <v>44550</v>
+      <c r="C715" t="inlineStr">
+        <is>
+          <t>2021-12-20</t>
+        </is>
       </c>
       <c r="D715" t="n">
         <v>2021</v>
@@ -66468,8 +67892,10 @@
       <c r="B716" t="n">
         <v>1</v>
       </c>
-      <c r="C716" s="2" t="n">
-        <v>44560</v>
+      <c r="C716" t="inlineStr">
+        <is>
+          <t>2021-12-30</t>
+        </is>
       </c>
       <c r="D716" t="n">
         <v>2021</v>
@@ -66561,8 +67987,10 @@
       <c r="B717" t="n">
         <v>1</v>
       </c>
-      <c r="C717" s="2" t="n">
-        <v>44545</v>
+      <c r="C717" t="inlineStr">
+        <is>
+          <t>2021-12-15</t>
+        </is>
       </c>
       <c r="D717" t="n">
         <v>2021</v>
@@ -66652,8 +68080,10 @@
       <c r="B718" t="n">
         <v>1</v>
       </c>
-      <c r="C718" s="2" t="n">
-        <v>44518</v>
+      <c r="C718" t="inlineStr">
+        <is>
+          <t>2021-11-18</t>
+        </is>
       </c>
       <c r="D718" t="n">
         <v>2021</v>
